--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -673,28 +673,28 @@
         <v>1.79</v>
       </c>
       <c r="H2" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>2.26</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
         <v>1.83</v>
@@ -703,76 +703,76 @@
         <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +820,16 @@
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
         <v>1.66</v>
@@ -838,76 +838,76 @@
         <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -940,13 +940,13 @@
         <v>2.36</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>2.78</v>
       </c>
       <c r="I4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>2.74</v>
@@ -976,7 +976,7 @@
         <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -988,7 +988,7 @@
         <v>1.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G5" t="n">
         <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="I5" t="n">
         <v>2.56</v>
@@ -1123,7 +1123,7 @@
         <v>1.64</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1216,7 +1216,7 @@
         <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
         <v>6.2</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
         <v>1.78</v>
@@ -1522,7 +1522,7 @@
         <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>13.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>11.5</v>
@@ -1558,10 +1558,10 @@
         <v>27</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>55</v>
@@ -1582,7 +1582,7 @@
         <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1624,10 +1624,10 @@
         <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G10" t="n">
         <v>2.78</v>
@@ -1756,7 +1756,7 @@
         <v>2.56</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>3.05</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G11" t="n">
         <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
         <v>2.94</v>
@@ -1897,7 +1897,7 @@
         <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
         <v>2.12</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -2968,7 +2968,7 @@
         <v>2.78</v>
       </c>
       <c r="H19" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I19" t="n">
         <v>5.3</v>
@@ -2977,7 +2977,7 @@
         <v>2.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>1.76</v>
       </c>
       <c r="U20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="n">
         <v>19</v>
@@ -3169,7 +3169,7 @@
         <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE20" t="n">
         <v>60</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
@@ -3373,7 +3373,7 @@
         <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="I22" t="n">
         <v>3.65</v>
@@ -3382,7 +3382,7 @@
         <v>2.36</v>
       </c>
       <c r="K22" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
         <v>3.75</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,66 +1463,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.75</v>
+        <v>1.19</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>2.28</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.32</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>1.19</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.3</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>2.34</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,64 +1666,64 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Athlitiki Enosi Larissa</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="H10" t="n">
-        <v>2.56</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
         <v>1.01</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Athlitiki Enosi Larissa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>2.78</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="I11" t="n">
-        <v>2.94</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.74</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.52</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.81</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="J13" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>1.89</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>1.89</v>
+        <v>2.96</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2413,28 +2413,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="I15" t="n">
         <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="K15" t="n">
         <v>1000</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.56</v>
+        <v>1.56</v>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>1.87</v>
       </c>
       <c r="H16" t="n">
-        <v>2.66</v>
+        <v>2.14</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>2.68</v>
+        <v>2.14</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.45</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.34</v>
+        <v>1.5</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>2.26</v>
+        <v>2.74</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,66 +2813,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="G18" t="n">
-        <v>2.18</v>
+        <v>2.96</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>2.94</v>
       </c>
       <c r="I18" t="n">
         <v>4.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>2.28</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,64 +2881,64 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,66 +2948,66 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="G19" t="n">
-        <v>2.78</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q19" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,64 +3016,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,61 +3088,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>1.82</v>
+        <v>2.78</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>2.92</v>
       </c>
       <c r="R20" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,66 +3218,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="G21" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,64 +3286,64 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.48</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>1.81</v>
       </c>
       <c r="H22" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.65</v>
+        <v>6.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.36</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,135 +3478,270 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Chilean Primera Division</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>2025-11-24</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Nublense</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Huachipato</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="F24" t="n">
         <v>1.96</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G24" t="n">
         <v>2.6</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>3.05</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>4.7</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J24" t="n">
         <v>3</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K24" t="n">
         <v>6.2</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>1.01</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M24" t="n">
         <v>1.01</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N24" t="n">
         <v>1.73</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O24" t="n">
         <v>1.31</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P24" t="n">
         <v>1.73</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q24" t="n">
         <v>1.84</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R24" t="n">
         <v>1.27</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S24" t="n">
         <v>3</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T24" t="n">
         <v>1.01</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U24" t="n">
         <v>1.01</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V24" t="n">
         <v>1.27</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W24" t="n">
         <v>1.63</v>
       </c>
-      <c r="X23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO23" t="n">
+      <c r="X24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -838,7 +838,7 @@
         <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
         <v>1.89</v>
@@ -943,7 +943,7 @@
         <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
         <v>3.9</v>
@@ -952,7 +952,7 @@
         <v>2.74</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -967,10 +967,10 @@
         <v>1.02</v>
       </c>
       <c r="P4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
         <v>1.22</v>
@@ -1210,7 +1210,7 @@
         <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
         <v>2.3</v>
@@ -1219,7 +1219,7 @@
         <v>2.48</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
         <v>2.3</v>
@@ -1885,7 +1885,7 @@
         <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H11" t="n">
         <v>2.56</v>
@@ -1894,7 +1894,7 @@
         <v>3.85</v>
       </c>
       <c r="J11" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G13" t="n">
         <v>2.6</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G14" t="n">
         <v>2.2</v>
@@ -2299,7 +2299,7 @@
         <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H16" t="n">
         <v>2.14</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.35</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.65</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>4.4</v>
       </c>
       <c r="J18" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="K18" t="n">
         <v>4.6</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G19" t="n">
         <v>2.18</v>
@@ -3004,7 +3004,7 @@
         <v>4.6</v>
       </c>
       <c r="T19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
         <v>1.91</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>1.34</v>
       </c>
       <c r="G20" t="n">
         <v>2.78</v>
@@ -3106,10 +3106,10 @@
         <v>2.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="K20" t="n">
         <v>3.9</v>
@@ -3130,7 +3130,7 @@
         <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
         <v>1.82</v>
@@ -3289,7 +3289,7 @@
         <v>18</v>
       </c>
       <c r="Y21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z21" t="n">
         <v>40</v>
@@ -3304,7 +3304,7 @@
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE21" t="n">
         <v>60</v>
@@ -3316,7 +3316,7 @@
         <v>9.6</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="G22" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>4.1</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="I23" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="K23" t="n">
         <v>4.4</v>
@@ -3535,7 +3535,7 @@
         <v>1.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G24" t="n">
         <v>2.6</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
         <v>4.7</v>
@@ -3652,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3670,13 +3670,13 @@
         <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R24" t="n">
         <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,7 +805,7 @@
         <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H3" t="n">
         <v>2.7</v>
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
@@ -838,7 +838,7 @@
         <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
         <v>1.89</v>
@@ -853,7 +853,7 @@
         <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -967,7 +967,7 @@
         <v>1.02</v>
       </c>
       <c r="P4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q4" t="n">
         <v>2.08</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.65</v>
+        <v>2.14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,19 +1096,19 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.32</v>
+        <v>2.64</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S5" t="n">
         <v>3.4</v>
@@ -1210,7 +1210,7 @@
         <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H6" t="n">
         <v>2.3</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
         <v>1000</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>2.52</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
         <v>3.25</v>
@@ -1762,7 +1762,7 @@
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1885,19 +1885,19 @@
         <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I11" t="n">
         <v>3.85</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2701,10 +2701,10 @@
         <v>2.86</v>
       </c>
       <c r="I17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K17" t="n">
         <v>3.25</v>
@@ -2725,7 +2725,7 @@
         <v>1.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G19" t="n">
         <v>2.18</v>
@@ -2995,7 +2995,7 @@
         <v>1.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R19" t="n">
         <v>1.25</v>
@@ -3004,7 +3004,7 @@
         <v>4.6</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U19" t="n">
         <v>1.91</v>
@@ -3034,7 +3034,7 @@
         <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>70</v>
@@ -3046,7 +3046,7 @@
         <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
         <v>95</v>
@@ -3055,7 +3055,7 @@
         <v>30</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
         <v>55</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="G20" t="n">
         <v>2.78</v>
       </c>
       <c r="H20" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I20" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.56</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G21" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
         <v>4.8</v>
@@ -3244,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>4.2</v>
@@ -3268,16 +3268,16 @@
         <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S21" t="n">
         <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
         <v>19.5</v>
@@ -3313,7 +3313,7 @@
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH21" t="n">
         <v>17.5</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,66 +3353,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.64</v>
+        <v>2.12</v>
       </c>
       <c r="G22" t="n">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,64 +3421,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.12</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="H23" t="n">
-        <v>2.02</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.38</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,135 +3613,270 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Chilean Primera Division</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>2025-11-24</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Nublense</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Huachipato</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="F25" t="n">
         <v>1.97</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="G25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L25" t="n">
         <v>1.01</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M25" t="n">
         <v>1.01</v>
       </c>
-      <c r="N24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="N25" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.31</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="P25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.27</v>
       </c>
-      <c r="S24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO24" t="n">
+      <c r="W25" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,40 +667,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="G2" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
@@ -715,10 +715,10 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.26</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -844,10 +844,10 @@
         <v>1.89</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.33</v>
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>2.86</v>
       </c>
       <c r="H4" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>2.24</v>
       </c>
       <c r="O4" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
         <v>1.61</v>
@@ -973,10 +973,10 @@
         <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,22 +985,22 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
@@ -1027,13 +1027,13 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1075,109 +1075,109 @@
         <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
         <v>2.3</v>
@@ -1219,10 +1219,10 @@
         <v>2.48</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>1.97</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="Q8" t="n">
         <v>1.79</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Serik Belediyespor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.34</v>
+        <v>2.64</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>5.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,64 +1666,64 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.3</v>
+        <v>1.79</v>
       </c>
       <c r="G10" t="n">
-        <v>2.52</v>
+        <v>1.84</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>5.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>5.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Athlitiki Enosi Larissa</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.02</v>
+        <v>2.68</v>
       </c>
       <c r="G11" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
         <v>1.01</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="G12" t="n">
         <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.94</v>
+        <v>2.32</v>
       </c>
       <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.25</v>
       </c>
-      <c r="K12" t="n">
-        <v>6</v>
-      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>2.42</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="H13" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,54 +2273,54 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Athlitiki Enosi Larissa</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.86</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.96</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,36 +2408,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>2.96</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.91</v>
+        <v>2.36</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,28 +2548,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="I16" t="n">
         <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="K16" t="n">
         <v>1000</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,36 +2678,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>1.61</v>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>1.74</v>
       </c>
       <c r="H17" t="n">
-        <v>2.86</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.25</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.55</v>
+        <v>2.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.54</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>1.86</v>
       </c>
       <c r="G18" t="n">
-        <v>2.96</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J18" t="n">
-        <v>2.3</v>
+        <v>2.98</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.5</v>
+        <v>2.26</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.18</v>
+        <v>1.64</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,66 +2948,66 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="G19" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>2.76</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.42</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,64 +3016,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,36 +3083,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.81</v>
+        <v>2.7</v>
       </c>
       <c r="G20" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.62</v>
+        <v>2.86</v>
       </c>
       <c r="I20" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.94</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.96</v>
+        <v>2.54</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,66 +3218,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>2.68</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>2.72</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="R21" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,64 +3286,64 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,33 +3353,33 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.12</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.14</v>
+        <v>4.7</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
         <v>3.5</v>
@@ -3388,31 +3388,31 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,64 +3421,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC23" t="n">
         <v>7.2</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.84</v>
+        <v>2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>2.54</v>
       </c>
       <c r="H24" t="n">
-        <v>2.02</v>
+        <v>3.85</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,125 +3758,665 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>1.82</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>2.68</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="S25" t="n">
         <v>3.05</v>
       </c>
       <c r="T25" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ceara SC Fortaleza</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L29" t="n">
         <v>1.01</v>
       </c>
-      <c r="U25" t="n">
+      <c r="M29" t="n">
         <v>1.01</v>
       </c>
-      <c r="V25" t="n">
+      <c r="N29" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.27</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W29" t="n">
         <v>1.66</v>
       </c>
-      <c r="X25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO25" t="n">
+      <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,37 +667,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>1.05</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
         <v>1.75</v>
@@ -706,7 +706,7 @@
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -715,10 +715,10 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -814,13 +814,13 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.86</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.84</v>
-      </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -955,94 +955,94 @@
         <v>3.55</v>
       </c>
       <c r="L4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.41</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.09</v>
-      </c>
       <c r="P4" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL4" t="n">
         <v>65</v>
       </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>75</v>
-      </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1075,19 +1075,19 @@
         <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.38</v>
@@ -1096,37 +1096,37 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
         <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
@@ -1144,7 +1144,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
         <v>980</v>
@@ -1159,7 +1159,7 @@
         <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>95</v>
@@ -1168,7 +1168,7 @@
         <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
@@ -1210,7 +1210,7 @@
         <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="n">
         <v>2.3</v>
@@ -1225,94 +1225,94 @@
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
         <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G8" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
         <v>2.64</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.01</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1765,94 +1765,94 @@
         <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.82</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1900,94 +1900,94 @@
         <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.01</v>
       </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2035,7 +2035,7 @@
         <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M12" t="n">
         <v>1.11</v>
@@ -2050,7 +2050,7 @@
         <v>1.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
@@ -2065,22 +2065,22 @@
         <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2092,43 +2092,43 @@
         <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Athlitiki Enosi Larissa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.85</v>
       </c>
       <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.01</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Athlitiki Enosi Larissa</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="I14" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2425,16 +2425,16 @@
         <v>2.96</v>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I15" t="n">
         <v>2.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>3.75</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.91</v>
+        <v>2.86</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.43</v>
+        <v>2.54</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,36 +2678,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.61</v>
+        <v>2.16</v>
       </c>
       <c r="G17" t="n">
-        <v>1.74</v>
+        <v>2.94</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>2.66</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.86</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>3.25</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.98</v>
-      </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.26</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.64</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,66 +2948,66 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="H19" t="n">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P19" t="n">
-        <v>2.3</v>
+        <v>1.69</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,64 +3016,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,37 +3083,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.1</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.54</v>
+        <v>2.96</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,66 +3218,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>2.68</v>
+        <v>1.82</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.2</v>
       </c>
-      <c r="J21" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,64 +3286,64 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,33 +3353,33 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="G22" t="n">
-        <v>4.7</v>
+        <v>2.14</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K22" t="n">
         <v>3.5</v>
@@ -3388,31 +3388,31 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,64 +3421,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,66 +3488,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,58 +3556,58 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3623,54 +3623,54 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.28</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.96</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,665 +3758,125 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>2.68</v>
       </c>
       <c r="O25" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="S25" t="n">
         <v>3.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X25" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H26" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Mirassol</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Ceara SC Fortaleza</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>19:15:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Nublense</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Huachipato</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO29" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>1.05</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
         <v>1.75</v>
@@ -718,7 +718,7 @@
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
@@ -850,10 +850,10 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -940,13 +940,13 @@
         <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="H4" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="I4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -967,7 +967,7 @@
         <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
@@ -976,7 +976,7 @@
         <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
         <v>1.87</v>
@@ -988,7 +988,7 @@
         <v>1.42</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
@@ -1000,7 +1000,7 @@
         <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
         <v>11.5</v>
@@ -1009,7 +1009,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>50</v>
@@ -1018,7 +1018,7 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>24</v>
@@ -1075,10 +1075,10 @@
         <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I5" t="n">
         <v>2.46</v>
@@ -1087,31 +1087,31 @@
         <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
         <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.72</v>
@@ -1123,10 +1123,10 @@
         <v>1.68</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
@@ -1144,7 +1144,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>980</v>
@@ -1159,7 +1159,7 @@
         <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
         <v>95</v>
@@ -1168,7 +1168,7 @@
         <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H6" t="n">
         <v>2.3</v>
@@ -1258,7 +1258,7 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G8" t="n">
         <v>2.02</v>
@@ -1663,7 +1663,7 @@
         <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1750,19 +1750,19 @@
         <v>1.79</v>
       </c>
       <c r="G10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I10" t="n">
         <v>5.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.7</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1777,10 +1777,10 @@
         <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
         <v>1.33</v>
@@ -1798,7 +1798,7 @@
         <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X10" t="n">
         <v>16</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="H11" t="n">
         <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1906,7 +1906,7 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
@@ -1915,79 +1915,79 @@
         <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.29</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I12" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2059,16 +2059,16 @@
         <v>4.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
         <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X12" t="n">
         <v>9.800000000000001</v>
@@ -2080,7 +2080,7 @@
         <v>12.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2092,7 +2092,7 @@
         <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
         <v>24</v>
@@ -2116,7 +2116,7 @@
         <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
         <v>70</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Athlitiki Enosi Larissa</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>1.85</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V13" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,55 +2278,55 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Athlitiki Enosi Larissa</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="O14" t="n">
-        <v>1.05</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>1.59</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2425,7 +2425,7 @@
         <v>2.96</v>
       </c>
       <c r="G15" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="H15" t="n">
         <v>2.38</v>
@@ -2440,100 +2440,100 @@
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
         <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>1.79</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>1.98</v>
       </c>
       <c r="H16" t="n">
-        <v>2.86</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.54</v>
+        <v>1.45</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.16</v>
+        <v>1.61</v>
       </c>
       <c r="G17" t="n">
-        <v>2.94</v>
+        <v>1.74</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.66</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
-        <v>4.7</v>
+        <v>2.18</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>2.28</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.22</v>
+        <v>1.64</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="G19" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>2.76</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>3.05</v>
+        <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>1.69</v>
+        <v>2.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>1.48</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.54</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.96</v>
-      </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="G21" t="n">
-        <v>1.82</v>
+        <v>2.94</v>
       </c>
       <c r="H21" t="n">
-        <v>4.9</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>2.66</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>4.5</v>
+        <v>1.52</v>
       </c>
       <c r="O21" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>2.22</v>
+        <v>1.52</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="R21" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X21" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.14</v>
+        <v>4.7</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>2.02</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
         <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>1.68</v>
       </c>
       <c r="O22" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.79</v>
       </c>
-      <c r="Q22" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.97</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X22" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.199999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AM22" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>19.5</v>
+        <v>100</v>
       </c>
       <c r="AO22" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
-        <v>1.74</v>
+        <v>2.16</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC23" t="n">
         <v>7.2</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>2.64</v>
       </c>
       <c r="H24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
         <v>2.76</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>3.1</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.28</v>
+        <v>2.96</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,126 +3758,666 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>1.82</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>2.68</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="S25" t="n">
         <v>3.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.66</v>
+        <v>2.22</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ceara SC Fortaleza</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -691,7 +691,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.94</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
@@ -703,16 +703,16 @@
         <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.11</v>
@@ -805,7 +805,7 @@
         <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -820,13 +820,13 @@
         <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.79</v>
+        <v>2.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -841,7 +841,7 @@
         <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>2.04</v>
+        <v>2.56</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
@@ -853,7 +853,7 @@
         <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -940,7 +940,7 @@
         <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="H4" t="n">
         <v>2.92</v>
@@ -976,7 +976,7 @@
         <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.87</v>
@@ -1222,7 +1222,7 @@
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.43</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" t="n">
         <v>1.61</v>
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
@@ -1615,7 +1615,7 @@
         <v>2.88</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
         <v>2.32</v>
@@ -1663,7 +1663,7 @@
         <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1750,10 +1750,10 @@
         <v>1.79</v>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>
@@ -1762,7 +1762,7 @@
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1891,13 +1891,13 @@
         <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1930,7 +1930,7 @@
         <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W11" t="n">
         <v>1.56</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G12" t="n">
         <v>3.85</v>
@@ -2053,7 +2053,7 @@
         <v>2.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
         <v>4.8</v>
@@ -2062,7 +2062,7 @@
         <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
         <v>1.73</v>
@@ -2155,10 +2155,10 @@
         <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
         <v>3.3</v>
@@ -2203,7 +2203,7 @@
         <v>1.44</v>
       </c>
       <c r="W13" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2293,13 +2293,13 @@
         <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>3.75</v>
@@ -2560,7 +2560,7 @@
         <v>1.79</v>
       </c>
       <c r="G16" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="H16" t="n">
         <v>3.85</v>
@@ -2608,7 +2608,7 @@
         <v>1.24</v>
       </c>
       <c r="W16" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2704,7 +2704,7 @@
         <v>6.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K17" t="n">
         <v>5.6</v>
@@ -2836,10 +2836,10 @@
         <v>3.45</v>
       </c>
       <c r="I18" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
         <v>4.9</v>
@@ -2851,7 +2851,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -2863,76 +2863,76 @@
         <v>1.64</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="S18" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
         <v>1.84</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -3112,7 +3112,7 @@
         <v>2.94</v>
       </c>
       <c r="K20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3256,13 +3256,13 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O21" t="n">
         <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q21" t="n">
         <v>2.18</v>
@@ -3373,10 +3373,10 @@
         <v>4.7</v>
       </c>
       <c r="H22" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
@@ -3403,7 +3403,7 @@
         <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S22" t="n">
         <v>3.55</v>
@@ -3412,10 +3412,10 @@
         <v>1.79</v>
       </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W22" t="n">
         <v>1.27</v>
@@ -3601,7 +3601,7 @@
         <v>50</v>
       </c>
       <c r="AM23" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
         <v>23</v>
@@ -3640,7 +3640,7 @@
         <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="H24" t="n">
         <v>3.9</v>
@@ -3661,19 +3661,19 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
         <v>2.96</v>
       </c>
       <c r="R24" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="S24" t="n">
         <v>6.2</v>
@@ -3793,7 +3793,7 @@
         <v>1.35</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
         <v>4.5</v>
@@ -3814,7 +3814,7 @@
         <v>3.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U25" t="n">
         <v>2.22</v>
@@ -3823,13 +3823,13 @@
         <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X25" t="n">
         <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z25" t="n">
         <v>38</v>
@@ -3856,7 +3856,7 @@
         <v>9.6</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI25" t="n">
         <v>60</v>
@@ -3874,7 +3874,7 @@
         <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO25" t="n">
         <v>55</v>
@@ -3937,7 +3937,7 @@
         <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q26" t="n">
         <v>2.26</v>
@@ -3949,16 +3949,16 @@
         <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U26" t="n">
         <v>1.98</v>
       </c>
       <c r="V26" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
@@ -4006,7 +4006,7 @@
         <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN26" t="n">
         <v>19</v>
@@ -4045,7 +4045,7 @@
         <v>1.65</v>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H27" t="n">
         <v>6</v>
@@ -4060,16 +4060,16 @@
         <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
         <v>1.73</v>
@@ -4078,76 +4078,76 @@
         <v>1.97</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4195,94 +4195,94 @@
         <v>3.45</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
         <v>1.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4315,13 +4315,13 @@
         <v>2.14</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H29" t="n">
         <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
         <v>3.2</v>
@@ -4363,7 +4363,7 @@
         <v>1.33</v>
       </c>
       <c r="W29" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
         <v>17</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -691,19 +691,19 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>2.64</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.32</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
         <v>2.2</v>
@@ -838,7 +838,7 @@
         <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
         <v>2.56</v>
@@ -940,7 +940,7 @@
         <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="H4" t="n">
         <v>2.92</v>
@@ -988,7 +988,7 @@
         <v>1.42</v>
       </c>
       <c r="W4" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>70</v>
@@ -1075,10 +1075,10 @@
         <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I5" t="n">
         <v>2.46</v>
@@ -1114,7 +1114,7 @@
         <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
         <v>1.81</v>
@@ -1132,13 +1132,13 @@
         <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
         <v>9.199999999999999</v>
@@ -1216,7 +1216,7 @@
         <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W6" t="n">
         <v>1.38</v>
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="G7" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>8.199999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>1.98</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>1.77</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>4.5</v>
@@ -1528,7 +1528,7 @@
         <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1618,7 +1618,7 @@
         <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
         <v>2.64</v>
@@ -1633,13 +1633,13 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>2.06</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
         <v>2.04</v>
@@ -1648,76 +1648,76 @@
         <v>1.76</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W9" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -1777,7 +1777,7 @@
         <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q10" t="n">
         <v>2.02</v>
@@ -2062,7 +2062,7 @@
         <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
         <v>1.73</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2200,10 +2200,10 @@
         <v>2.34</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2215,7 +2215,7 @@
         <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
@@ -2293,13 +2293,13 @@
         <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
         <v>3.75</v>
@@ -2308,10 +2308,10 @@
         <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>1.86</v>
+        <v>3.45</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
@@ -2320,79 +2320,79 @@
         <v>1.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W14" t="n">
         <v>1.63</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2425,13 +2425,13 @@
         <v>2.96</v>
       </c>
       <c r="G15" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
         <v>2.38</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J15" t="n">
         <v>3.3</v>
@@ -2443,7 +2443,7 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
         <v>3.1</v>
@@ -2458,67 +2458,67 @@
         <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2560,13 +2560,13 @@
         <v>1.79</v>
       </c>
       <c r="G16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
         <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2581,10 +2581,10 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>2.56</v>
+        <v>5.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
         <v>2.56</v>
@@ -2593,76 +2593,76 @@
         <v>1.45</v>
       </c>
       <c r="R16" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="S16" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="T16" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V16" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -2701,13 +2701,13 @@
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>4.3</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,10 +2716,10 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>2.42</v>
+        <v>5.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
         <v>2.42</v>
@@ -2728,76 +2728,76 @@
         <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="S17" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="T17" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V17" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W17" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G18" t="n">
         <v>2.18</v>
@@ -2851,10 +2851,10 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
         <v>2.28</v>
@@ -2863,7 +2863,7 @@
         <v>1.64</v>
       </c>
       <c r="R18" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
         <v>2.6</v>
@@ -2878,7 +2878,7 @@
         <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="X18" t="n">
         <v>26</v>
@@ -2986,7 +2986,7 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
@@ -2998,16 +2998,16 @@
         <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="T19" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="V19" t="n">
         <v>1.5</v>
@@ -3016,7 +3016,7 @@
         <v>1.62</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
         <v>980</v>
@@ -3025,49 +3025,49 @@
         <v>980</v>
       </c>
       <c r="AA19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM19" t="n">
         <v>65</v>
       </c>
-      <c r="AB19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>90</v>
-      </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -3106,7 +3106,7 @@
         <v>2.94</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
         <v>2.94</v>
@@ -3118,13 +3118,13 @@
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>1.56</v>
+        <v>2.66</v>
       </c>
       <c r="O20" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P20" t="n">
         <v>1.55</v>
@@ -3133,76 +3133,76 @@
         <v>2.54</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S20" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W20" t="n">
         <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3271,7 +3271,7 @@
         <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3385,34 +3385,34 @@
         <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>1.68</v>
+        <v>3.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
         <v>1.68</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
         <v>1.84</v>
@@ -3421,25 +3421,25 @@
         <v>1.27</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AB22" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE22" t="n">
         <v>980</v>
@@ -3448,28 +3448,28 @@
         <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
         <v>980</v>
       </c>
       <c r="AI22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK22" t="n">
         <v>65</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>75</v>
-      </c>
       <c r="AL22" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AO22" t="n">
         <v>980</v>
@@ -3505,7 +3505,7 @@
         <v>2.14</v>
       </c>
       <c r="G23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
         <v>4.2</v>
@@ -3514,13 +3514,13 @@
         <v>4.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
         <v>3.35</v>
       </c>
       <c r="L23" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
@@ -3544,7 +3544,7 @@
         <v>4.6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U23" t="n">
         <v>1.91</v>
@@ -3553,7 +3553,7 @@
         <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X23" t="n">
         <v>10</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
         <v>4.9</v>
@@ -3790,7 +3790,7 @@
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -3817,7 +3817,7 @@
         <v>1.77</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V25" t="n">
         <v>1.25</v>
@@ -3829,7 +3829,7 @@
         <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="n">
         <v>38</v>
@@ -3844,7 +3844,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>55</v>
@@ -3910,16 +3910,16 @@
         <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H26" t="n">
         <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
         <v>3.5</v>
@@ -4063,10 +4063,10 @@
         <v>1.49</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>1.73</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -4078,16 +4078,16 @@
         <v>1.97</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="V27" t="n">
         <v>1.16</v>
@@ -4096,58 +4096,58 @@
         <v>2.34</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF27" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -4180,7 +4180,7 @@
         <v>2.84</v>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H28" t="n">
         <v>2.76</v>
@@ -4198,91 +4198,91 @@
         <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.63</v>
+        <v>2.86</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P28" t="n">
         <v>1.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="U28" t="n">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="V28" t="n">
         <v>1.47</v>
       </c>
       <c r="W28" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>55</v>
       </c>
-      <c r="AF28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>75</v>
-      </c>
       <c r="AK28" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -4315,31 +4315,31 @@
         <v>2.14</v>
       </c>
       <c r="G29" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
         <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
         <v>3.8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
         <v>1.89</v>
@@ -4360,10 +4360,10 @@
         <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X29" t="n">
         <v>17</v>
@@ -4396,7 +4396,7 @@
         <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
         <v>65</v>
@@ -4414,7 +4414,7 @@
         <v>120</v>
       </c>
       <c r="AN29" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
         <v>55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>9.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.64</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.94</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
         <v>2.36</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
@@ -820,16 +820,16 @@
         <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
         <v>1.78</v>
@@ -838,10 +838,10 @@
         <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>2.56</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
@@ -850,64 +850,64 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
         <v>1.6</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -970,25 +970,25 @@
         <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
         <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
         <v>8.800000000000001</v>
@@ -1015,7 +1015,7 @@
         <v>50</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1027,10 +1027,10 @@
         <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK4" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
@@ -1039,7 +1039,7 @@
         <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO4" t="n">
         <v>55</v>
@@ -1084,10 +1084,10 @@
         <v>2.46</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.39</v>
@@ -1102,7 +1102,7 @@
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
         <v>2.02</v>
@@ -1114,10 +1114,10 @@
         <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V5" t="n">
         <v>1.68</v>
@@ -1156,7 +1156,7 @@
         <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
         <v>60</v>
@@ -1348,10 +1348,10 @@
         <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1372,10 +1372,10 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
         <v>1.43</v>
@@ -1384,70 +1384,70 @@
         <v>2.82</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
         <v>2.24</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1486,10 +1486,10 @@
         <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>4.7</v>
@@ -1498,91 +1498,91 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.89</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
         <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
         <v>2.04</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1777,7 +1777,7 @@
         <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" t="n">
         <v>2.02</v>
@@ -1792,7 +1792,7 @@
         <v>1.91</v>
       </c>
       <c r="U10" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V10" t="n">
         <v>1.21</v>
@@ -2062,7 +2062,7 @@
         <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
         <v>1.73</v>
@@ -2458,10 +2458,10 @@
         <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
         <v>1.78</v>
@@ -2548,67 +2548,67 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.79</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>2.76</v>
       </c>
       <c r="I16" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S16" t="n">
         <v>2.56</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.26</v>
-      </c>
       <c r="T16" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2620,7 +2620,7 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="n">
         <v>980</v>
@@ -2659,10 +2659,10 @@
         <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="G17" t="n">
-        <v>1.74</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U17" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
         <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="G18" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="T18" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
@@ -2953,67 +2953,67 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.34</v>
+        <v>1.61</v>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="H19" t="n">
-        <v>2.76</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.15</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="S19" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="T19" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.62</v>
+        <v>2.36</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
@@ -3022,52 +3022,52 @@
         <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA19" t="n">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
       </c>
       <c r="AM19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO19" t="n">
         <v>65</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94</v>
+        <v>2.68</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>1.53</v>
+        <v>2.66</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="W21" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -3397,10 +3397,10 @@
         <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R22" t="n">
         <v>1.25</v>
@@ -3430,7 +3430,7 @@
         <v>13</v>
       </c>
       <c r="AA22" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AB22" t="n">
         <v>14</v>
@@ -3451,7 +3451,7 @@
         <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>48</v>
@@ -3514,7 +3514,7 @@
         <v>4.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
         <v>3.35</v>
@@ -3544,7 +3544,7 @@
         <v>4.6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U23" t="n">
         <v>1.91</v>
@@ -3640,13 +3640,13 @@
         <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J24" t="n">
         <v>2.76</v>
@@ -3658,91 +3658,91 @@
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N24" t="n">
-        <v>1.25</v>
+        <v>2.18</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="R24" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S24" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X24" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
@@ -3790,7 +3790,7 @@
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -3808,7 +3808,7 @@
         <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S25" t="n">
         <v>3.05</v>
@@ -3817,7 +3817,7 @@
         <v>1.77</v>
       </c>
       <c r="U25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
         <v>1.25</v>
@@ -3850,7 +3850,7 @@
         <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>9.6</v>
@@ -3925,13 +3925,13 @@
         <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O26" t="n">
         <v>1.43</v>
@@ -3949,7 +3949,7 @@
         <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U26" t="n">
         <v>1.98</v>
@@ -4066,7 +4066,7 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -4087,7 +4087,7 @@
         <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
         <v>1.16</v>
@@ -4114,7 +4114,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AE27" t="n">
         <v>150</v>
@@ -4129,13 +4129,13 @@
         <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ27" t="n">
         <v>18</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
         <v>50</v>
@@ -4207,7 +4207,7 @@
         <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q28" t="n">
         <v>2.3</v>
@@ -4225,7 +4225,7 @@
         <v>1.9</v>
       </c>
       <c r="V28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W28" t="n">
         <v>1.46</v>
@@ -4418,6 +4418,276 @@
       </c>
       <c r="AO29" t="n">
         <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>340</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -676,7 +676,7 @@
         <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -688,37 +688,37 @@
         <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
         <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="X2" t="n">
         <v>980</v>
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G3" t="n">
         <v>2.66</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="K3" t="n">
         <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
         <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
@@ -850,7 +850,7 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.6</v>
@@ -955,19 +955,19 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
         <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
         <v>2.22</v>
@@ -982,7 +982,7 @@
         <v>1.88</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
         <v>1.41</v>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>70</v>
@@ -1033,10 +1033,10 @@
         <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
         <v>40</v>
@@ -1090,7 +1090,7 @@
         <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1102,49 +1102,49 @@
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
         <v>1.82</v>
       </c>
       <c r="V5" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="W5" t="n">
         <v>1.32</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
         <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
         <v>980</v>
@@ -1159,7 +1159,7 @@
         <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>95</v>
@@ -1168,13 +1168,13 @@
         <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO5" t="n">
         <v>980</v>
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
         <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
         <v>1.66</v>
       </c>
       <c r="W6" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
@@ -1297,22 +1297,22 @@
         <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1351,16 +1351,16 @@
         <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K7" t="n">
         <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1447,7 +1447,7 @@
         <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
         <v>5.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
         <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V8" t="n">
         <v>1.21</v>
       </c>
       <c r="W8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
@@ -1567,19 +1567,19 @@
         <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>95</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
@@ -1636,37 +1636,37 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
         <v>1.76</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
         <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
         <v>12.5</v>
@@ -1678,10 +1678,10 @@
         <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>12.5</v>
@@ -1699,10 +1699,10 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1711,13 +1711,13 @@
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>1.79</v>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H10" t="n">
         <v>5.3</v>
@@ -1762,13 +1762,13 @@
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
         <v>3.5</v>
@@ -1780,7 +1780,7 @@
         <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>1.33</v>
@@ -1792,13 +1792,13 @@
         <v>1.91</v>
       </c>
       <c r="U10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V10" t="n">
         <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X10" t="n">
         <v>16</v>
@@ -1891,13 +1891,13 @@
         <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1930,7 +1930,7 @@
         <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
         <v>1.56</v>
@@ -1939,7 +1939,7 @@
         <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
         <v>980</v>
@@ -2044,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
         <v>1.67</v>
@@ -2053,7 +2053,7 @@
         <v>2.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
         <v>4.8</v>
@@ -2062,7 +2062,7 @@
         <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
         <v>1.73</v>
@@ -2161,7 +2161,7 @@
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2170,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2188,7 +2188,7 @@
         <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
         <v>2.84</v>
@@ -2197,19 +2197,19 @@
         <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W13" t="n">
         <v>1.71</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
@@ -2218,13 +2218,13 @@
         <v>65</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
         <v>980</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.3</v>
@@ -2326,16 +2326,16 @@
         <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
         <v>1.76</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
         <v>1.63</v>
@@ -2356,7 +2356,7 @@
         <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>17</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G15" t="n">
         <v>3.45</v>
@@ -2446,16 +2446,16 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>1.3</v>
@@ -2467,7 +2467,7 @@
         <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
         <v>1.59</v>
@@ -2476,58 +2476,58 @@
         <v>1.41</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>60</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>80</v>
-      </c>
       <c r="AK15" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2719,7 +2719,7 @@
         <v>4.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
         <v>2.28</v>
@@ -2770,7 +2770,7 @@
         <v>48</v>
       </c>
       <c r="AF17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>13.5</v>
@@ -2842,10 +2842,10 @@
         <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -2866,7 +2866,7 @@
         <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T18" t="n">
         <v>1.59</v>
@@ -2965,7 +2965,7 @@
         <v>1.61</v>
       </c>
       <c r="G19" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
@@ -2974,10 +2974,10 @@
         <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2986,28 +2986,28 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R19" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S19" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
         <v>1.2</v>
@@ -3016,22 +3016,22 @@
         <v>2.36</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
         <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB19" t="n">
         <v>14.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
         <v>26</v>
@@ -3040,7 +3040,7 @@
         <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -3049,13 +3049,13 @@
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
         <v>17.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
@@ -3064,10 +3064,10 @@
         <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3151,7 +3151,7 @@
         <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y20" t="n">
         <v>10.5</v>
@@ -3178,7 +3178,7 @@
         <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
@@ -3199,7 +3199,7 @@
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO20" t="n">
         <v>60</v>
@@ -3244,7 +3244,7 @@
         <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K21" t="n">
         <v>3.4</v>
@@ -3259,7 +3259,7 @@
         <v>2.66</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
         <v>1.57</v>
@@ -3268,7 +3268,7 @@
         <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
         <v>4.7</v>
@@ -3382,7 +3382,7 @@
         <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.48</v>
@@ -3397,13 +3397,13 @@
         <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q22" t="n">
         <v>2.16</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S22" t="n">
         <v>4.2</v>
@@ -3466,7 +3466,7 @@
         <v>80</v>
       </c>
       <c r="AM22" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="n">
         <v>85</v>
@@ -3511,7 +3511,7 @@
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
@@ -3532,10 +3532,10 @@
         <v>1.46</v>
       </c>
       <c r="P23" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R23" t="n">
         <v>1.25</v>
@@ -3547,7 +3547,7 @@
         <v>2.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
         <v>1.3</v>
@@ -3565,7 +3565,7 @@
         <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB23" t="n">
         <v>7.8</v>
@@ -3574,7 +3574,7 @@
         <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE23" t="n">
         <v>65</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
         <v>2.5</v>
@@ -3646,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J24" t="n">
         <v>2.76</v>
@@ -3679,13 +3679,13 @@
         <v>7.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U24" t="n">
         <v>1.59</v>
       </c>
       <c r="V24" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
         <v>1.66</v>
@@ -3700,7 +3700,7 @@
         <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB24" t="n">
         <v>6.6</v>
@@ -3712,7 +3712,7 @@
         <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF24" t="n">
         <v>13.5</v>
@@ -3742,7 +3742,7 @@
         <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -3817,7 +3817,7 @@
         <v>1.77</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V25" t="n">
         <v>1.25</v>
@@ -3844,7 +3844,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
         <v>55</v>
@@ -3853,7 +3853,7 @@
         <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH25" t="n">
         <v>18.5</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="G27" t="n">
         <v>1.74</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I27" t="n">
         <v>7.2</v>
@@ -4078,7 +4078,7 @@
         <v>1.97</v>
       </c>
       <c r="R27" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
@@ -4132,7 +4132,7 @@
         <v>140</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
         <v>980</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J28" t="n">
         <v>3.05</v>
@@ -4210,16 +4210,16 @@
         <v>1.61</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
         <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
         <v>1.9</v>
@@ -4228,7 +4228,7 @@
         <v>1.48</v>
       </c>
       <c r="W28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X28" t="n">
         <v>10.5</v>
@@ -4252,7 +4252,7 @@
         <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF28" t="n">
         <v>980</v>
@@ -4318,10 +4318,10 @@
         <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -4345,7 +4345,7 @@
         <v>1.89</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R29" t="n">
         <v>1.34</v>
@@ -4360,7 +4360,7 @@
         <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W29" t="n">
         <v>1.67</v>
@@ -4378,7 +4378,7 @@
         <v>85</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
         <v>9.800000000000001</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G30" t="n">
         <v>2.32</v>
       </c>
       <c r="H30" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
         <v>3.6</v>
@@ -4531,7 +4531,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI30" t="n">
         <v>65</v>
@@ -4546,7 +4546,7 @@
         <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN30" t="n">
         <v>980</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G31" t="n">
         <v>1.8</v>
@@ -4591,7 +4591,7 @@
         <v>6.4</v>
       </c>
       <c r="I31" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J31" t="n">
         <v>3.45</v>
@@ -4615,7 +4615,7 @@
         <v>1.54</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R31" t="n">
         <v>1.19</v>
@@ -4645,7 +4645,7 @@
         <v>55</v>
       </c>
       <c r="AA31" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AB31" t="n">
         <v>5.9</v>
@@ -4657,10 +4657,10 @@
         <v>980</v>
       </c>
       <c r="AE31" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
@@ -4669,7 +4669,7 @@
         <v>980</v>
       </c>
       <c r="AI31" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ31" t="n">
         <v>980</v>
@@ -4681,13 +4681,13 @@
         <v>65</v>
       </c>
       <c r="AM31" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AN31" t="n">
         <v>980</v>
       </c>
       <c r="AO31" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
         <v>1.7</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -835,7 +835,7 @@
         <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
@@ -850,10 +850,10 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X3" t="n">
         <v>13.5</v>
@@ -862,10 +862,10 @@
         <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -874,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
         <v>980</v>
@@ -1216,13 +1216,13 @@
         <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.48</v>
@@ -1240,7 +1240,7 @@
         <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1255,7 +1255,7 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W6" t="n">
         <v>1.36</v>
@@ -1351,7 +1351,7 @@
         <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.95</v>
@@ -1390,7 +1390,7 @@
         <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
         <v>2.24</v>
@@ -1495,7 +1495,7 @@
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1750,16 +1750,16 @@
         <v>1.79</v>
       </c>
       <c r="G10" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>3.9</v>
@@ -1768,7 +1768,7 @@
         <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
         <v>3.5</v>
@@ -1780,7 +1780,7 @@
         <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
         <v>1.33</v>
@@ -1798,7 +1798,7 @@
         <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X10" t="n">
         <v>16</v>
@@ -1885,10 +1885,10 @@
         <v>2.64</v>
       </c>
       <c r="G11" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -1933,7 +1933,7 @@
         <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X11" t="n">
         <v>19.5</v>
@@ -2047,10 +2047,10 @@
         <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
@@ -2059,7 +2059,7 @@
         <v>4.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
         <v>1.9</v>
@@ -2155,34 +2155,34 @@
         <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
         <v>1.74</v>
@@ -2203,7 +2203,7 @@
         <v>1.42</v>
       </c>
       <c r="W13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
         <v>23</v>
@@ -2290,7 +2290,7 @@
         <v>2.34</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
@@ -2302,7 +2302,7 @@
         <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.42</v>
@@ -2320,7 +2320,7 @@
         <v>1.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R14" t="n">
         <v>1.33</v>
@@ -2365,7 +2365,7 @@
         <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>3.45</v>
@@ -2434,7 +2434,7 @@
         <v>2.68</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>3.75</v>
@@ -2563,7 +2563,7 @@
         <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I16" t="n">
         <v>3.15</v>
@@ -2572,7 +2572,7 @@
         <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2596,13 +2596,13 @@
         <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T16" t="n">
         <v>1.57</v>
       </c>
       <c r="U16" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V16" t="n">
         <v>1.5</v>
@@ -2695,10 +2695,10 @@
         <v>1.99</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
         <v>4.1</v>
@@ -2707,7 +2707,7 @@
         <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2734,16 +2734,16 @@
         <v>2.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V17" t="n">
         <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X17" t="n">
         <v>26</v>
@@ -2830,10 +2830,10 @@
         <v>1.82</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I18" t="n">
         <v>4.6</v>
@@ -2860,7 +2860,7 @@
         <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="R18" t="n">
         <v>1.55</v>
@@ -2878,7 +2878,7 @@
         <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>
@@ -2929,7 +2929,7 @@
         <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AO18" t="n">
         <v>980</v>
@@ -2995,7 +2995,7 @@
         <v>2.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R19" t="n">
         <v>1.6</v>
@@ -3007,7 +3007,7 @@
         <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V19" t="n">
         <v>1.2</v>
@@ -3103,7 +3103,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I20" t="n">
         <v>3.25</v>
@@ -3112,7 +3112,7 @@
         <v>2.94</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3127,7 +3127,7 @@
         <v>1.52</v>
       </c>
       <c r="P20" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q20" t="n">
         <v>2.54</v>
@@ -3157,10 +3157,10 @@
         <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB20" t="n">
         <v>10.5</v>
@@ -3370,19 +3370,19 @@
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H22" t="n">
         <v>2.08</v>
       </c>
       <c r="I22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
         <v>1.48</v>
@@ -3415,7 +3415,7 @@
         <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
         <v>1.27</v>
@@ -3433,7 +3433,7 @@
         <v>980</v>
       </c>
       <c r="AB22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8</v>
@@ -3451,7 +3451,7 @@
         <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
         <v>48</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>4.2</v>
@@ -3514,10 +3514,10 @@
         <v>4.3</v>
       </c>
       <c r="J23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.35</v>
       </c>
       <c r="L23" t="n">
         <v>1.51</v>
@@ -3532,10 +3532,10 @@
         <v>1.46</v>
       </c>
       <c r="P23" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R23" t="n">
         <v>1.25</v>
@@ -3553,7 +3553,7 @@
         <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X23" t="n">
         <v>10</v>
@@ -3562,7 +3562,7 @@
         <v>12.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA23" t="n">
         <v>95</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J24" t="n">
         <v>2.76</v>
@@ -3685,10 +3685,10 @@
         <v>1.59</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X24" t="n">
         <v>7</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.82</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.83</v>
       </c>
       <c r="H25" t="n">
         <v>4.9</v>
@@ -3796,13 +3796,13 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
         <v>1.8</v>
@@ -3811,13 +3811,13 @@
         <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
         <v>1.25</v>
@@ -3856,7 +3856,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>60</v>
@@ -3865,7 +3865,7 @@
         <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL25" t="n">
         <v>30</v>
@@ -3913,7 +3913,7 @@
         <v>2.12</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
         <v>4.4</v>
@@ -3931,7 +3931,7 @@
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
         <v>1.43</v>
@@ -4045,7 +4045,7 @@
         <v>1.62</v>
       </c>
       <c r="G27" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H27" t="n">
         <v>6.2</v>
@@ -4054,13 +4054,13 @@
         <v>7.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4069,7 +4069,7 @@
         <v>3.15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
         <v>1.73</v>
@@ -4093,7 +4093,7 @@
         <v>1.16</v>
       </c>
       <c r="W27" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X27" t="n">
         <v>14.5</v>
@@ -4210,7 +4210,7 @@
         <v>1.61</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R28" t="n">
         <v>1.23</v>
@@ -4225,7 +4225,7 @@
         <v>1.9</v>
       </c>
       <c r="V28" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W28" t="n">
         <v>1.47</v>
@@ -4315,16 +4315,16 @@
         <v>2.14</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H29" t="n">
         <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
         <v>3.8</v>
@@ -4345,13 +4345,13 @@
         <v>1.89</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R29" t="n">
         <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
         <v>1.78</v>
@@ -4363,7 +4363,7 @@
         <v>1.33</v>
       </c>
       <c r="W29" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="X29" t="n">
         <v>17</v>
@@ -4495,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W30" t="n">
         <v>1.75</v>
@@ -4537,7 +4537,7 @@
         <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="n">
         <v>980</v>
@@ -4615,7 +4615,7 @@
         <v>1.54</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R31" t="n">
         <v>1.19</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="H2" t="n">
         <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -706,19 +706,19 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="X2" t="n">
         <v>980</v>
@@ -727,7 +727,7 @@
         <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
@@ -850,28 +850,28 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>15.5</v>
@@ -880,10 +880,10 @@
         <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>18.5</v>
@@ -895,7 +895,7 @@
         <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
         <v>980</v>
@@ -904,10 +904,10 @@
         <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1216,13 +1216,13 @@
         <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
         <v>1.48</v>
@@ -1231,19 +1231,19 @@
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
         <v>4.2</v>
@@ -1255,7 +1255,7 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>1.36</v>
@@ -1354,7 +1354,7 @@
         <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
         <v>5.3</v>
@@ -1477,31 +1477,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="G8" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
         <v>1.31</v>
@@ -1510,7 +1510,7 @@
         <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
         <v>1.34</v>
@@ -1519,28 +1519,28 @@
         <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
         <v>10.5</v>
@@ -1549,10 +1549,10 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="n">
         <v>13.5</v>
@@ -1561,10 +1561,10 @@
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1576,13 +1576,13 @@
         <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
         <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="G9" t="n">
         <v>3.25</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>
@@ -1762,7 +1762,7 @@
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1771,16 +1771,16 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
         <v>1.33</v>
@@ -1798,7 +1798,7 @@
         <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X10" t="n">
         <v>16</v>
@@ -1828,7 +1828,7 @@
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
@@ -1885,10 +1885,10 @@
         <v>2.64</v>
       </c>
       <c r="G11" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -1912,22 +1912,22 @@
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
         <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
         <v>1.5</v>
@@ -2050,7 +2050,7 @@
         <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
@@ -2155,16 +2155,16 @@
         <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
         <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
         <v>3.95</v>
@@ -2197,13 +2197,13 @@
         <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
         <v>1.42</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="X13" t="n">
         <v>23</v>
@@ -2428,7 +2428,7 @@
         <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I15" t="n">
         <v>2.68</v>
@@ -2455,7 +2455,7 @@
         <v>1.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
         <v>1.3</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -2590,7 +2590,7 @@
         <v>2.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R16" t="n">
         <v>1.52</v>
@@ -2605,13 +2605,13 @@
         <v>2.46</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
         <v>980</v>
@@ -2620,7 +2620,7 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="n">
         <v>980</v>
@@ -2662,7 +2662,7 @@
         <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="O18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.2</v>
       </c>
-      <c r="P18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Y18" t="n">
         <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
         <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>1.97</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S19" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.4</v>
-      </c>
       <c r="T19" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="U19" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="W19" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
         <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H20" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K20" t="n">
         <v>3.15</v>
@@ -3121,34 +3121,34 @@
         <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P20" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T20" t="n">
         <v>2.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
         <v>1.45</v>
       </c>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
@@ -3166,7 +3166,7 @@
         <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
         <v>15</v>
@@ -3244,13 +3244,13 @@
         <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K21" t="n">
         <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
@@ -3259,19 +3259,19 @@
         <v>2.66</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R21" t="n">
         <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
         <v>1.99</v>
@@ -3283,7 +3283,7 @@
         <v>1.36</v>
       </c>
       <c r="W21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X21" t="n">
         <v>9.800000000000001</v>
@@ -3370,19 +3370,19 @@
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I22" t="n">
         <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.48</v>
@@ -3418,7 +3418,7 @@
         <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X22" t="n">
         <v>12</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
         <v>2.46</v>
@@ -3652,7 +3652,7 @@
         <v>2.76</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3796,7 +3796,7 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
@@ -3808,7 +3808,7 @@
         <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S25" t="n">
         <v>3</v>
@@ -3856,7 +3856,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>60</v>
@@ -3865,7 +3865,7 @@
         <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
         <v>30</v>
@@ -3922,7 +3922,7 @@
         <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L26" t="n">
         <v>1.48</v>
@@ -3931,7 +3931,7 @@
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O26" t="n">
         <v>1.43</v>
@@ -3955,7 +3955,7 @@
         <v>1.98</v>
       </c>
       <c r="V26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W26" t="n">
         <v>1.89</v>
@@ -4054,7 +4054,7 @@
         <v>7.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
@@ -4066,16 +4066,16 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="n">
         <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
@@ -4087,7 +4087,7 @@
         <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
         <v>1.16</v>
@@ -4105,7 +4105,7 @@
         <v>60</v>
       </c>
       <c r="AA27" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB27" t="n">
         <v>7.2</v>
@@ -4117,7 +4117,7 @@
         <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF27" t="n">
         <v>9.6</v>
@@ -4138,22 +4138,22 @@
         <v>980</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN27" t="n">
         <v>14</v>
       </c>
       <c r="AO27" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.86</v>
+        <v>1.04</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="H28" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="I28" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="K28" t="n">
-        <v>3.45</v>
+        <v>950</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.86</v>
+        <v>1.26</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="S28" t="n">
-        <v>4.5</v>
+        <v>1.46</v>
       </c>
       <c r="T28" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.14</v>
+        <v>2.86</v>
       </c>
       <c r="G29" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>2.74</v>
       </c>
       <c r="I29" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="J29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.35</v>
       </c>
-      <c r="K29" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>3.6</v>
+        <v>2.86</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="P29" t="n">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.96</v>
+        <v>2.34</v>
       </c>
       <c r="R29" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="S29" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="U29" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V29" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="W29" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>55</v>
       </c>
-      <c r="AF29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI29" t="n">
+      <c r="AK29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL29" t="n">
         <v>65</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>980</v>
-      </c>
       <c r="AM29" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AO29" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,111 +4433,111 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G30" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="H30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
         <v>3.6</v>
       </c>
-      <c r="I30" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.2</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="P30" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="R30" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V30" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W30" t="n">
         <v>1.75</v>
       </c>
       <c r="X30" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="Z30" t="n">
         <v>980</v>
       </c>
       <c r="AA30" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK30" t="n">
         <v>980</v>
@@ -4546,19 +4546,19 @@
         <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN30" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,99 +4568,99 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.72</v>
+        <v>2.26</v>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>6.4</v>
+        <v>3.55</v>
       </c>
       <c r="I31" t="n">
-        <v>7.2</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.62</v>
+        <v>2.12</v>
       </c>
       <c r="R31" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="T31" t="n">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="U31" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="W31" t="n">
-        <v>2.24</v>
+        <v>1.76</v>
       </c>
       <c r="X31" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA31" t="n">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AB31" t="n">
-        <v>5.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
         <v>980</v>
       </c>
       <c r="AE31" t="n">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
@@ -4669,24 +4669,159 @@
         <v>980</v>
       </c>
       <c r="AI31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI32" t="n">
         <v>190</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL31" t="n">
+      <c r="AJ32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL32" t="n">
         <v>65</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AM32" t="n">
         <v>330</v>
       </c>
-      <c r="AN31" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO31" t="n">
+      <c r="AN32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO32" t="n">
         <v>350</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
         <v>1.64</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
@@ -685,7 +685,7 @@
         <v>5.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -697,7 +697,7 @@
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
         <v>1.86</v>
@@ -709,13 +709,13 @@
         <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
         <v>2.52</v>
@@ -727,7 +727,7 @@
         <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -754,7 +754,7 @@
         <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
         <v>980</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G3" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>3.9</v>
@@ -817,10 +817,10 @@
         <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -829,19 +829,19 @@
         <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
@@ -853,7 +853,7 @@
         <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -907,7 +907,7 @@
         <v>24</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -955,7 +955,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -967,7 +967,7 @@
         <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
         <v>2.22</v>
@@ -1075,13 +1075,13 @@
         <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I5" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
@@ -1090,13 +1090,13 @@
         <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
@@ -1129,7 +1129,7 @@
         <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1156,7 +1156,7 @@
         <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>55</v>
@@ -1219,7 +1219,7 @@
         <v>2.48</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
         <v>3.45</v>
@@ -1240,7 +1240,7 @@
         <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
@@ -1255,7 +1255,7 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W6" t="n">
         <v>1.36</v>
@@ -1534,7 +1534,7 @@
         <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
         <v>42</v>
@@ -1552,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
         <v>13.5</v>
@@ -1564,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1573,7 +1573,7 @@
         <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
         <v>130</v>
@@ -1615,19 +1615,19 @@
         <v>2.86</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1639,19 +1639,19 @@
         <v>4.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
         <v>1.64</v>
@@ -1660,25 +1660,25 @@
         <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA9" t="n">
         <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.800000000000001</v>
@@ -1687,25 +1687,25 @@
         <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
@@ -1714,10 +1714,10 @@
         <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="10">
@@ -1771,25 +1771,25 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
         <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
         <v>1.96</v>
@@ -1813,7 +1813,7 @@
         <v>170</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
         <v>8.6</v>
@@ -1822,7 +1822,7 @@
         <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
@@ -1849,7 +1849,7 @@
         <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO10" t="n">
         <v>120</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -2059,7 +2059,7 @@
         <v>4.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
         <v>1.9</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
         <v>2.36</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
         <v>3.35</v>
@@ -2167,10 +2167,10 @@
         <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2179,28 +2179,28 @@
         <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
         <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
         <v>1.73</v>
@@ -2434,7 +2434,7 @@
         <v>2.68</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>3.75</v>
@@ -2449,7 +2449,7 @@
         <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
         <v>1.8</v>
@@ -2731,7 +2731,7 @@
         <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T17" t="n">
         <v>1.61</v>
@@ -2842,7 +2842,7 @@
         <v>4.4</v>
       </c>
       <c r="K18" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2980,7 +2980,7 @@
         <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G20" t="n">
         <v>2.98</v>
@@ -3106,13 +3106,13 @@
         <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J20" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,13 +3121,13 @@
         <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O20" t="n">
         <v>1.53</v>
       </c>
       <c r="P20" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q20" t="n">
         <v>2.56</v>
@@ -3136,16 +3136,16 @@
         <v>1.21</v>
       </c>
       <c r="S20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
         <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W20" t="n">
         <v>1.51</v>
@@ -3244,7 +3244,7 @@
         <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
         <v>3.4</v>
@@ -3256,19 +3256,19 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P21" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
         <v>4.3</v>
@@ -3277,7 +3277,7 @@
         <v>1.99</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V21" t="n">
         <v>1.36</v>
@@ -3316,7 +3316,7 @@
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>75</v>
@@ -3331,7 +3331,7 @@
         <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
         <v>980</v>
@@ -3376,10 +3376,10 @@
         <v>2.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
         <v>3.5</v>
@@ -3391,7 +3391,7 @@
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.42</v>
@@ -3400,7 +3400,7 @@
         <v>1.71</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
         <v>1.26</v>
@@ -3409,16 +3409,16 @@
         <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U22" t="n">
         <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W22" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X22" t="n">
         <v>12</v>
@@ -3430,7 +3430,7 @@
         <v>13</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AB22" t="n">
         <v>13.5</v>
@@ -3439,16 +3439,16 @@
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AF22" t="n">
         <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH22" t="n">
         <v>980</v>
@@ -3463,7 +3463,7 @@
         <v>65</v>
       </c>
       <c r="AL22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM22" t="n">
         <v>160</v>
@@ -3472,7 +3472,7 @@
         <v>85</v>
       </c>
       <c r="AO22" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.18</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -3526,7 +3526,7 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.46</v>
@@ -3535,7 +3535,7 @@
         <v>1.68</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R23" t="n">
         <v>1.25</v>
@@ -3547,13 +3547,13 @@
         <v>2.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X23" t="n">
         <v>10</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G24" t="n">
         <v>2.46</v>
@@ -3652,7 +3652,7 @@
         <v>2.76</v>
       </c>
       <c r="K24" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,7 +3661,7 @@
         <v>1.16</v>
       </c>
       <c r="N24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="O24" t="n">
         <v>1.73</v>
@@ -3703,10 +3703,10 @@
         <v>140</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD24" t="n">
         <v>22</v>
@@ -3808,10 +3808,10 @@
         <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T25" t="n">
         <v>1.79</v>
@@ -3847,7 +3847,7 @@
         <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -3871,7 +3871,7 @@
         <v>30</v>
       </c>
       <c r="AM25" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN25" t="n">
         <v>9.6</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.12</v>
       </c>
       <c r="H26" t="n">
         <v>4.2</v>
@@ -3925,7 +3925,7 @@
         <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -3934,7 +3934,7 @@
         <v>3.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
         <v>1.78</v>
@@ -3949,7 +3949,7 @@
         <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U26" t="n">
         <v>1.98</v>
@@ -3958,7 +3958,7 @@
         <v>1.29</v>
       </c>
       <c r="W26" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G27" t="n">
         <v>1.73</v>
@@ -4072,10 +4072,10 @@
         <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
@@ -4201,13 +4201,13 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="Q28" t="n">
         <v>1.02</v>
@@ -4321,13 +4321,13 @@
         <v>2.74</v>
       </c>
       <c r="I29" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
         <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.5</v>
@@ -4345,7 +4345,7 @@
         <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
         <v>1.23</v>
@@ -4360,7 +4360,7 @@
         <v>1.9</v>
       </c>
       <c r="V29" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W29" t="n">
         <v>1.47</v>
@@ -4450,13 +4450,13 @@
         <v>2.16</v>
       </c>
       <c r="G30" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H30" t="n">
         <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
@@ -4468,19 +4468,19 @@
         <v>1.41</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
         <v>1.34</v>
@@ -4528,7 +4528,7 @@
         <v>17.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AH30" t="n">
         <v>22</v>
@@ -4594,10 +4594,10 @@
         <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L31" t="n">
         <v>1.47</v>
@@ -4609,7 +4609,7 @@
         <v>3.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P31" t="n">
         <v>1.77</v>
@@ -4630,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W31" t="n">
         <v>1.76</v>
@@ -4720,19 +4720,19 @@
         <v>1.72</v>
       </c>
       <c r="G32" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>6.2</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,7 +4741,7 @@
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="O32" t="n">
         <v>1.54</v>
@@ -4750,7 +4750,7 @@
         <v>1.54</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="R32" t="n">
         <v>1.19</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G3" t="n">
         <v>2.38</v>
@@ -853,7 +853,7 @@
         <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -1216,10 +1216,10 @@
         <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
         <v>3.45</v>
@@ -1231,16 +1231,16 @@
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
@@ -1255,7 +1255,7 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W6" t="n">
         <v>1.36</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G7" t="n">
         <v>1.8</v>
@@ -1354,10 +1354,10 @@
         <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.29</v>
@@ -1618,7 +1618,7 @@
         <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
         <v>2.66</v>
@@ -1627,10 +1627,10 @@
         <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1642,7 +1642,7 @@
         <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
         <v>1.75</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G10" t="n">
         <v>1.85</v>
@@ -1801,7 +1801,7 @@
         <v>2.16</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>17</v>
@@ -2023,7 +2023,7 @@
         <v>3.85</v>
       </c>
       <c r="H12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I12" t="n">
         <v>2.36</v>
@@ -2038,19 +2038,19 @@
         <v>1.52</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O12" t="n">
         <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
@@ -2059,10 +2059,10 @@
         <v>4.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V12" t="n">
         <v>1.73</v>
@@ -2071,7 +2071,7 @@
         <v>1.35</v>
       </c>
       <c r="X12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -2122,7 +2122,7 @@
         <v>70</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -2209,7 +2209,7 @@
         <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
@@ -2221,7 +2221,7 @@
         <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>14.5</v>
@@ -2233,7 +2233,7 @@
         <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
         <v>980</v>
@@ -2254,7 +2254,7 @@
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
         <v>980</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G14" t="n">
         <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
         <v>3.3</v>
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
         <v>12.5</v>
@@ -2392,7 +2392,7 @@
         <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15">
@@ -2440,13 +2440,13 @@
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
         <v>1.35</v>
@@ -2560,22 +2560,22 @@
         <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H16" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
         <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2587,13 +2587,13 @@
         <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q16" t="n">
         <v>1.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S16" t="n">
         <v>2.58</v>
@@ -2602,13 +2602,13 @@
         <v>1.57</v>
       </c>
       <c r="U16" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V16" t="n">
         <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
         <v>26</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
         <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
         <v>4.8</v>
@@ -2716,22 +2716,22 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
         <v>1.61</v>
@@ -2743,7 +2743,7 @@
         <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X17" t="n">
         <v>26</v>
@@ -2773,7 +2773,7 @@
         <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
         <v>19.5</v>
@@ -2782,10 +2782,10 @@
         <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
@@ -2794,7 +2794,7 @@
         <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO17" t="n">
         <v>36</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G18" t="n">
         <v>1.73</v>
@@ -2902,7 +2902,7 @@
         <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
         <v>13.5</v>
@@ -2926,10 +2926,10 @@
         <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
         <v>60</v>
@@ -2968,7 +2968,7 @@
         <v>1.97</v>
       </c>
       <c r="H19" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
         <v>4.6</v>
@@ -2980,13 +2980,13 @@
         <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
@@ -3007,7 +3007,7 @@
         <v>1.59</v>
       </c>
       <c r="U19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V19" t="n">
         <v>1.27</v>
@@ -3100,7 +3100,7 @@
         <v>2.82</v>
       </c>
       <c r="G20" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>2.96</v>
@@ -3130,10 +3130,10 @@
         <v>1.56</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R20" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S20" t="n">
         <v>5.3</v>
@@ -3148,7 +3148,7 @@
         <v>1.46</v>
       </c>
       <c r="W20" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
@@ -3163,10 +3163,10 @@
         <v>60</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>15</v>
@@ -3178,7 +3178,7 @@
         <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="G21" t="n">
         <v>2.68</v>
@@ -3256,7 +3256,7 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O21" t="n">
         <v>1.46</v>
@@ -3274,7 +3274,7 @@
         <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
         <v>1.84</v>
@@ -3286,7 +3286,7 @@
         <v>1.6</v>
       </c>
       <c r="X21" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
         <v>11</v>
@@ -3370,13 +3370,13 @@
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H22" t="n">
         <v>2.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
@@ -3412,10 +3412,10 @@
         <v>1.9</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V22" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
         <v>1.29</v>
@@ -3469,7 +3469,7 @@
         <v>160</v>
       </c>
       <c r="AN22" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO22" t="n">
         <v>21</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.16</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.18</v>
       </c>
       <c r="H23" t="n">
         <v>4.2</v>
@@ -3553,7 +3553,7 @@
         <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X23" t="n">
         <v>10</v>
@@ -3562,7 +3562,7 @@
         <v>12.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
         <v>95</v>
@@ -3655,7 +3655,7 @@
         <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="M24" t="n">
         <v>1.16</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.81</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.82</v>
-      </c>
       <c r="H25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -3808,22 +3808,22 @@
         <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U25" t="n">
         <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X25" t="n">
         <v>17</v>
@@ -3844,7 +3844,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE25" t="n">
         <v>60</v>
@@ -3856,7 +3856,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI25" t="n">
         <v>60</v>
@@ -3865,7 +3865,7 @@
         <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL25" t="n">
         <v>30</v>
@@ -3877,7 +3877,7 @@
         <v>9.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H26" t="n">
         <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J26" t="n">
         <v>3.4</v>
@@ -3931,7 +3931,7 @@
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
         <v>1.42</v>
@@ -3949,22 +3949,22 @@
         <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U26" t="n">
         <v>1.98</v>
       </c>
       <c r="V26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
         <v>30</v>
@@ -3973,7 +3973,7 @@
         <v>95</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
         <v>7.6</v>
@@ -3997,7 +3997,7 @@
         <v>75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK26" t="n">
         <v>24</v>
@@ -4072,7 +4072,7 @@
         <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
         <v>2.16</v>
@@ -4126,7 +4126,7 @@
         <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
         <v>140</v>
@@ -4144,7 +4144,7 @@
         <v>210</v>
       </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO27" t="n">
         <v>220</v>
@@ -4189,7 +4189,7 @@
         <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K28" t="n">
         <v>950</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G29" t="n">
         <v>3.1</v>
@@ -4345,7 +4345,7 @@
         <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R29" t="n">
         <v>1.23</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G30" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="H30" t="n">
         <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
@@ -4480,7 +4480,7 @@
         <v>1.86</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R30" t="n">
         <v>1.34</v>
@@ -4495,7 +4495,7 @@
         <v>2.1</v>
       </c>
       <c r="V30" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W30" t="n">
         <v>1.75</v>
@@ -4588,10 +4588,10 @@
         <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
@@ -4603,7 +4603,7 @@
         <v>1.47</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
         <v>3.2</v>
@@ -4615,7 +4615,7 @@
         <v>1.77</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R31" t="n">
         <v>1.29</v>
@@ -4630,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W31" t="n">
         <v>1.76</v>
@@ -4732,10 +4732,10 @@
         <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
@@ -4750,7 +4750,7 @@
         <v>1.54</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R32" t="n">
         <v>1.19</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -673,16 +673,16 @@
         <v>1.64</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -715,7 +715,7 @@
         <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
         <v>2.52</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G3" t="n">
         <v>2.38</v>
@@ -814,13 +814,13 @@
         <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -862,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
         <v>75</v>
@@ -892,19 +892,19 @@
         <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
         <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
         <v>50</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="G4" t="n">
         <v>2.84</v>
       </c>
       <c r="H4" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W4" t="n">
         <v>1.54</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
         <v>25</v>
@@ -1003,10 +1003,10 @@
         <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
         <v>17</v>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>70</v>
@@ -1030,19 +1030,19 @@
         <v>50</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN4" t="n">
         <v>40</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
         <v>3.1</v>
@@ -1105,7 +1105,7 @@
         <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
@@ -1114,22 +1114,22 @@
         <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
         <v>1.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1162,19 +1162,19 @@
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL5" t="n">
         <v>65</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>75</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="n">
         <v>980</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G6" t="n">
         <v>3.8</v>
@@ -1219,16 +1219,16 @@
         <v>2.44</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
@@ -1240,7 +1240,7 @@
         <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
@@ -1249,7 +1249,7 @@
         <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
         <v>1.94</v>
@@ -1261,7 +1261,7 @@
         <v>1.36</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
         <v>6.2</v>
@@ -1357,43 +1357,43 @@
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Q7" t="n">
         <v>1.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>2.82</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
         <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1402,28 +1402,28 @@
         <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB7" t="n">
         <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
         <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
         <v>2.04</v>
@@ -1498,13 +1498,13 @@
         <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
         <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
         <v>1.9</v>
@@ -1618,10 +1618,10 @@
         <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1645,10 +1645,10 @@
         <v>2.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S9" t="n">
         <v>2.88</v>
@@ -1657,7 +1657,7 @@
         <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
         <v>1.6</v>
@@ -1702,7 +1702,7 @@
         <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I10" t="n">
         <v>5.6</v>
@@ -1774,22 +1774,22 @@
         <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
         <v>1.85</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
         <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
         <v>1.96</v>
@@ -1798,7 +1798,7 @@
         <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1831,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>80</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G11" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
         <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1924,16 +1924,16 @@
         <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
         <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
         <v>19.5</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="G12" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I12" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2035,25 +2035,25 @@
         <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
         <v>2.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S12" t="n">
         <v>4.8</v>
@@ -2065,25 +2065,25 @@
         <v>1.88</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2092,22 +2092,22 @@
         <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK12" t="n">
         <v>55</v>
@@ -2122,7 +2122,7 @@
         <v>70</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2182,22 +2182,22 @@
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q13" t="n">
         <v>1.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
         <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V13" t="n">
         <v>1.44</v>
@@ -2245,7 +2245,7 @@
         <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>980</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G14" t="n">
         <v>2.58</v>
@@ -2335,7 +2335,7 @@
         <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W14" t="n">
         <v>1.63</v>
@@ -2389,7 +2389,7 @@
         <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
         <v>980</v>
@@ -2440,25 +2440,25 @@
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
         <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q15" t="n">
         <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
         <v>3.6</v>
@@ -2581,7 +2581,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.21</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G17" t="n">
         <v>2.1</v>
@@ -2701,13 +2701,13 @@
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2722,13 +2722,13 @@
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q17" t="n">
         <v>1.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S17" t="n">
         <v>2.56</v>
@@ -2737,10 +2737,10 @@
         <v>1.61</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W17" t="n">
         <v>1.9</v>
@@ -3043,7 +3043,7 @@
         <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
         <v>980</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -3106,7 +3106,7 @@
         <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
@@ -3115,13 +3115,13 @@
         <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O20" t="n">
         <v>1.53</v>
@@ -3130,10 +3130,10 @@
         <v>1.56</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S20" t="n">
         <v>5.3</v>
@@ -3145,7 +3145,7 @@
         <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W20" t="n">
         <v>1.5</v>
@@ -3154,7 +3154,7 @@
         <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
         <v>23</v>
@@ -3169,7 +3169,7 @@
         <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
         <v>48</v>
@@ -3181,10 +3181,10 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
         <v>55</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="n">
         <v>2.68</v>
@@ -3247,10 +3247,10 @@
         <v>2.96</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L21" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
@@ -3319,7 +3319,7 @@
         <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
         <v>980</v>
@@ -3337,7 +3337,7 @@
         <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -3382,7 +3382,7 @@
         <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
         <v>1.48</v>
@@ -3397,13 +3397,13 @@
         <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
         <v>4.2</v>
@@ -3418,7 +3418,7 @@
         <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X22" t="n">
         <v>12</v>
@@ -3508,7 +3508,7 @@
         <v>2.16</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
         <v>4.4</v>
@@ -3535,7 +3535,7 @@
         <v>1.68</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R23" t="n">
         <v>1.25</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H24" t="n">
         <v>4.1</v>
@@ -3649,10 +3649,10 @@
         <v>4.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L24" t="n">
         <v>1.69</v>
@@ -3688,7 +3688,7 @@
         <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X24" t="n">
         <v>7</v>
@@ -3811,13 +3811,13 @@
         <v>1.49</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T25" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V25" t="n">
         <v>1.24</v>
@@ -3844,7 +3844,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>60</v>
@@ -3856,13 +3856,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK25" t="n">
         <v>18.5</v>
@@ -3871,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO25" t="n">
         <v>60</v>
@@ -3937,7 +3937,7 @@
         <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q26" t="n">
         <v>2.26</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G27" t="n">
         <v>1.73</v>
@@ -4054,7 +4054,7 @@
         <v>7.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
@@ -4345,7 +4345,7 @@
         <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
         <v>1.23</v>
@@ -4375,7 +4375,7 @@
         <v>19</v>
       </c>
       <c r="AA29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB29" t="n">
         <v>9.800000000000001</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G30" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I30" t="n">
         <v>4.1</v>
@@ -4462,10 +4462,10 @@
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4480,7 +4480,7 @@
         <v>1.86</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
         <v>1.34</v>
@@ -4489,7 +4489,7 @@
         <v>3.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U30" t="n">
         <v>2.1</v>
@@ -4501,7 +4501,7 @@
         <v>1.75</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="n">
         <v>16.5</v>
@@ -4585,13 +4585,13 @@
         <v>2.26</v>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
@@ -4612,7 +4612,7 @@
         <v>1.39</v>
       </c>
       <c r="P31" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q31" t="n">
         <v>2.14</v>
@@ -4633,7 +4633,7 @@
         <v>1.34</v>
       </c>
       <c r="W31" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X31" t="n">
         <v>13</v>
@@ -4663,7 +4663,7 @@
         <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>980</v>
@@ -4762,7 +4762,7 @@
         <v>2.38</v>
       </c>
       <c r="U32" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V32" t="n">
         <v>1.16</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="G2" t="n">
         <v>1.64</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
         <v>2.38</v>
@@ -811,13 +811,13 @@
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.4</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G4" t="n">
         <v>2.84</v>
@@ -949,28 +949,28 @@
         <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O4" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
         <v>1.22</v>
@@ -982,7 +982,7 @@
         <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
         <v>1.42</v>
@@ -1033,10 +1033,10 @@
         <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
         <v>40</v>
@@ -1087,7 +1087,7 @@
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.47</v>
@@ -1096,10 +1096,10 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
         <v>1.73</v>
@@ -1114,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
         <v>1.84</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
         <v>3.8</v>
@@ -1216,7 +1216,7 @@
         <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1345,7 +1345,7 @@
         <v>1.67</v>
       </c>
       <c r="G7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
         <v>4.8</v>
@@ -1354,7 +1354,7 @@
         <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
         <v>4.6</v>
@@ -1384,16 +1384,16 @@
         <v>2.82</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
         <v>2.08</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1495,7 +1495,7 @@
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1618,10 +1618,10 @@
         <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1660,7 +1660,7 @@
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W9" t="n">
         <v>1.46</v>
@@ -1789,7 +1789,7 @@
         <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
         <v>1.96</v>
@@ -1882,37 +1882,37 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.58</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.7</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
         <v>1.85</v>
@@ -1930,10 +1930,10 @@
         <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="X11" t="n">
         <v>19.5</v>
@@ -1945,34 +1945,34 @@
         <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
         <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
         <v>980</v>
@@ -1981,13 +1981,13 @@
         <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
         <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2026,19 +2026,19 @@
         <v>2.38</v>
       </c>
       <c r="I12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.55</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
         <v>2.96</v>
@@ -2053,31 +2053,31 @@
         <v>2.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
         <v>4.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W12" t="n">
         <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA12" t="n">
         <v>32</v>
@@ -2089,40 +2089,40 @@
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>30</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
         <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="n">
         <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
         <v>70</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -2152,55 +2152,55 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
         <v>2.36</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
         <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
         <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W13" t="n">
         <v>1.73</v>
@@ -2215,10 +2215,10 @@
         <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
@@ -2236,7 +2236,7 @@
         <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>980</v>
@@ -2251,10 +2251,10 @@
         <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
         <v>980</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G14" t="n">
         <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
         <v>3.45</v>
@@ -2302,7 +2302,7 @@
         <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
         <v>1.42</v>
@@ -2311,7 +2311,7 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
@@ -2320,16 +2320,16 @@
         <v>1.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -2338,7 +2338,7 @@
         <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X14" t="n">
         <v>14.5</v>
@@ -2365,7 +2365,7 @@
         <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
@@ -2425,16 +2425,16 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
         <v>2.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
         <v>3.75</v>
@@ -2470,7 +2470,7 @@
         <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W15" t="n">
         <v>1.41</v>
@@ -2479,7 +2479,7 @@
         <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
         <v>17</v>
@@ -2566,13 +2566,13 @@
         <v>2.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J16" t="n">
         <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.31</v>
@@ -2602,10 +2602,10 @@
         <v>1.57</v>
       </c>
       <c r="U16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
         <v>1.57</v>
@@ -2626,7 +2626,7 @@
         <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
         <v>980</v>
@@ -2695,16 +2695,16 @@
         <v>1.97</v>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
         <v>4.6</v>
@@ -2722,7 +2722,7 @@
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q17" t="n">
         <v>1.63</v>
@@ -2731,25 +2731,25 @@
         <v>1.54</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U17" t="n">
         <v>2.42</v>
       </c>
       <c r="V17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X17" t="n">
         <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
         <v>36</v>
@@ -2761,10 +2761,10 @@
         <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE17" t="n">
         <v>48</v>
@@ -2776,16 +2776,16 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
         <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G18" t="n">
         <v>1.73</v>
@@ -2863,7 +2863,7 @@
         <v>1.56</v>
       </c>
       <c r="R18" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S18" t="n">
         <v>2.4</v>
@@ -2872,7 +2872,7 @@
         <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V18" t="n">
         <v>1.2</v>
@@ -2968,7 +2968,7 @@
         <v>1.97</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I19" t="n">
         <v>4.6</v>
@@ -2998,13 +2998,13 @@
         <v>1.59</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
         <v>2.48</v>
       </c>
       <c r="T19" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U19" t="n">
         <v>2.36</v>
@@ -3028,7 +3028,7 @@
         <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AC19" t="n">
         <v>980</v>
@@ -3121,7 +3121,7 @@
         <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="O20" t="n">
         <v>1.53</v>
@@ -3130,7 +3130,7 @@
         <v>1.56</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R20" t="n">
         <v>1.21</v>
@@ -3157,13 +3157,13 @@
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
         <v>60</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
         <v>8</v>
@@ -3172,7 +3172,7 @@
         <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="n">
         <v>21</v>
@@ -3202,7 +3202,7 @@
         <v>50</v>
       </c>
       <c r="AO20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>2.54</v>
       </c>
       <c r="G21" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
@@ -3244,37 +3244,37 @@
         <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>3.35</v>
       </c>
       <c r="L21" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="O21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
         <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
         <v>1.84</v>
@@ -3319,7 +3319,7 @@
         <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="n">
         <v>980</v>
@@ -3337,7 +3337,7 @@
         <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3400,7 +3400,7 @@
         <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
         <v>1.27</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.14</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.16</v>
       </c>
       <c r="H23" t="n">
         <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L23" t="n">
         <v>1.51</v>
@@ -3547,13 +3547,13 @@
         <v>2.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
         <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X23" t="n">
         <v>10</v>
@@ -3565,7 +3565,7 @@
         <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB23" t="n">
         <v>7.8</v>
@@ -3574,7 +3574,7 @@
         <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
         <v>65</v>
@@ -3601,7 +3601,7 @@
         <v>50</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN23" t="n">
         <v>23</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G24" t="n">
         <v>2.48</v>
@@ -3646,10 +3646,10 @@
         <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="K24" t="n">
         <v>2.98</v>
@@ -3661,7 +3661,7 @@
         <v>1.16</v>
       </c>
       <c r="N24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O24" t="n">
         <v>1.73</v>
@@ -3679,7 +3679,7 @@
         <v>7.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U24" t="n">
         <v>1.59</v>
@@ -3688,7 +3688,7 @@
         <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X24" t="n">
         <v>7</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I25" t="n">
         <v>5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.1</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -3796,40 +3796,40 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q25" t="n">
         <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U25" t="n">
         <v>2.24</v>
       </c>
       <c r="V25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X25" t="n">
         <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z25" t="n">
         <v>38</v>
@@ -3838,16 +3838,16 @@
         <v>110</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC25" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -3877,7 +3877,7 @@
         <v>9.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3925,7 +3925,7 @@
         <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G27" t="n">
         <v>1.73</v>
@@ -4054,7 +4054,7 @@
         <v>7.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.03</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.3</v>
+        <v>2.56</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.02</v>
+        <v>2.34</v>
       </c>
       <c r="R28" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>1.46</v>
+        <v>3.95</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G29" t="n">
         <v>3.1</v>
@@ -4363,7 +4363,7 @@
         <v>1.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X29" t="n">
         <v>10.5</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H30" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
         <v>4.1</v>
@@ -4462,22 +4462,22 @@
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q30" t="n">
         <v>1.98</v>
@@ -4486,7 +4486,7 @@
         <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T30" t="n">
         <v>1.79</v>
@@ -4588,7 +4588,7 @@
         <v>2.28</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
         <v>3.9</v>
@@ -4597,7 +4597,7 @@
         <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
         <v>1.47</v>
@@ -4615,7 +4615,7 @@
         <v>1.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R31" t="n">
         <v>1.29</v>
@@ -4636,10 +4636,10 @@
         <v>1.78</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z31" t="n">
         <v>980</v>
@@ -4651,7 +4651,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
         <v>980</v>
@@ -4663,7 +4663,7 @@
         <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
         <v>980</v>
@@ -4735,7 +4735,7 @@
         <v>3.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
@@ -4744,13 +4744,13 @@
         <v>2.58</v>
       </c>
       <c r="O32" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P32" t="n">
         <v>1.54</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R32" t="n">
         <v>1.19</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,16 +673,16 @@
         <v>1.64</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.38</v>
@@ -691,13 +691,13 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
         <v>1.86</v>
@@ -727,7 +727,7 @@
         <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -742,13 +742,13 @@
         <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="n">
         <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>980</v>
@@ -805,13 +805,13 @@
         <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
@@ -853,7 +853,7 @@
         <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
         <v>2.84</v>
@@ -952,7 +952,7 @@
         <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
         <v>1.52</v>
@@ -964,13 +964,13 @@
         <v>2.74</v>
       </c>
       <c r="O4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
         <v>1.59</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R4" t="n">
         <v>1.22</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
         <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
         <v>1.47</v>
@@ -1096,7 +1096,7 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1120,10 +1120,10 @@
         <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1132,7 +1132,7 @@
         <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
         <v>980</v>
@@ -1162,7 +1162,7 @@
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="n">
         <v>60</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G6" t="n">
         <v>3.8</v>
@@ -1255,7 +1255,7 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>1.36</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>Oleksandria</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="G7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.8</v>
       </c>
-      <c r="H7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.24</v>
-      </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>2.82</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.96</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,109 +1603,109 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Serik Belediyespor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.86</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.62</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>4.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="X9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
@@ -1714,10 +1714,10 @@
         <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G10" t="n">
         <v>1.84</v>
       </c>
       <c r="H10" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
@@ -1768,7 +1768,7 @@
         <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
         <v>3.5</v>
@@ -1780,10 +1780,10 @@
         <v>1.85</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
         <v>3.7</v>
@@ -1801,7 +1801,7 @@
         <v>2.18</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
         <v>17</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,109 +1873,109 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Serik Belediyespor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>2.62</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.46</v>
       </c>
-      <c r="W11" t="n">
-        <v>1.63</v>
-      </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -1984,16 +1984,16 @@
         <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.6</v>
+        <v>1.88</v>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>2.38</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.37</v>
+        <v>1.96</v>
       </c>
       <c r="X12" t="n">
-        <v>9.4</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF12" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AG12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH12" t="n">
         <v>23</v>
       </c>
-      <c r="AG12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.2</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.24</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.71</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.42</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF13" t="n">
         <v>23</v>
       </c>
-      <c r="Y13" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>980</v>
-      </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="AO13" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Athlitiki Enosi Larissa</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.42</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.41</v>
-      </c>
       <c r="W14" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="X14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17</v>
-      </c>
       <c r="AE14" t="n">
         <v>980</v>
       </c>
       <c r="AF14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>16</v>
       </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>18</v>
-      </c>
       <c r="AI14" t="n">
         <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,114 +2408,114 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Athlitiki Enosi Larissa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.66</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T15" t="n">
         <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="W15" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
         <v>17</v>
       </c>
-      <c r="AA15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE15" t="n">
         <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
         <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
         <v>980</v>
@@ -2524,16 +2524,16 @@
         <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>1.66</v>
       </c>
       <c r="G16" t="n">
-        <v>2.76</v>
+        <v>2.08</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.84</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.21</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.54</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.94</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.97</v>
+        <v>2.88</v>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.6</v>
       </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.58</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
-        <v>1.89</v>
+        <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
         <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.63</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.56</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="S18" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="W18" t="n">
-        <v>2.36</v>
+        <v>1.57</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
         <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM18" t="n">
         <v>60</v>
       </c>
-      <c r="AF18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>75</v>
-      </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="AO18" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="G19" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="H19" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="T19" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U19" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.86</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="H20" t="n">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>2.74</v>
+        <v>5.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.56</v>
       </c>
-      <c r="Q20" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.21</v>
-      </c>
       <c r="S20" t="n">
-        <v>5.3</v>
+        <v>2.48</v>
       </c>
       <c r="T20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W20" t="n">
         <v>2.06</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN20" t="n">
         <v>9</v>
       </c>
-      <c r="Z20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>50</v>
-      </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.54</v>
+        <v>1.62</v>
       </c>
       <c r="G21" t="n">
-        <v>2.66</v>
+        <v>1.72</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>5.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.35</v>
+        <v>5.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>2.66</v>
+        <v>5.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>1.57</v>
+        <v>2.48</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W21" t="n">
         <v>2.38</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X21" t="n">
-        <v>10.5</v>
+        <v>30</v>
       </c>
       <c r="Y21" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG21" t="n">
         <v>11</v>
       </c>
-      <c r="Z21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AH21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM21" t="n">
         <v>75</v>
       </c>
-      <c r="AB21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL21" t="n">
+      <c r="AN21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO21" t="n">
         <v>60</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>2.86</v>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.1</v>
+        <v>2.94</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.48</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AL22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="G23" t="n">
-        <v>2.14</v>
+        <v>2.76</v>
       </c>
       <c r="H23" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="J23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.3</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="O23" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P23" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="U23" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AA23" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
       </c>
       <c r="AI23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO23" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.28</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.25</v>
-      </c>
       <c r="R24" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="T24" t="n">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="U24" t="n">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="V24" t="n">
-        <v>1.27</v>
+        <v>1.84</v>
       </c>
       <c r="W24" t="n">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AA24" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.4</v>
+        <v>13.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AH24" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="AJ24" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AL24" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AM24" t="n">
-        <v>390</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82</v>
+        <v>2.54</v>
       </c>
       <c r="H25" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K25" t="n">
         <v>4</v>
       </c>
-      <c r="K25" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="P25" t="n">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="Q25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.8</v>
       </c>
-      <c r="R25" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.24</v>
-      </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W25" t="n">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="Z25" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL25" t="n">
         <v>55</v>
       </c>
-      <c r="AF25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>30</v>
-      </c>
       <c r="AM25" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
         <v>2.14</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P26" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="R26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.29</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.3</v>
       </c>
       <c r="W26" t="n">
         <v>1.88</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA26" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
         <v>11.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK26" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.64</v>
+        <v>2.24</v>
       </c>
       <c r="G27" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="H27" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="I27" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.7</v>
+        <v>2.94</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.39</v>
       </c>
-      <c r="P27" t="n">
-        <v>1.75</v>
-      </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>3.3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="U27" t="n">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="V27" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>2.36</v>
+        <v>1.78</v>
       </c>
       <c r="X27" t="n">
-        <v>14.5</v>
+        <v>6.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AJ27" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK27" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="AN27" t="n">
-        <v>13.5</v>
+        <v>44</v>
       </c>
       <c r="AO27" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.2</v>
+        <v>1.81</v>
       </c>
       <c r="G28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.1</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S28" t="n">
         <v>3.05</v>
       </c>
-      <c r="K28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.95</v>
-      </c>
       <c r="T28" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="U28" t="n">
-        <v>1.86</v>
+        <v>2.24</v>
       </c>
       <c r="V28" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
-        <v>1.32</v>
+        <v>2.2</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.86</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="H29" t="n">
-        <v>2.74</v>
+        <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P29" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R29" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U29" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V29" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="W29" t="n">
-        <v>1.48</v>
+        <v>1.87</v>
       </c>
       <c r="X29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AC29" t="n">
         <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF29" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>46</v>
+        <v>19.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,108 +4433,108 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.14</v>
+        <v>1.64</v>
       </c>
       <c r="G30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W30" t="n">
         <v>2.36</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.75</v>
-      </c>
       <c r="X30" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Z30" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA30" t="n">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="AB30" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE30" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AF30" t="n">
-        <v>17.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG30" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AJ30" t="n">
         <v>980</v>
@@ -4543,22 +4543,22 @@
         <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM30" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,126 +4568,126 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.26</v>
+        <v>3.2</v>
       </c>
       <c r="G31" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65</v>
+        <v>2.22</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="O31" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="R31" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="S31" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T31" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="V31" t="n">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="W31" t="n">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="X31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4703,125 +4703,530 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.72</v>
+        <v>2.86</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="I32" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="L32" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="O32" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="R32" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="U32" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="V32" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
-        <v>2.24</v>
+        <v>1.48</v>
       </c>
       <c r="X32" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>55</v>
       </c>
-      <c r="AA32" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>980</v>
-      </c>
       <c r="AK32" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL32" t="n">
         <v>65</v>
       </c>
       <c r="AM32" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="X35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM35" t="n">
         <v>330</v>
       </c>
-      <c r="AN32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO32" t="n">
+      <c r="AN35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO35" t="n">
         <v>350</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
         <v>5.7</v>
@@ -685,31 +685,31 @@
         <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.86</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.89</v>
       </c>
       <c r="U2" t="n">
         <v>1.87</v>
@@ -745,7 +745,7 @@
         <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -817,10 +817,10 @@
         <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -829,7 +829,7 @@
         <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
         <v>1.8</v>
@@ -859,7 +859,7 @@
         <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
         <v>27</v>
@@ -907,7 +907,7 @@
         <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G4" t="n">
         <v>2.84</v>
@@ -952,7 +952,7 @@
         <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.52</v>
@@ -973,7 +973,7 @@
         <v>2.44</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
         <v>4.8</v>
@@ -982,7 +982,7 @@
         <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
         <v>1.42</v>
@@ -1033,7 +1033,7 @@
         <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="AM4" t="n">
         <v>180</v>
@@ -1042,7 +1042,7 @@
         <v>40</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G5" t="n">
         <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="I5" t="n">
         <v>2.38</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
         <v>1.47</v>
@@ -1102,7 +1102,7 @@
         <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
         <v>2.16</v>
@@ -1114,34 +1114,34 @@
         <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
         <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
         <v>1.33</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
@@ -1156,28 +1156,28 @@
         <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AJ5" t="n">
-        <v>95</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>380</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AO5" t="n">
         <v>60</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.49</v>
@@ -1237,10 +1237,10 @@
         <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
@@ -1249,22 +1249,22 @@
         <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
@@ -1273,43 +1273,43 @@
         <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AC6" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>530</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AO6" t="n">
         <v>32</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>7</v>
@@ -1366,37 +1366,37 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.92</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1426,13 +1426,13 @@
         <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1441,7 +1441,7 @@
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -1489,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
         <v>4.5</v>
@@ -1519,10 +1519,10 @@
         <v>2.82</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V8" t="n">
         <v>1.2</v>
@@ -1537,34 +1537,34 @@
         <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="n">
         <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
         <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ8" t="n">
         <v>980</v>
@@ -1576,10 +1576,10 @@
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
         <v>80</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.38</v>
@@ -1636,22 +1636,22 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
         <v>1.68</v>
@@ -1660,19 +1660,19 @@
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
         <v>60</v>
@@ -1684,40 +1684,40 @@
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
         <v>38</v>
       </c>
-      <c r="AK9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>980</v>
-      </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I10" t="n">
         <v>5.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>5.7</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
         <v>3.85</v>
@@ -1771,82 +1771,82 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
         <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
         <v>1.96</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
         <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
         <v>13.5</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G11" t="n">
         <v>3.2</v>
@@ -1891,7 +1891,7 @@
         <v>2.36</v>
       </c>
       <c r="I11" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1936,16 +1936,16 @@
         <v>1.46</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
         <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AB11" t="n">
         <v>14.5</v>
@@ -1957,7 +1957,7 @@
         <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
         <v>23</v>
@@ -1969,25 +1969,25 @@
         <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
         <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AO11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -2035,7 +2035,7 @@
         <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2050,7 +2050,7 @@
         <v>1.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
         <v>1.34</v>
@@ -2071,7 +2071,7 @@
         <v>1.96</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>18.5</v>
@@ -2092,7 +2092,7 @@
         <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AF12" t="n">
         <v>13.5</v>
@@ -2101,28 +2101,28 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ12" t="n">
         <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>85</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.38</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.42</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2176,13 +2176,13 @@
         <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
         <v>2.48</v>
@@ -2194,16 +2194,16 @@
         <v>4.8</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X13" t="n">
         <v>9.6</v>
@@ -2212,19 +2212,19 @@
         <v>8</v>
       </c>
       <c r="Z13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
         <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
         <v>30</v>
@@ -2239,7 +2239,7 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
         <v>75</v>
@@ -2254,10 +2254,10 @@
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
@@ -2302,7 +2302,7 @@
         <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.34</v>
@@ -2311,7 +2311,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
@@ -2329,7 +2329,7 @@
         <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="n">
         <v>2.44</v>
@@ -2338,7 +2338,7 @@
         <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X14" t="n">
         <v>23</v>
@@ -2356,16 +2356,16 @@
         <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
@@ -2386,7 +2386,7 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>17.5</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
         <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
         <v>3.55</v>
@@ -2443,31 +2443,31 @@
         <v>1.42</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R15" t="n">
         <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
         <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
         <v>1.41</v>
@@ -2476,22 +2476,22 @@
         <v>1.64</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB15" t="n">
         <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
         <v>17</v>
@@ -2500,7 +2500,7 @@
         <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
@@ -2521,10 +2521,10 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
         <v>980</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
@@ -2569,13 +2569,13 @@
         <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -2587,82 +2587,82 @@
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W16" t="n">
         <v>1.94</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I17" t="n">
         <v>2.76</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
         <v>1.43</v>
@@ -2725,7 +2725,7 @@
         <v>1.82</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
         <v>1.31</v>
@@ -2740,61 +2740,61 @@
         <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W17" t="n">
         <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
         <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
         <v>12.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF17" t="n">
         <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AJ17" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="n">
         <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="n">
         <v>29</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G18" t="n">
         <v>2.76</v>
@@ -2836,10 +2836,10 @@
         <v>2.58</v>
       </c>
       <c r="I18" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
@@ -2857,7 +2857,7 @@
         <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q18" t="n">
         <v>1.63</v>
@@ -2872,13 +2872,13 @@
         <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W18" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X18" t="n">
         <v>26</v>
@@ -2890,31 +2890,31 @@
         <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AB18" t="n">
         <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>25</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ18" t="n">
         <v>980</v>
@@ -2926,13 +2926,13 @@
         <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2968,7 +2968,7 @@
         <v>2.12</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
@@ -3025,7 +3025,7 @@
         <v>36</v>
       </c>
       <c r="AA19" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AB19" t="n">
         <v>15</v>
@@ -3100,7 +3100,7 @@
         <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -3115,7 +3115,7 @@
         <v>4.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3127,22 +3127,22 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q20" t="n">
         <v>1.59</v>
       </c>
       <c r="R20" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T20" t="n">
         <v>1.61</v>
       </c>
       <c r="U20" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V20" t="n">
         <v>1.27</v>
@@ -3157,16 +3157,16 @@
         <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AA20" t="n">
         <v>85</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AC20" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AD20" t="n">
         <v>980</v>
@@ -3175,28 +3175,28 @@
         <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
         <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
         <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
         <v>9</v>
@@ -3235,7 +3235,7 @@
         <v>1.62</v>
       </c>
       <c r="G21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H21" t="n">
         <v>5.1</v>
@@ -3247,7 +3247,7 @@
         <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,13 +3256,13 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q21" t="n">
         <v>1.56</v>
@@ -3277,19 +3277,19 @@
         <v>1.65</v>
       </c>
       <c r="U21" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X21" t="n">
         <v>30</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="Z21" t="n">
         <v>55</v>
@@ -3301,22 +3301,22 @@
         <v>14.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
         <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
@@ -3328,16 +3328,16 @@
         <v>18.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
         <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22">
@@ -3370,34 +3370,34 @@
         <v>2.86</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H22" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I22" t="n">
         <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L22" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="M22" t="n">
         <v>1.12</v>
       </c>
       <c r="N22" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O22" t="n">
         <v>1.53</v>
       </c>
       <c r="P22" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q22" t="n">
         <v>2.6</v>
@@ -3412,16 +3412,16 @@
         <v>2.06</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V22" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
         <v>1.5</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
@@ -3436,13 +3436,13 @@
         <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
         <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
@@ -3451,28 +3451,28 @@
         <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>480</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK22" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AL22" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AM22" t="n">
         <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G23" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L23" t="n">
         <v>1.45</v>
@@ -3526,7 +3526,7 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O23" t="n">
         <v>1.47</v>
@@ -3565,19 +3565,19 @@
         <v>24</v>
       </c>
       <c r="AA23" t="n">
-        <v>75</v>
+        <v>900</v>
       </c>
       <c r="AB23" t="n">
         <v>8.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>370</v>
       </c>
       <c r="AF23" t="n">
         <v>16.5</v>
@@ -3586,28 +3586,28 @@
         <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="AJ23" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AM23" t="n">
         <v>180</v>
       </c>
       <c r="AN23" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AO23" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G24" t="n">
         <v>4.3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="I24" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
         <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3679,70 +3679,70 @@
         <v>4.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U24" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V24" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W24" t="n">
         <v>1.31</v>
       </c>
       <c r="X24" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
         <v>8.4</v>
       </c>
       <c r="Z24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB24" t="n">
         <v>13</v>
       </c>
-      <c r="AA24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
         <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>48</v>
       </c>
       <c r="AJ24" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AK24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="n">
         <v>75</v>
       </c>
       <c r="AM24" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -3772,58 +3772,58 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="G25" t="n">
-        <v>2.54</v>
+        <v>2.24</v>
       </c>
       <c r="H25" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="I25" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.54</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.64</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3832,13 +3832,13 @@
         <v>15</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
         <v>100</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>9</v>
@@ -3847,37 +3847,37 @@
         <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G26" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I26" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.5</v>
       </c>
       <c r="J26" t="n">
         <v>3.3</v>
@@ -3931,13 +3931,13 @@
         <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
         <v>1.46</v>
       </c>
       <c r="P26" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q26" t="n">
         <v>2.38</v>
@@ -3952,13 +3952,13 @@
         <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V26" t="n">
         <v>1.29</v>
       </c>
       <c r="W26" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X26" t="n">
         <v>10</v>
@@ -3973,7 +3973,7 @@
         <v>100</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC26" t="n">
         <v>7.2</v>
@@ -3991,7 +3991,7 @@
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>80</v>
@@ -4003,13 +4003,13 @@
         <v>27</v>
       </c>
       <c r="AL26" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM26" t="n">
         <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
         <v>85</v>
@@ -4042,34 +4042,34 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.24</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.28</v>
-      </c>
       <c r="H27" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L27" t="n">
         <v>1.69</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="N27" t="n">
         <v>2.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P27" t="n">
         <v>1.39</v>
@@ -4090,64 +4090,64 @@
         <v>1.56</v>
       </c>
       <c r="V27" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W27" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X27" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="Y27" t="n">
         <v>10.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA27" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB27" t="n">
         <v>6</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD27" t="n">
         <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AI27" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ27" t="n">
         <v>34</v>
       </c>
       <c r="AK27" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM27" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="AN27" t="n">
         <v>44</v>
       </c>
       <c r="AO27" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -4183,7 +4183,7 @@
         <v>1.82</v>
       </c>
       <c r="H28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
         <v>5.1</v>
@@ -4201,34 +4201,34 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U28" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X28" t="n">
         <v>17</v>
@@ -4249,10 +4249,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF28" t="n">
         <v>11.5</v>
@@ -4270,16 +4270,16 @@
         <v>18.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM28" t="n">
         <v>80</v>
       </c>
       <c r="AN28" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO28" t="n">
         <v>55</v>
@@ -4342,10 +4342,10 @@
         <v>1.42</v>
       </c>
       <c r="P29" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R29" t="n">
         <v>1.29</v>
@@ -4360,7 +4360,7 @@
         <v>1.98</v>
       </c>
       <c r="V29" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W29" t="n">
         <v>1.87</v>
@@ -4393,13 +4393,13 @@
         <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
         <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ29" t="n">
         <v>25</v>
@@ -4417,7 +4417,7 @@
         <v>19.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="G30" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="H30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I30" t="n">
         <v>6.4</v>
-      </c>
-      <c r="I30" t="n">
-        <v>7.2</v>
       </c>
       <c r="J30" t="n">
         <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L30" t="n">
         <v>1.47</v>
@@ -4471,58 +4471,58 @@
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P30" t="n">
         <v>1.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R30" t="n">
         <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
         <v>2.1</v>
       </c>
       <c r="U30" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="V30" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W30" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="X30" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AA30" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AB30" t="n">
         <v>7.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AE30" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF30" t="n">
         <v>9.6</v>
@@ -4531,28 +4531,28 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ30" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM30" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G31" t="n">
         <v>4.1</v>
@@ -4591,7 +4591,7 @@
         <v>2.22</v>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="J31" t="n">
         <v>3.05</v>
@@ -4612,28 +4612,28 @@
         <v>1.45</v>
       </c>
       <c r="P31" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q31" t="n">
         <v>2.34</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
         <v>3.95</v>
       </c>
       <c r="T31" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U31" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V31" t="n">
         <v>1.66</v>
       </c>
       <c r="W31" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4651,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4717,49 +4717,49 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O32" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P32" t="n">
         <v>1.61</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R32" t="n">
         <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>1.9</v>
@@ -4780,7 +4780,7 @@
         <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="AB32" t="n">
         <v>9.800000000000001</v>
@@ -4789,40 +4789,40 @@
         <v>7.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AE32" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AF32" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AI32" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AK32" t="n">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="AL32" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="AM32" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AO32" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G33" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H33" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J33" t="n">
         <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
         <v>1.41</v>
@@ -4876,25 +4876,25 @@
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R33" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S33" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T33" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U33" t="n">
         <v>2.1</v>
@@ -4903,7 +4903,7 @@
         <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X33" t="n">
         <v>16.5</v>
@@ -4912,10 +4912,10 @@
         <v>16.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="n">
-        <v>85</v>
+        <v>900</v>
       </c>
       <c r="AB33" t="n">
         <v>11.5</v>
@@ -4927,31 +4927,31 @@
         <v>18.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AF33" t="n">
         <v>17.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH33" t="n">
         <v>22</v>
       </c>
       <c r="AI33" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="AJ33" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AK33" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL33" t="n">
         <v>980</v>
       </c>
       <c r="AM33" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN33" t="n">
         <v>22</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G34" t="n">
         <v>2.26</v>
       </c>
-      <c r="G34" t="n">
-        <v>2.36</v>
-      </c>
       <c r="H34" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K34" t="n">
         <v>3.45</v>
@@ -5011,73 +5011,73 @@
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O34" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="P34" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q34" t="n">
         <v>2.16</v>
       </c>
       <c r="R34" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S34" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V34" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="X34" t="n">
         <v>12.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z34" t="n">
         <v>980</v>
       </c>
       <c r="AA34" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI34" t="n">
         <v>65</v>
       </c>
       <c r="AJ34" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK34" t="n">
         <v>30</v>
@@ -5089,10 +5089,10 @@
         <v>140</v>
       </c>
       <c r="AN34" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AO34" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -5125,13 +5125,13 @@
         <v>1.72</v>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H35" t="n">
         <v>6.4</v>
       </c>
       <c r="I35" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.5</v>
@@ -5164,7 +5164,7 @@
         <v>5.3</v>
       </c>
       <c r="T35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U35" t="n">
         <v>1.64</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -667,55 +667,55 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S2" t="n">
         <v>3.95</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.2</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
         <v>2.52</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AC2" t="n">
         <v>980</v>
@@ -742,19 +742,19 @@
         <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>980</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
@@ -826,31 +826,31 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
         <v>1.72</v>
@@ -859,13 +859,13 @@
         <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>27</v>
       </c>
       <c r="AA3" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -889,7 +889,7 @@
         <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
@@ -901,13 +901,13 @@
         <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
         <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
         <v>2.84</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -952,7 +952,7 @@
         <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.52</v>
@@ -970,13 +970,13 @@
         <v>1.59</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.99</v>
@@ -1000,7 +1000,7 @@
         <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="n">
         <v>10.5</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G5" t="n">
         <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I5" t="n">
         <v>2.38</v>
@@ -1087,7 +1087,7 @@
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.47</v>
@@ -1210,7 +1210,7 @@
         <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H6" t="n">
         <v>2.44</v>
@@ -1285,7 +1285,7 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
         <v>34</v>
@@ -1342,34 +1342,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G7" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>5.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.7</v>
+        <v>2.34</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P7" t="n">
         <v>1.7</v>
@@ -1378,22 +1378,22 @@
         <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
         <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1480,7 +1480,7 @@
         <v>1.67</v>
       </c>
       <c r="G8" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -1492,10 +1492,10 @@
         <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
         <v>3.55</v>
@@ -1636,16 +1636,16 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
@@ -1654,28 +1654,28 @@
         <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
         <v>12</v>
@@ -1687,37 +1687,37 @@
         <v>13.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI9" t="n">
         <v>46</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AL9" t="n">
         <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1747,61 +1747,61 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.8</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.55</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
         <v>17</v>
@@ -1810,49 +1810,49 @@
         <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
         <v>8.4</v>
       </c>
       <c r="AD10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>21</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>19.5</v>
       </c>
       <c r="AK10" t="n">
         <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="I11" t="n">
         <v>2.64</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>1.29</v>
@@ -1909,7 +1909,7 @@
         <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
         <v>2.08</v>
@@ -1933,7 +1933,7 @@
         <v>1.61</v>
       </c>
       <c r="W11" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
         <v>18</v>
@@ -1969,7 +1969,7 @@
         <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="n">
         <v>900</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G12" t="n">
         <v>2.04</v>
@@ -2026,7 +2026,7 @@
         <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2062,7 +2062,7 @@
         <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
         <v>1.25</v>
@@ -2161,13 +2161,13 @@
         <v>2.34</v>
       </c>
       <c r="I13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.53</v>
@@ -2182,13 +2182,13 @@
         <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
         <v>4.8</v>
@@ -2197,19 +2197,19 @@
         <v>2.02</v>
       </c>
       <c r="U13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
         <v>1.36</v>
       </c>
       <c r="X13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z13" t="n">
         <v>13</v>
@@ -2218,7 +2218,7 @@
         <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7</v>
@@ -2314,7 +2314,7 @@
         <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
         <v>2.3</v>
@@ -2329,7 +2329,7 @@
         <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
         <v>2.44</v>
@@ -2353,7 +2353,7 @@
         <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AC14" t="n">
         <v>8.800000000000001</v>
@@ -2377,7 +2377,7 @@
         <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="n">
         <v>28</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>3.35</v>
@@ -2446,13 +2446,13 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
         <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" t="n">
         <v>2.04</v>
@@ -2464,16 +2464,16 @@
         <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
         <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -2581,7 +2581,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>2.32</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="I17" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L17" t="n">
         <v>1.43</v>
@@ -2716,7 +2716,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="n">
         <v>1.35</v>
@@ -2746,7 +2746,7 @@
         <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
         <v>10.5</v>
@@ -2776,7 +2776,7 @@
         <v>14</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
         <v>170</v>
@@ -2830,19 +2830,19 @@
         <v>2.54</v>
       </c>
       <c r="G18" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H18" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I18" t="n">
         <v>2.82</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2866,7 +2866,7 @@
         <v>1.54</v>
       </c>
       <c r="S18" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T18" t="n">
         <v>1.57</v>
@@ -2965,16 +2965,16 @@
         <v>1.97</v>
       </c>
       <c r="G19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
         <v>4.3</v>
@@ -3010,10 +3010,10 @@
         <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W19" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X19" t="n">
         <v>26</v>
@@ -3064,7 +3064,7 @@
         <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
         <v>36</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G20" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
         <v>4.6</v>
@@ -3127,13 +3127,13 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S20" t="n">
         <v>2.46</v>
@@ -3145,7 +3145,7 @@
         <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
         <v>2.06</v>
@@ -3268,7 +3268,7 @@
         <v>1.56</v>
       </c>
       <c r="R21" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
         <v>2.4</v>
@@ -3295,7 +3295,7 @@
         <v>55</v>
       </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
         <v>14.5</v>
@@ -3304,10 +3304,10 @@
         <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
         <v>12.5</v>
@@ -3331,7 +3331,7 @@
         <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
         <v>7</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G22" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H22" t="n">
         <v>2.98</v>
@@ -3379,67 +3379,67 @@
         <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="M22" t="n">
         <v>1.12</v>
       </c>
       <c r="N22" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="O22" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P22" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="T22" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W22" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X22" t="n">
         <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
         <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>290</v>
@@ -3448,25 +3448,25 @@
         <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>480</v>
       </c>
       <c r="AJ22" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AL22" t="n">
         <v>170</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
         <v>120</v>
@@ -3508,7 +3508,7 @@
         <v>2.74</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
         <v>3.7</v>
@@ -3517,16 +3517,16 @@
         <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O23" t="n">
         <v>1.47</v>
@@ -3553,7 +3553,7 @@
         <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X23" t="n">
         <v>10.5</v>
@@ -3640,7 +3640,7 @@
         <v>4.1</v>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H24" t="n">
         <v>2.16</v>
@@ -3664,10 +3664,10 @@
         <v>3.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P24" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q24" t="n">
         <v>2.28</v>
@@ -3691,7 +3691,7 @@
         <v>1.31</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
         <v>8.4</v>
@@ -3733,7 +3733,7 @@
         <v>60</v>
       </c>
       <c r="AL24" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AM24" t="n">
         <v>580</v>
@@ -3742,7 +3742,7 @@
         <v>75</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -3775,13 +3775,13 @@
         <v>2.16</v>
       </c>
       <c r="G25" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H25" t="n">
         <v>3.85</v>
       </c>
       <c r="I25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
@@ -3790,94 +3790,94 @@
         <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="V25" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
         <v>15</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE25" t="n">
         <v>150</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI25" t="n">
         <v>200</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AO25" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -3952,7 +3952,7 @@
         <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
         <v>1.29</v>
@@ -4045,7 +4045,7 @@
         <v>2.2</v>
       </c>
       <c r="G27" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H27" t="n">
         <v>4.5</v>
@@ -4063,13 +4063,13 @@
         <v>1.69</v>
       </c>
       <c r="M27" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="N27" t="n">
         <v>2.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="P27" t="n">
         <v>1.39</v>
@@ -4081,13 +4081,13 @@
         <v>1.13</v>
       </c>
       <c r="S27" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="U27" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V27" t="n">
         <v>1.26</v>
@@ -4099,7 +4099,7 @@
         <v>6.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
         <v>32</v>
@@ -4132,7 +4132,7 @@
         <v>170</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK27" t="n">
         <v>40</v>
@@ -4147,7 +4147,7 @@
         <v>44</v>
       </c>
       <c r="AO27" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
@@ -4195,7 +4195,7 @@
         <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -4210,19 +4210,19 @@
         <v>2.22</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R28" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T28" t="n">
         <v>1.75</v>
       </c>
       <c r="U28" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V28" t="n">
         <v>1.24</v>
@@ -4243,7 +4243,7 @@
         <v>110</v>
       </c>
       <c r="AB28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
         <v>8.800000000000001</v>
@@ -4255,7 +4255,7 @@
         <v>55</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG28" t="n">
         <v>9.800000000000001</v>
@@ -4264,13 +4264,13 @@
         <v>18.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
         <v>18.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL28" t="n">
         <v>28</v>
@@ -4321,13 +4321,13 @@
         <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.48</v>
@@ -4345,7 +4345,7 @@
         <v>1.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R29" t="n">
         <v>1.29</v>
@@ -4378,7 +4378,7 @@
         <v>95</v>
       </c>
       <c r="AB29" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC29" t="n">
         <v>7.6</v>
@@ -4414,10 +4414,10 @@
         <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G30" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J30" t="n">
         <v>3.75</v>
@@ -4465,82 +4465,82 @@
         <v>3.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="R30" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
         <v>1.18</v>
       </c>
       <c r="W30" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AA30" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>9.6</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>120</v>
@@ -4549,10 +4549,10 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
@@ -4591,7 +4591,7 @@
         <v>2.22</v>
       </c>
       <c r="I31" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J31" t="n">
         <v>3.05</v>
@@ -4630,7 +4630,7 @@
         <v>1.87</v>
       </c>
       <c r="V31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W31" t="n">
         <v>1.33</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G32" t="n">
         <v>3.05</v>
@@ -4726,7 +4726,7 @@
         <v>2.82</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -4741,16 +4741,16 @@
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="O32" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P32" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R32" t="n">
         <v>1.23</v>
@@ -4759,49 +4759,49 @@
         <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U32" t="n">
         <v>1.9</v>
       </c>
       <c r="V32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.5</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.48</v>
       </c>
       <c r="X32" t="n">
         <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z32" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AE32" t="n">
         <v>120</v>
       </c>
       <c r="AF32" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AG32" t="n">
         <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AI32" t="n">
         <v>300</v>
@@ -4822,7 +4822,7 @@
         <v>90</v>
       </c>
       <c r="AO32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -4855,16 +4855,16 @@
         <v>2.12</v>
       </c>
       <c r="G33" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.3</v>
       </c>
       <c r="K33" t="n">
         <v>3.7</v>
@@ -4876,88 +4876,88 @@
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P33" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R33" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S33" t="n">
         <v>3.55</v>
       </c>
       <c r="T33" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U33" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V33" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W33" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AA33" t="n">
         <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE33" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AF33" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
         <v>260</v>
       </c>
       <c r="AJ33" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AK33" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AL33" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO33" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G34" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.45</v>
       </c>
       <c r="L34" t="n">
         <v>1.51</v>
@@ -5011,88 +5011,88 @@
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P34" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S34" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U34" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V34" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W34" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="X34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y34" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y34" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Z34" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA34" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO34" t="n">
         <v>65</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -5131,7 +5131,7 @@
         <v>6.4</v>
       </c>
       <c r="I35" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J35" t="n">
         <v>3.5</v>
@@ -5146,7 +5146,7 @@
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O35" t="n">
         <v>1.55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.12</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.14</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
         <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
         <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.06</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
         <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
         <v>55</v>
@@ -940,7 +940,7 @@
         <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H4" t="n">
         <v>3.15</v>
@@ -949,34 +949,34 @@
         <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O4" t="n">
         <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R4" t="n">
         <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="T4" t="n">
         <v>1.99</v>
@@ -988,13 +988,13 @@
         <v>1.42</v>
       </c>
       <c r="W4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>25</v>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>70</v>
@@ -1042,7 +1042,7 @@
         <v>40</v>
       </c>
       <c r="AO4" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I5" t="n">
         <v>2.38</v>
@@ -1087,10 +1087,10 @@
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
@@ -1102,10 +1102,10 @@
         <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
@@ -1114,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
         <v>1.72</v>
@@ -1141,7 +1141,7 @@
         <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
         <v>2.44</v>
       </c>
       <c r="I6" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
         <v>1.9</v>
@@ -1255,7 +1255,7 @@
         <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W6" t="n">
         <v>1.4</v>
@@ -1270,7 +1270,7 @@
         <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="n">
         <v>25</v>
@@ -1291,7 +1291,7 @@
         <v>34</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
@@ -1309,7 +1309,7 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
         <v>32</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.35</v>
       </c>
-      <c r="K7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.34</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>42</v>
@@ -1420,10 +1420,10 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="n">
         <v>60</v>
@@ -1438,13 +1438,13 @@
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -1492,10 +1492,10 @@
         <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1567,7 +1567,7 @@
         <v>190</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1618,7 +1618,7 @@
         <v>2.66</v>
       </c>
       <c r="H9" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I9" t="n">
         <v>3.05</v>
@@ -1630,7 +1630,7 @@
         <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -1642,16 +1642,16 @@
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
         <v>1.69</v>
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
         <v>13.5</v>
@@ -1699,7 +1699,7 @@
         <v>15.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="n">
         <v>38</v>
@@ -1714,7 +1714,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>32</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G10" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
         <v>3.8</v>
@@ -1768,43 +1768,43 @@
         <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
         <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
         <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
         <v>38</v>
@@ -1813,7 +1813,7 @@
         <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
         <v>8.4</v>
@@ -1822,7 +1822,7 @@
         <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
         <v>11.5</v>
@@ -1831,7 +1831,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
         <v>200</v>
@@ -1849,10 +1849,10 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1900,7 +1900,7 @@
         <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1915,16 +1915,16 @@
         <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
         <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="n">
         <v>2.3</v>
@@ -1936,10 +1936,10 @@
         <v>1.51</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -1948,10 +1948,10 @@
         <v>140</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
@@ -1960,10 +1960,10 @@
         <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
         <v>16.5</v>
@@ -1975,7 +1975,7 @@
         <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AL11" t="n">
         <v>170</v>
@@ -1987,7 +1987,7 @@
         <v>48</v>
       </c>
       <c r="AO11" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12">
@@ -2023,7 +2023,7 @@
         <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
         <v>5</v>
@@ -2035,28 +2035,28 @@
         <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
         <v>1.81</v>
@@ -2065,19 +2065,19 @@
         <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
         <v>1.96</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
         <v>18.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AA12" t="n">
         <v>130</v>
@@ -2095,7 +2095,7 @@
         <v>160</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
@@ -2107,7 +2107,7 @@
         <v>170</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
         <v>2.38</v>
@@ -2311,7 +2311,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
@@ -2326,16 +2326,16 @@
         <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T14" t="n">
         <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
         <v>1.72</v>
@@ -2425,13 +2425,13 @@
         <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J15" t="n">
         <v>3.35</v>
@@ -2440,19 +2440,19 @@
         <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
         <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q15" t="n">
         <v>2.04</v>
@@ -2461,19 +2461,19 @@
         <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
         <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -2506,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
         <v>980</v>
@@ -2515,7 +2515,7 @@
         <v>42</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL15" t="n">
         <v>980</v>
@@ -2557,31 +2557,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="G16" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>2.32</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
@@ -2590,25 +2590,25 @@
         <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="T16" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W16" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2620,7 +2620,7 @@
         <v>110</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB16" t="n">
         <v>980</v>
@@ -2692,31 +2692,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
         <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="I17" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
         <v>1.35</v>
@@ -2725,13 +2725,13 @@
         <v>1.82</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R17" t="n">
         <v>1.31</v>
       </c>
       <c r="S17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T17" t="n">
         <v>1.78</v>
@@ -2740,22 +2740,22 @@
         <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="W17" t="n">
         <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
         <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2782,22 +2782,22 @@
         <v>170</v>
       </c>
       <c r="AJ17" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AK17" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G18" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I18" t="n">
         <v>2.82</v>
@@ -2845,28 +2845,28 @@
         <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
         <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
         <v>1.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T18" t="n">
         <v>1.57</v>
@@ -2878,7 +2878,7 @@
         <v>1.55</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X18" t="n">
         <v>26</v>
@@ -2908,7 +2908,7 @@
         <v>60</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
         <v>26</v>
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
         <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
         <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
         <v>1.62</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V19" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
         <v>21</v>
@@ -3100,7 +3100,7 @@
         <v>1.83</v>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -3115,7 +3115,7 @@
         <v>4.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3130,13 +3130,13 @@
         <v>2.46</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T20" t="n">
         <v>1.61</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G21" t="n">
         <v>1.71</v>
@@ -3250,7 +3250,7 @@
         <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3262,19 +3262,19 @@
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R21" t="n">
         <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="U21" t="n">
         <v>2.34</v>
@@ -3337,7 +3337,7 @@
         <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3373,10 +3373,10 @@
         <v>2.92</v>
       </c>
       <c r="H22" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -3385,7 +3385,7 @@
         <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M22" t="n">
         <v>1.12</v>
@@ -3394,13 +3394,13 @@
         <v>2.94</v>
       </c>
       <c r="O22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P22" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="R22" t="n">
         <v>1.23</v>
@@ -3412,7 +3412,7 @@
         <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
         <v>1.48</v>
@@ -3505,13 +3505,13 @@
         <v>2.54</v>
       </c>
       <c r="G23" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H23" t="n">
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
         <v>2.92</v>
@@ -3520,34 +3520,34 @@
         <v>3.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P23" t="n">
         <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="R23" t="n">
         <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="V23" t="n">
         <v>1.37</v>
@@ -3556,7 +3556,7 @@
         <v>1.58</v>
       </c>
       <c r="X23" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
         <v>10.5</v>
@@ -3580,7 +3580,7 @@
         <v>370</v>
       </c>
       <c r="AF23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
@@ -3655,28 +3655,28 @@
         <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M24" t="n">
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.43</v>
       </c>
       <c r="P24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
         <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T24" t="n">
         <v>1.95</v>
@@ -3742,7 +3742,7 @@
         <v>75</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -3790,13 +3790,13 @@
         <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
         <v>1.38</v>
@@ -3805,13 +3805,13 @@
         <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
         <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T25" t="n">
         <v>1.87</v>
@@ -3925,7 +3925,7 @@
         <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M26" t="n">
         <v>1.11</v>
@@ -3937,7 +3937,7 @@
         <v>1.46</v>
       </c>
       <c r="P26" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q26" t="n">
         <v>2.38</v>
@@ -4060,13 +4060,13 @@
         <v>2.98</v>
       </c>
       <c r="L27" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="M27" t="n">
         <v>1.18</v>
       </c>
       <c r="N27" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O27" t="n">
         <v>1.76</v>
@@ -4075,13 +4075,13 @@
         <v>1.39</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R27" t="n">
         <v>1.13</v>
       </c>
       <c r="S27" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="T27" t="n">
         <v>2.58</v>
@@ -4090,16 +4090,16 @@
         <v>1.57</v>
       </c>
       <c r="V27" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X27" t="n">
         <v>6.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
         <v>32</v>
@@ -4129,7 +4129,7 @@
         <v>36</v>
       </c>
       <c r="AI27" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ27" t="n">
         <v>32</v>
@@ -4147,7 +4147,7 @@
         <v>44</v>
       </c>
       <c r="AO27" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.81</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.82</v>
       </c>
       <c r="H28" t="n">
         <v>5</v>
@@ -4204,7 +4204,7 @@
         <v>4.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P28" t="n">
         <v>2.22</v>
@@ -4213,10 +4213,10 @@
         <v>1.79</v>
       </c>
       <c r="R28" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S28" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
         <v>1.75</v>
@@ -4231,10 +4231,10 @@
         <v>2.22</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
         <v>38</v>
@@ -4243,7 +4243,7 @@
         <v>110</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
         <v>8.800000000000001</v>
@@ -4261,19 +4261,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
         <v>18.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM28" t="n">
         <v>80</v>
@@ -4336,7 +4336,7 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O29" t="n">
         <v>1.42</v>
@@ -4345,16 +4345,16 @@
         <v>1.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R29" t="n">
         <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U29" t="n">
         <v>1.98</v>
@@ -4366,7 +4366,7 @@
         <v>1.87</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -4450,25 +4450,25 @@
         <v>1.7</v>
       </c>
       <c r="G30" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I30" t="n">
         <v>6.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
         <v>3.1</v>
@@ -4489,16 +4489,16 @@
         <v>4.5</v>
       </c>
       <c r="T30" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="V30" t="n">
         <v>1.18</v>
       </c>
       <c r="W30" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X30" t="n">
         <v>11.5</v>
@@ -4513,7 +4513,7 @@
         <v>250</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC30" t="n">
         <v>8.6</v>
@@ -4537,7 +4537,7 @@
         <v>150</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
         <v>23</v>
@@ -4549,7 +4549,7 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO30" t="n">
         <v>230</v>
@@ -4585,7 +4585,7 @@
         <v>3.4</v>
       </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
         <v>2.22</v>
@@ -4597,16 +4597,16 @@
         <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="O31" t="n">
         <v>1.45</v>
@@ -4621,7 +4621,7 @@
         <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="n">
         <v>1.94</v>
@@ -4651,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G32" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H32" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I32" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -4735,28 +4735,28 @@
         <v>3.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P32" t="n">
         <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R32" t="n">
         <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T32" t="n">
         <v>2.02</v>
@@ -4765,31 +4765,31 @@
         <v>1.9</v>
       </c>
       <c r="V32" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
         <v>1.5</v>
       </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
         <v>9.4</v>
       </c>
       <c r="Z32" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA32" t="n">
         <v>340</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC32" t="n">
         <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE32" t="n">
         <v>120</v>
@@ -4807,10 +4807,10 @@
         <v>300</v>
       </c>
       <c r="AJ32" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AK32" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="AL32" t="n">
         <v>400</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G33" t="n">
         <v>2.24</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I33" t="n">
         <v>3.9</v>
@@ -4885,13 +4885,13 @@
         <v>1.94</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R33" t="n">
         <v>1.36</v>
       </c>
       <c r="S33" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T33" t="n">
         <v>1.77</v>
@@ -4912,25 +4912,25 @@
         <v>15.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="n">
         <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE33" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AF33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG33" t="n">
         <v>12</v>
@@ -4942,19 +4942,19 @@
         <v>260</v>
       </c>
       <c r="AJ33" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AK33" t="n">
         <v>23</v>
       </c>
       <c r="AL33" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO33" t="n">
         <v>220</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H34" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I34" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J34" t="n">
         <v>3.3</v>
@@ -5014,10 +5014,10 @@
         <v>3.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q34" t="n">
         <v>2.3</v>
@@ -5035,28 +5035,28 @@
         <v>1.98</v>
       </c>
       <c r="V34" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W34" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA34" t="n">
         <v>80</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD34" t="n">
         <v>16</v>
@@ -5077,19 +5077,19 @@
         <v>70</v>
       </c>
       <c r="AJ34" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK34" t="n">
         <v>28</v>
       </c>
       <c r="AL34" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM34" t="n">
         <v>150</v>
       </c>
       <c r="AN34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO34" t="n">
         <v>65</v>
@@ -5122,67 +5122,67 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G35" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H35" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I35" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L35" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O35" t="n">
         <v>1.57</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.55</v>
-      </c>
       <c r="P35" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="R35" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="T35" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="U35" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="V35" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="X35" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA35" t="n">
         <v>310</v>
@@ -5194,16 +5194,16 @@
         <v>8.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AE35" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
         <v>980</v>
@@ -5212,19 +5212,19 @@
         <v>190</v>
       </c>
       <c r="AJ35" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AK35" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>330</v>
       </c>
       <c r="AN35" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AO35" t="n">
         <v>350</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -667,100 +667,100 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.58</v>
+        <v>2.36</v>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S2" t="n">
+        <v>60</v>
+      </c>
+      <c r="T2" t="n">
         <v>6.8</v>
       </c>
-      <c r="I2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.12</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.58</v>
+        <v>1.73</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.4</v>
+        <v>55</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>1.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.36</v>
+        <v>1.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>30</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>38</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>11.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>1.31</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.38</v>
+        <v>1.03</v>
       </c>
       <c r="W3" t="n">
-        <v>1.74</v>
+        <v>7.8</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>4.3</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>760</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>870</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -955,7 +955,7 @@
         <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -964,10 +964,10 @@
         <v>2.78</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q4" t="n">
         <v>2.48</v>
@@ -976,25 +976,25 @@
         <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
         <v>25</v>
@@ -1003,7 +1003,7 @@
         <v>170</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
@@ -1015,7 +1015,7 @@
         <v>50</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1081,7 +1081,7 @@
         <v>2.26</v>
       </c>
       <c r="I5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.15</v>
@@ -1099,19 +1099,19 @@
         <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
         <v>1.89</v>
@@ -1141,7 +1141,7 @@
         <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
         <v>3.5</v>
@@ -1228,22 +1228,22 @@
         <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q6" t="n">
         <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
         <v>4.3</v>
@@ -1252,7 +1252,7 @@
         <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
         <v>1.64</v>
@@ -1285,7 +1285,7 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="n">
         <v>34</v>
@@ -1345,13 +1345,13 @@
         <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1366,7 +1366,7 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.38</v>
@@ -1375,10 +1375,10 @@
         <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
         <v>3.9</v>
@@ -1390,19 +1390,19 @@
         <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1423,7 +1423,7 @@
         <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
         <v>60</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G8" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
@@ -1492,7 +1492,7 @@
         <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.34</v>
@@ -1501,7 +1501,7 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1510,25 +1510,25 @@
         <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
         <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T8" t="n">
         <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
         <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1570,7 +1570,7 @@
         <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
@@ -1579,10 +1579,10 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>9.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G9" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H9" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1630,7 +1630,7 @@
         <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -1642,28 +1642,28 @@
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
         <v>1.89</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="n">
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W9" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X9" t="n">
         <v>15.5</v>
@@ -1675,7 +1675,7 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB9" t="n">
         <v>12</v>
@@ -1705,7 +1705,7 @@
         <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
         <v>38</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
         <v>1.9</v>
@@ -1756,7 +1756,7 @@
         <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>3.7</v>
@@ -1765,37 +1765,37 @@
         <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
         <v>2.1</v>
@@ -1804,7 +1804,7 @@
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
         <v>38</v>
@@ -1816,13 +1816,13 @@
         <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
         <v>11.5</v>
@@ -1846,13 +1846,13 @@
         <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
         <v>13.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -1891,10 +1891,10 @@
         <v>2.46</v>
       </c>
       <c r="I11" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>3.95</v>
@@ -1903,31 +1903,31 @@
         <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
         <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
         <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
         <v>1.61</v>
@@ -1942,7 +1942,7 @@
         <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AA11" t="n">
         <v>140</v>
@@ -1954,16 +1954,16 @@
         <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>16.5</v>
@@ -1972,22 +1972,22 @@
         <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>48</v>
+        <v>600</v>
       </c>
       <c r="AO11" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2041,40 +2041,40 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
         <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
         <v>110</v>
@@ -2107,7 +2107,7 @@
         <v>170</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2122,7 +2122,7 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>310</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2176,10 +2176,10 @@
         <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P13" t="n">
         <v>1.69</v>
@@ -2200,13 +2200,13 @@
         <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
         <v>8.199999999999999</v>
@@ -2218,7 +2218,7 @@
         <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>7</v>
@@ -2227,13 +2227,13 @@
         <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
@@ -2245,7 +2245,7 @@
         <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
         <v>70</v>
@@ -2257,7 +2257,7 @@
         <v>65</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2290,13 +2290,13 @@
         <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2314,19 +2314,19 @@
         <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
         <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T14" t="n">
         <v>1.61</v>
@@ -2338,13 +2338,13 @@
         <v>1.43</v>
       </c>
       <c r="W14" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X14" t="n">
         <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
@@ -2353,16 +2353,16 @@
         <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
         <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
         <v>32</v>
@@ -2374,7 +2374,7 @@
         <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
         <v>75</v>
@@ -2383,7 +2383,7 @@
         <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H15" t="n">
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
         <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.44</v>
@@ -2452,19 +2452,19 @@
         <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
         <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
         <v>2.1</v>
@@ -2473,7 +2473,7 @@
         <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -2500,13 +2500,13 @@
         <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
         <v>980</v>
@@ -2524,7 +2524,7 @@
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>980</v>
@@ -2557,64 +2557,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="G16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>1.34</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
         <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R16" t="n">
         <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T16" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
         <v>2.02</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="n">
         <v>110</v>
@@ -2623,46 +2623,46 @@
         <v>330</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>220</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>60</v>
+        <v>11.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="I17" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="n">
         <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="W17" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
         <v>44</v>
       </c>
       <c r="AL17" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AO17" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="G18" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="I18" t="n">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
         <v>4.1</v>
@@ -2854,34 +2854,34 @@
         <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
         <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.55</v>
       </c>
-      <c r="S18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
         <v>980</v>
@@ -2896,10 +2896,10 @@
         <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
@@ -2908,7 +2908,7 @@
         <v>60</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
         <v>26</v>
@@ -2923,7 +2923,7 @@
         <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G19" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
         <v>4.1</v>
@@ -2986,37 +2986,37 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T19" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
         <v>21</v>
@@ -3055,13 +3055,13 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
         <v>12</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="G20" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
@@ -3121,40 +3121,40 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R20" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="S20" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="T20" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W20" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Z20" t="n">
         <v>110</v>
@@ -3178,7 +3178,7 @@
         <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
         <v>29</v>
@@ -3190,16 +3190,16 @@
         <v>75</v>
       </c>
       <c r="AK20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL20" t="n">
         <v>70</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO20" t="n">
         <v>980</v>
@@ -3235,10 +3235,10 @@
         <v>1.63</v>
       </c>
       <c r="G21" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I21" t="n">
         <v>6</v>
@@ -3250,13 +3250,13 @@
         <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O21" t="n">
         <v>1.19</v>
@@ -3268,22 +3268,22 @@
         <v>1.58</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S21" t="n">
         <v>2.42</v>
       </c>
       <c r="T21" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="U21" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V21" t="n">
         <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X21" t="n">
         <v>30</v>
@@ -3322,7 +3322,7 @@
         <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>18.5</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G22" t="n">
         <v>2.92</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I22" t="n">
         <v>3.05</v>
@@ -3385,7 +3385,7 @@
         <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M22" t="n">
         <v>1.12</v>
@@ -3400,19 +3400,19 @@
         <v>1.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R22" t="n">
         <v>1.23</v>
       </c>
       <c r="S22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
         <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
         <v>1.48</v>
@@ -3427,10 +3427,10 @@
         <v>9.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AB22" t="n">
         <v>10.5</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G23" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H23" t="n">
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
         <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L23" t="n">
         <v>1.55</v>
@@ -3526,7 +3526,7 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O23" t="n">
         <v>1.49</v>
@@ -3544,13 +3544,13 @@
         <v>4.8</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U23" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W23" t="n">
         <v>1.58</v>
@@ -3565,7 +3565,7 @@
         <v>24</v>
       </c>
       <c r="AA23" t="n">
-        <v>900</v>
+        <v>530</v>
       </c>
       <c r="AB23" t="n">
         <v>8.4</v>
@@ -3577,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="AF23" t="n">
         <v>16</v>
@@ -3655,19 +3655,19 @@
         <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O24" t="n">
         <v>1.43</v>
       </c>
       <c r="P24" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q24" t="n">
         <v>2.3</v>
@@ -3682,7 +3682,7 @@
         <v>1.95</v>
       </c>
       <c r="U24" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V24" t="n">
         <v>1.83</v>
@@ -3733,7 +3733,7 @@
         <v>60</v>
       </c>
       <c r="AL24" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AM24" t="n">
         <v>580</v>
@@ -3742,7 +3742,7 @@
         <v>75</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>3.85</v>
       </c>
       <c r="I25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.48</v>
@@ -3796,16 +3796,16 @@
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P25" t="n">
         <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
         <v>1.28</v>
@@ -3817,16 +3817,16 @@
         <v>1.87</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
         <v>15</v>
@@ -3835,13 +3835,13 @@
         <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
         <v>980</v>
@@ -3850,7 +3850,7 @@
         <v>150</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
@@ -3865,7 +3865,7 @@
         <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL25" t="n">
         <v>980</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G26" t="n">
         <v>2.16</v>
@@ -3919,10 +3919,10 @@
         <v>4.4</v>
       </c>
       <c r="J26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.35</v>
       </c>
       <c r="L26" t="n">
         <v>1.52</v>
@@ -3931,7 +3931,7 @@
         <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.46</v>
@@ -3940,7 +3940,7 @@
         <v>1.69</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R26" t="n">
         <v>1.25</v>
@@ -3958,7 +3958,7 @@
         <v>1.29</v>
       </c>
       <c r="W26" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X26" t="n">
         <v>10</v>
@@ -3997,10 +3997,10 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK26" t="n">
         <v>26</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>27</v>
       </c>
       <c r="AL26" t="n">
         <v>48</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G27" t="n">
         <v>2.26</v>
@@ -4051,16 +4051,16 @@
         <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J27" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K27" t="n">
         <v>2.98</v>
       </c>
       <c r="L27" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="M27" t="n">
         <v>1.18</v>
@@ -4093,7 +4093,7 @@
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X27" t="n">
         <v>6.4</v>
@@ -4144,7 +4144,7 @@
         <v>350</v>
       </c>
       <c r="AN27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO27" t="n">
         <v>200</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G28" t="n">
         <v>1.81</v>
@@ -4204,25 +4204,25 @@
         <v>4.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P28" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U28" t="n">
         <v>2.22</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.26</v>
       </c>
       <c r="V28" t="n">
         <v>1.24</v>
@@ -4231,10 +4231,10 @@
         <v>2.22</v>
       </c>
       <c r="X28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z28" t="n">
         <v>38</v>
@@ -4243,7 +4243,7 @@
         <v>110</v>
       </c>
       <c r="AB28" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC28" t="n">
         <v>8.800000000000001</v>
@@ -4261,7 +4261,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI28" t="n">
         <v>60</v>
@@ -4270,7 +4270,7 @@
         <v>18.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -4279,7 +4279,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO28" t="n">
         <v>55</v>
@@ -4330,10 +4330,10 @@
         <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
         <v>3.3</v>
@@ -4345,7 +4345,7 @@
         <v>1.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R29" t="n">
         <v>1.29</v>
@@ -4354,7 +4354,7 @@
         <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U29" t="n">
         <v>1.98</v>
@@ -4366,7 +4366,7 @@
         <v>1.87</v>
       </c>
       <c r="X29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -4384,7 +4384,7 @@
         <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE29" t="n">
         <v>60</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G30" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I30" t="n">
         <v>6.2</v>
       </c>
-      <c r="I30" t="n">
-        <v>6.6</v>
-      </c>
       <c r="J30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.95</v>
       </c>
       <c r="L30" t="n">
         <v>1.5</v>
@@ -4471,88 +4471,88 @@
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P30" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q30" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W30" t="n">
         <v>2.34</v>
       </c>
-      <c r="R30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.38</v>
-      </c>
       <c r="X30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AM30" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN30" t="n">
         <v>14.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -4591,22 +4591,22 @@
         <v>2.22</v>
       </c>
       <c r="I31" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J31" t="n">
         <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M31" t="n">
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O31" t="n">
         <v>1.45</v>
@@ -4615,13 +4615,13 @@
         <v>1.62</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R31" t="n">
         <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="T31" t="n">
         <v>1.94</v>
@@ -4630,10 +4630,10 @@
         <v>1.87</v>
       </c>
       <c r="V31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W31" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G32" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
         <v>2.84</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -4738,7 +4738,7 @@
         <v>1.52</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
         <v>3</v>
@@ -4750,7 +4750,7 @@
         <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R32" t="n">
         <v>1.23</v>
@@ -4765,7 +4765,7 @@
         <v>1.9</v>
       </c>
       <c r="V32" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W32" t="n">
         <v>1.5</v>
@@ -4777,10 +4777,10 @@
         <v>9.4</v>
       </c>
       <c r="Z32" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="AB32" t="n">
         <v>9.4</v>
@@ -4789,19 +4789,19 @@
         <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AE32" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG32" t="n">
         <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AI32" t="n">
         <v>300</v>
@@ -4810,7 +4810,7 @@
         <v>130</v>
       </c>
       <c r="AK32" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="AL32" t="n">
         <v>400</v>
@@ -4912,7 +4912,7 @@
         <v>15.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
         <v>900</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G34" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J34" t="n">
         <v>3.3</v>
       </c>
       <c r="K34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L34" t="n">
         <v>1.51</v>
@@ -5011,34 +5011,34 @@
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P34" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R34" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S34" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>1.35</v>
       </c>
       <c r="W34" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -5053,7 +5053,7 @@
         <v>80</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC34" t="n">
         <v>7.2</v>
@@ -5071,25 +5071,25 @@
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI34" t="n">
         <v>70</v>
       </c>
       <c r="AJ34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK34" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL34" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM34" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO34" t="n">
         <v>65</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G35" t="n">
         <v>1.81</v>
@@ -5131,7 +5131,7 @@
         <v>6.2</v>
       </c>
       <c r="I35" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5140,13 +5140,13 @@
         <v>3.65</v>
       </c>
       <c r="L35" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M35" t="n">
         <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="O35" t="n">
         <v>1.57</v>
@@ -5155,7 +5155,7 @@
         <v>1.53</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R35" t="n">
         <v>1.18</v>
@@ -5167,10 +5167,10 @@
         <v>2.48</v>
       </c>
       <c r="U35" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V35" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W35" t="n">
         <v>2.22</v>
@@ -5194,7 +5194,7 @@
         <v>8.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
@@ -5206,7 +5206,7 @@
         <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI35" t="n">
         <v>190</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Osaka</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kochi Univ</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="H2" t="n">
-        <v>8.6</v>
+        <v>3.45</v>
       </c>
       <c r="I2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB2" t="n">
         <v>9</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="AC2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>440</v>
+      </c>
+      <c r="AF2" t="n">
         <v>15</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>60</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AG2" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>55</v>
-      </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AJ2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AK2" t="n">
-        <v>330</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>430</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nara Club</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sagamihara</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.14</v>
+        <v>3.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1.15</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>2.18</v>
       </c>
       <c r="I3" t="n">
-        <v>38</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>11.5</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>1.71</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.31</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V3" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="W3" t="n">
-        <v>7.8</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.3</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>760</v>
+        <v>36</v>
       </c>
       <c r="AH3" t="n">
-        <v>870</v>
+        <v>55</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>990</v>
+        <v>250</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>990</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.78</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.2</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.78</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U4" t="n">
         <v>2</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="W4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>50</v>
+        <v>530</v>
       </c>
       <c r="AK4" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Oleksandria</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.65</v>
+        <v>1.88</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.26</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.89</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
         <v>22</v>
       </c>
-      <c r="Y5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>980</v>
-      </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>60</v>
       </c>
       <c r="AI5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.25</v>
+        <v>1.66</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.56</v>
+        <v>5.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>2.32</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="n">
         <v>150</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH6" t="n">
         <v>980</v>
       </c>
-      <c r="AF6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AJ6" t="n">
-        <v>530</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>400</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO6" t="n">
         <v>600</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Oleksandria</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G7" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>90</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL7" t="n">
         <v>40</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>170</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,114 +1463,114 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Serik Belediyespor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.67</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.74</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="W8" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>150</v>
       </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>190</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="AK8" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
@@ -1579,10 +1579,10 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.4</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="G9" t="n">
-        <v>2.68</v>
+        <v>1.86</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.98</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.55</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.25</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.51</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
-        <v>1.59</v>
+        <v>2.16</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>38</v>
-      </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>80</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.87</v>
+        <v>2.64</v>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>2.96</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.02</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>2.1</v>
+        <v>1.59</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>38</v>
       </c>
-      <c r="AA10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
         <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Serik Belediyespor</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="I11" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.37</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.51</v>
-      </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
       <c r="AO11" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="W12" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="X12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD12" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>22</v>
-      </c>
       <c r="AE12" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>600</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Athlitiki Enosi Larissa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
         <v>3.65</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.1</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>1.97</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>1.34</v>
@@ -2311,94 +2311,94 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S14" t="n">
         <v>2.84</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="X14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>23</v>
       </c>
-      <c r="Y14" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>75</v>
-      </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Athlitiki Enosi Larissa</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>2.48</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.4</v>
       </c>
-      <c r="W15" t="n">
-        <v>1.65</v>
-      </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
         <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK15" t="n">
         <v>42</v>
       </c>
-      <c r="AK15" t="n">
-        <v>30</v>
-      </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.92</v>
+        <v>2.64</v>
       </c>
       <c r="G16" t="n">
-        <v>1.98</v>
+        <v>2.76</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>2.58</v>
       </c>
       <c r="I16" t="n">
-        <v>4.7</v>
+        <v>2.72</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="S16" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="U16" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="V16" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AA16" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN16" t="n">
         <v>55</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>2.38</v>
+        <v>3.85</v>
       </c>
       <c r="I17" t="n">
-        <v>2.48</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.32</v>
       </c>
-      <c r="S17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.4</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>44</v>
+        <v>11.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.66</v>
+        <v>1.63</v>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="H18" t="n">
-        <v>2.54</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.68</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="T18" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="V18" t="n">
-        <v>1.59</v>
+        <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>1.55</v>
+        <v>2.44</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI18" t="n">
         <v>60</v>
       </c>
-      <c r="AG18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>85</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="G19" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J19" t="n">
         <v>4.1</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.85</v>
-      </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="R19" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="T19" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="X19" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB19" t="n">
         <v>24</v>
       </c>
-      <c r="Y19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>15</v>
-      </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AD19" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.81</v>
+        <v>2.88</v>
       </c>
       <c r="G20" t="n">
-        <v>1.89</v>
+        <v>2.96</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>2.56</v>
+        <v>1.61</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.58</v>
+        <v>2.54</v>
       </c>
       <c r="R20" t="n">
-        <v>1.64</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>2.42</v>
+        <v>5.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="U20" t="n">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="W20" t="n">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="X20" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>25</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>110</v>
+        <v>18.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AB20" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AJ20" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AK20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>8.199999999999999</v>
+        <v>46</v>
       </c>
       <c r="AO20" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.63</v>
+        <v>2.62</v>
       </c>
       <c r="G21" t="n">
-        <v>1.69</v>
+        <v>2.72</v>
       </c>
       <c r="H21" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>2.94</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>5.7</v>
+        <v>2.64</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.58</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2.44</v>
-      </c>
       <c r="X21" t="n">
-        <v>30</v>
+        <v>9.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>70</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AK21" t="n">
-        <v>18.5</v>
+        <v>120</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>600</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.86</v>
+        <v>4.1</v>
       </c>
       <c r="G22" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.98</v>
+        <v>2.16</v>
       </c>
       <c r="I22" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="M22" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>290</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>480</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AK22" t="n">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="AL22" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AM22" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AO22" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.58</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.72</v>
+        <v>2.28</v>
       </c>
       <c r="H23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.25</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.92</v>
-      </c>
       <c r="K23" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L23" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="U23" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="V23" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="X23" t="n">
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="n">
         <v>530</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="n">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AI23" t="n">
         <v>380</v>
       </c>
       <c r="AJ23" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="n">
-        <v>380</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.1</v>
+        <v>2.16</v>
       </c>
       <c r="G24" t="n">
-        <v>4.2</v>
+        <v>2.18</v>
       </c>
       <c r="H24" t="n">
-        <v>2.16</v>
+        <v>4.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="J24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.35</v>
       </c>
       <c r="L24" t="n">
         <v>1.52</v>
@@ -3661,94 +3661,94 @@
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R24" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.95</v>
       </c>
-      <c r="U24" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.83</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>1.31</v>
+        <v>1.85</v>
       </c>
       <c r="X24" t="n">
         <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="AA24" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG24" t="n">
         <v>11</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>17</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
       </c>
       <c r="AI24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL24" t="n">
         <v>48</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL24" t="n">
+      <c r="AM24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO24" t="n">
         <v>75</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>2.24</v>
       </c>
       <c r="O25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P25" t="n">
         <v>1.39</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.75</v>
-      </c>
       <c r="Q25" t="n">
-        <v>2.22</v>
+        <v>3.35</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="S25" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>2.58</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="V25" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI25" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM25" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="AN25" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO25" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="G26" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.46</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S26" t="n">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>2.26</v>
       </c>
       <c r="V26" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="W26" t="n">
-        <v>1.86</v>
+        <v>2.18</v>
       </c>
       <c r="X26" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AD26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH26" t="n">
         <v>18</v>
       </c>
-      <c r="AE26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
       <c r="AI26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM26" t="n">
         <v>80</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>150</v>
-      </c>
       <c r="AN26" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.22</v>
+        <v>3.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.39</v>
+        <v>1.78</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.35</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="S27" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>2.58</v>
+        <v>1.97</v>
       </c>
       <c r="U27" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W27" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="X27" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA27" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AB27" t="n">
-        <v>6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AF27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG27" t="n">
         <v>11</v>
       </c>
-      <c r="AG27" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH27" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AJ27" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AK27" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="AN27" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="I28" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K28" t="n">
         <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S28" t="n">
         <v>4.5</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T28" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="U28" t="n">
-        <v>2.22</v>
+        <v>1.76</v>
       </c>
       <c r="V28" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AA28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE28" t="n">
         <v>110</v>
       </c>
-      <c r="AB28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC28" t="n">
+      <c r="AF28" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11</v>
-      </c>
       <c r="AG28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AM28" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.12</v>
+        <v>3.45</v>
       </c>
       <c r="G29" t="n">
-        <v>2.16</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>4.1</v>
+        <v>2.22</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="O29" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P29" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="R29" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="S29" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="U29" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="V29" t="n">
-        <v>1.31</v>
+        <v>1.66</v>
       </c>
       <c r="W29" t="n">
-        <v>1.87</v>
+        <v>1.35</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD29" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="G30" t="n">
-        <v>1.74</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>5.9</v>
+        <v>2.84</v>
       </c>
       <c r="I30" t="n">
-        <v>6.2</v>
+        <v>2.92</v>
       </c>
       <c r="J30" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="L30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.5</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.34</v>
-      </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>44</v>
+        <v>17.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AL30" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="AM30" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="AO30" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.45</v>
+        <v>2.14</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>2.24</v>
       </c>
       <c r="H31" t="n">
-        <v>2.22</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>2.84</v>
+        <v>3.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="U31" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="V31" t="n">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="W31" t="n">
-        <v>1.34</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.86</v>
+        <v>2.28</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
-        <v>2.84</v>
+        <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>2.96</v>
+        <v>3.85</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O32" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="P32" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="R32" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T32" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="U32" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="W32" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AA32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM32" t="n">
         <v>130</v>
       </c>
-      <c r="AB32" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>240</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>580</v>
-      </c>
       <c r="AN32" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="AO32" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,395 +4838,125 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.14</v>
+        <v>1.76</v>
       </c>
       <c r="G33" t="n">
-        <v>2.24</v>
+        <v>1.81</v>
       </c>
       <c r="H33" t="n">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N33" t="n">
-        <v>3.8</v>
+        <v>2.68</v>
       </c>
       <c r="O33" t="n">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="P33" t="n">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.96</v>
+        <v>2.72</v>
       </c>
       <c r="R33" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="T33" t="n">
-        <v>1.77</v>
+        <v>2.48</v>
       </c>
       <c r="U33" t="n">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
       <c r="V33" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="W33" t="n">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AA33" t="n">
-        <v>900</v>
+        <v>310</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>5.8</v>
       </c>
       <c r="AC33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>15</v>
-      </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AI33" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AJ33" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AK33" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN33" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AO33" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X34" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Union Santa Fe</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Gimnasia La Plata</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X35" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO35" t="n">
         <v>350</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="G2" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="H2" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="R2" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="T2" t="n">
         <v>2.02</v>
@@ -715,61 +715,61 @@
         <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W2" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
         <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>440</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="AJ2" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AL2" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="AM2" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
         <v>600</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.49</v>
@@ -832,49 +832,49 @@
         <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
         <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>80</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
         <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>90</v>
@@ -883,10 +883,10 @@
         <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AH3" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
         <v>200</v>
@@ -943,13 +943,13 @@
         <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I4" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.4</v>
@@ -964,70 +964,70 @@
         <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
         <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W4" t="n">
         <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>150</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>530</v>
+        <v>220</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1039,10 +1039,10 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1081,10 +1081,10 @@
         <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
@@ -1102,10 +1102,10 @@
         <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
@@ -1126,10 +1126,10 @@
         <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
         <v>14</v>
@@ -1168,7 +1168,7 @@
         <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>4.6</v>
@@ -1243,22 +1243,22 @@
         <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
         <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="X6" t="n">
         <v>36</v>
@@ -1270,13 +1270,13 @@
         <v>120</v>
       </c>
       <c r="AA6" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1285,10 +1285,10 @@
         <v>170</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>980</v>
@@ -1300,7 +1300,7 @@
         <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.35</v>
       </c>
-      <c r="S7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="X7" t="n">
         <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>160</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
         <v>170</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
         <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
         <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
         <v>140</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
         <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
         <v>60</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>150</v>
       </c>
       <c r="AJ8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN8" t="n">
-        <v>600</v>
+        <v>48</v>
       </c>
       <c r="AO8" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.85</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1636,28 +1636,28 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.23</v>
@@ -1669,7 +1669,7 @@
         <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
         <v>38</v>
@@ -1681,10 +1681,10 @@
         <v>8.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>70</v>
@@ -1693,7 +1693,7 @@
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AH9" t="n">
         <v>19.5</v>
@@ -1702,13 +1702,13 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK9" t="n">
         <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
         <v>120</v>
@@ -1750,10 +1750,10 @@
         <v>2.64</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H10" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -1771,25 +1771,25 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
         <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
         <v>2.32</v>
@@ -1804,10 +1804,10 @@
         <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="n">
         <v>46</v>
@@ -1819,7 +1819,7 @@
         <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>32</v>
@@ -1834,7 +1834,7 @@
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
         <v>38</v>
@@ -1846,13 +1846,13 @@
         <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1888,16 +1888,16 @@
         <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
         <v>1.53</v>
@@ -1918,25 +1918,25 @@
         <v>2.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
         <v>1.37</v>
       </c>
       <c r="X11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>8.199999999999999</v>
@@ -1957,13 +1957,13 @@
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF11" t="n">
         <v>22</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -1981,7 +1981,7 @@
         <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
         <v>65</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>1.34</v>
@@ -2047,82 +2047,82 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
         <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.6</v>
       </c>
       <c r="AD12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN12" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G13" t="n">
         <v>2.52</v>
@@ -2203,10 +2203,10 @@
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
         <v>12.5</v>
@@ -2218,19 +2218,19 @@
         <v>150</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
@@ -2239,25 +2239,25 @@
         <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>600</v>
       </c>
       <c r="AO13" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
@@ -2314,46 +2314,46 @@
         <v>4.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
         <v>2.84</v>
       </c>
       <c r="T14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
         <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AA14" t="n">
         <v>330</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.199999999999999</v>
@@ -2362,7 +2362,7 @@
         <v>18.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="AF14" t="n">
         <v>14</v>
@@ -2377,13 +2377,13 @@
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
@@ -2392,7 +2392,7 @@
         <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -2437,7 +2437,7 @@
         <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
@@ -2446,10 +2446,10 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
         <v>1.84</v>
@@ -2464,22 +2464,22 @@
         <v>3.85</v>
       </c>
       <c r="T15" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z15" t="n">
         <v>15.5</v>
@@ -2503,7 +2503,7 @@
         <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="G16" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="H16" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="J16" t="n">
         <v>3.85</v>
@@ -2581,40 +2581,40 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R16" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S16" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T16" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
         <v>2.52</v>
       </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Z16" t="n">
         <v>60</v>
@@ -2623,7 +2623,7 @@
         <v>240</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
         <v>14</v>
@@ -2644,25 +2644,25 @@
         <v>26</v>
       </c>
       <c r="AI16" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="n">
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN16" t="n">
         <v>55</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2695,16 +2695,16 @@
         <v>1.95</v>
       </c>
       <c r="G17" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
@@ -2716,88 +2716,88 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S17" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T17" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
         <v>2.44</v>
       </c>
       <c r="V17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AA17" t="n">
         <v>170</v>
       </c>
       <c r="AB17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF17" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>18</v>
-      </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -2827,49 +2827,49 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="G18" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I18" t="n">
         <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
         <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R18" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S18" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
         <v>2.34</v>
@@ -2878,28 +2878,28 @@
         <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Y18" t="n">
         <v>70</v>
       </c>
       <c r="Z18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
@@ -2911,25 +2911,25 @@
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
         <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AO18" t="n">
         <v>600</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
         <v>4.1</v>
@@ -2980,7 +2980,7 @@
         <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -2992,13 +2992,13 @@
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="S19" t="n">
         <v>2.46</v>
@@ -3007,16 +3007,16 @@
         <v>1.61</v>
       </c>
       <c r="U19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
         <v>55</v>
@@ -3025,7 +3025,7 @@
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="AB19" t="n">
         <v>24</v>
@@ -3052,10 +3052,10 @@
         <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
         <v>70</v>
@@ -3067,7 +3067,7 @@
         <v>8.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G20" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H20" t="n">
         <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
         <v>3.05</v>
@@ -3115,46 +3115,46 @@
         <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="M20" t="n">
         <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P20" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T20" t="n">
         <v>2.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z20" t="n">
         <v>18.5</v>
@@ -3163,10 +3163,10 @@
         <v>50</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD20" t="n">
         <v>13.5</v>
@@ -3181,28 +3181,28 @@
         <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
         <v>48</v>
       </c>
       <c r="AK20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
         <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO20" t="n">
-        <v>140</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -3232,79 +3232,79 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G21" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
         <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="M21" t="n">
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P21" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S21" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V21" t="n">
         <v>1.39</v>
       </c>
       <c r="W21" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X21" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="n">
-        <v>530</v>
+        <v>170</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
         <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
         <v>130</v>
@@ -3313,28 +3313,28 @@
         <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="AJ21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL21" t="n">
         <v>150</v>
       </c>
-      <c r="AK21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>380</v>
-      </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
       <c r="AO21" t="n">
         <v>600</v>
@@ -3373,25 +3373,25 @@
         <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
         <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
         <v>1.43</v>
@@ -3409,19 +3409,19 @@
         <v>4.4</v>
       </c>
       <c r="T22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.95</v>
       </c>
-      <c r="U22" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W22" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
         <v>8.199999999999999</v>
@@ -3433,7 +3433,7 @@
         <v>28</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
@@ -3442,16 +3442,16 @@
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF22" t="n">
         <v>28</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
         <v>48</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.9</v>
       </c>
-      <c r="I23" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R23" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="U23" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="X23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y23" t="n">
         <v>12</v>
       </c>
-      <c r="Y23" t="n">
-        <v>15</v>
-      </c>
       <c r="Z23" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>530</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>370</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL23" t="n">
         <v>55</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>980</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
@@ -3637,28 +3637,28 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.16</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.18</v>
-      </c>
       <c r="H24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
         <v>4.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
         <v>3.2</v>
@@ -3667,7 +3667,7 @@
         <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q24" t="n">
         <v>2.32</v>
@@ -3682,13 +3682,13 @@
         <v>1.99</v>
       </c>
       <c r="U24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
         <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X24" t="n">
         <v>10.5</v>
@@ -3700,16 +3700,16 @@
         <v>28</v>
       </c>
       <c r="AA24" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB24" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC24" t="n">
         <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE24" t="n">
         <v>65</v>
@@ -3718,10 +3718,10 @@
         <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>75</v>
@@ -3733,7 +3733,7 @@
         <v>26</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM24" t="n">
         <v>150</v>
@@ -3778,25 +3778,25 @@
         <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K25" t="n">
         <v>3.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="M25" t="n">
         <v>1.18</v>
       </c>
       <c r="N25" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="O25" t="n">
         <v>1.75</v>
@@ -3814,10 +3814,10 @@
         <v>8</v>
       </c>
       <c r="T25" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="U25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V25" t="n">
         <v>1.27</v>
@@ -3835,16 +3835,16 @@
         <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AE25" t="n">
         <v>110</v>
@@ -3853,10 +3853,10 @@
         <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AI25" t="n">
         <v>160</v>
@@ -3877,7 +3877,7 @@
         <v>44</v>
       </c>
       <c r="AO25" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G26" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="H26" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -3937,70 +3937,70 @@
         <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R26" t="n">
         <v>1.46</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U26" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V26" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W26" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA26" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
         <v>29</v>
@@ -4009,7 +4009,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
         <v>55</v>
@@ -4054,7 +4054,7 @@
         <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K27" t="n">
         <v>3.5</v>
@@ -4093,10 +4093,10 @@
         <v>1.31</v>
       </c>
       <c r="W27" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -4123,7 +4123,7 @@
         <v>12</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
         <v>20</v>
@@ -4138,16 +4138,16 @@
         <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="n">
         <v>130</v>
       </c>
       <c r="AN27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -4183,13 +4183,13 @@
         <v>1.73</v>
       </c>
       <c r="H28" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I28" t="n">
         <v>6.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K28" t="n">
         <v>4.1</v>
@@ -4201,52 +4201,52 @@
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R28" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="U28" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="V28" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W28" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
         <v>46</v>
       </c>
       <c r="AA28" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
         <v>24</v>
@@ -4258,28 +4258,28 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM28" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO28" t="n">
         <v>180</v>
@@ -4327,7 +4327,7 @@
         <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.52</v>
@@ -4339,10 +4339,10 @@
         <v>2.84</v>
       </c>
       <c r="O29" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q29" t="n">
         <v>2.32</v>
@@ -4357,16 +4357,16 @@
         <v>1.94</v>
       </c>
       <c r="U29" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V29" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W29" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y29" t="n">
         <v>1000</v>
@@ -4381,7 +4381,7 @@
         <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AD29" t="n">
         <v>1000</v>
@@ -4447,40 +4447,40 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="I30" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L30" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M30" t="n">
         <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P30" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R30" t="n">
         <v>1.23</v>
@@ -4489,28 +4489,28 @@
         <v>4.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U30" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W30" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z30" t="n">
         <v>17.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AB30" t="n">
         <v>9.4</v>
@@ -4528,19 +4528,19 @@
         <v>18.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>300</v>
       </c>
       <c r="AJ30" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AK30" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL30" t="n">
         <v>400</v>
@@ -4549,10 +4549,10 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO30" t="n">
         <v>90</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -4585,10 +4585,10 @@
         <v>2.14</v>
       </c>
       <c r="G31" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
         <v>3.9</v>
@@ -4606,16 +4606,16 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O31" t="n">
         <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R31" t="n">
         <v>1.36</v>
@@ -4624,37 +4624,37 @@
         <v>3.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U31" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V31" t="n">
         <v>1.34</v>
       </c>
       <c r="W31" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AA31" t="n">
         <v>900</v>
       </c>
       <c r="AB31" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC31" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE31" t="n">
         <v>200</v>
@@ -4672,13 +4672,13 @@
         <v>260</v>
       </c>
       <c r="AJ31" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G32" t="n">
         <v>2.28</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>3.7</v>
@@ -4729,13 +4729,13 @@
         <v>3.85</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
@@ -4744,19 +4744,19 @@
         <v>3.25</v>
       </c>
       <c r="O32" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P32" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T32" t="n">
         <v>1.94</v>
@@ -4768,7 +4768,7 @@
         <v>1.35</v>
       </c>
       <c r="W32" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X32" t="n">
         <v>11</v>
@@ -4795,7 +4795,7 @@
         <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG32" t="n">
         <v>11</v>
@@ -4804,7 +4804,7 @@
         <v>19.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
         <v>30</v>
@@ -4876,25 +4876,25 @@
         <v>1.13</v>
       </c>
       <c r="N33" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O33" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P33" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R33" t="n">
         <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="T33" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U33" t="n">
         <v>1.62</v>
@@ -4939,13 +4939,13 @@
         <v>34</v>
       </c>
       <c r="AI33" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ33" t="n">
         <v>19</v>
       </c>
       <c r="AK33" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -670,13 +670,13 @@
         <v>2.34</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H2" t="n">
         <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -685,61 +685,61 @@
         <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
         <v>1.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
         <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
         <v>260</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
         <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>980</v>
@@ -751,7 +751,7 @@
         <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>200</v>
@@ -760,7 +760,7 @@
         <v>170</v>
       </c>
       <c r="AK2" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="n">
         <v>150</v>
@@ -769,7 +769,7 @@
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="AO2" t="n">
         <v>600</v>
@@ -808,79 +808,79 @@
         <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AA3" t="n">
         <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AG3" t="n">
         <v>30</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G4" t="n">
         <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I4" t="n">
         <v>2.52</v>
@@ -952,43 +952,43 @@
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
         <v>1.66</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X4" t="n">
         <v>11.5</v>
@@ -1000,25 +1000,25 @@
         <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
         <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
         <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
         <v>19.5</v>
@@ -1030,19 +1030,19 @@
         <v>220</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AL4" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AO4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.5</v>
@@ -1102,34 +1102,34 @@
         <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
         <v>2.24</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
         <v>4.2</v>
       </c>
       <c r="T5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.96</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.89</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1141,10 +1141,10 @@
         <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH5" t="n">
         <v>60</v>
@@ -1162,13 +1162,13 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
         <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
         <v>4.6</v>
@@ -1234,34 +1234,34 @@
         <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
@@ -1273,43 +1273,43 @@
         <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AE6" t="n">
         <v>170</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>190</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO6" t="n">
         <v>600</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
         <v>3.9</v>
@@ -1357,7 +1357,7 @@
         <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.43</v>
@@ -1372,10 +1372,10 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
         <v>1.34</v>
@@ -1384,7 +1384,7 @@
         <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
         <v>2.08</v>
@@ -1396,7 +1396,7 @@
         <v>1.79</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
         <v>14.5</v>
@@ -1411,7 +1411,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
         <v>16</v>
@@ -1420,34 +1420,34 @@
         <v>160</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>170</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="G8" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1510,79 +1510,79 @@
         <v>2.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R8" t="n">
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
         <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
         <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
         <v>48</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G9" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1636,37 +1636,37 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
         <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
         <v>2.16</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
         <v>17</v>
@@ -1681,10 +1681,10 @@
         <v>8.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE9" t="n">
         <v>70</v>
@@ -1693,16 +1693,16 @@
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>19.5</v>
@@ -1717,7 +1717,7 @@
         <v>12.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="G10" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="H10" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>3.55</v>
@@ -1771,7 +1771,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -1780,25 +1780,25 @@
         <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
         <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W10" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1807,43 +1807,43 @@
         <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
         <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
         <v>80</v>
@@ -1852,7 +1852,7 @@
         <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1885,61 +1885,61 @@
         <v>3.65</v>
       </c>
       <c r="G11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.3</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O11" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P11" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V11" t="n">
         <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X11" t="n">
         <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z11" t="n">
         <v>13</v>
@@ -1957,37 +1957,37 @@
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH11" t="n">
         <v>22</v>
       </c>
-      <c r="AG11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
         <v>75</v>
       </c>
       <c r="AK11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN11" t="n">
         <v>70</v>
       </c>
-      <c r="AM11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>65</v>
-      </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2053,7 +2053,7 @@
         <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
         <v>2.78</v>
@@ -2062,25 +2062,25 @@
         <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
         <v>13.5</v>
@@ -2092,10 +2092,10 @@
         <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2107,22 +2107,22 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
         <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="H13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.25</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
@@ -2176,88 +2176,88 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
         <v>1.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
         <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AK13" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM13" t="n">
         <v>110</v>
       </c>
-      <c r="AM13" t="n">
-        <v>580</v>
-      </c>
       <c r="AN13" t="n">
-        <v>600</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="G14" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
         <v>4.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
         <v>2.34</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AA14" t="n">
         <v>330</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN14" t="n">
         <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -2425,16 +2425,16 @@
         <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>3.45</v>
@@ -2449,10 +2449,10 @@
         <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q15" t="n">
         <v>2.1</v>
@@ -2464,22 +2464,22 @@
         <v>3.85</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
         <v>15.5</v>
@@ -2500,7 +2500,7 @@
         <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
         <v>14.5</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
         <v>2.56</v>
@@ -2566,58 +2566,58 @@
         <v>2.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U16" t="n">
         <v>2.52</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
         <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Y16" t="n">
         <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="n">
         <v>240</v>
@@ -2626,43 +2626,43 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL16" t="n">
         <v>42</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>75</v>
-      </c>
       <c r="AM16" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -2692,52 +2692,52 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G17" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
         <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="R17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.58</v>
       </c>
-      <c r="S17" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="V17" t="n">
         <v>1.31</v>
@@ -2746,31 +2746,31 @@
         <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AA17" t="n">
         <v>170</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AG17" t="n">
         <v>11</v>
@@ -2779,13 +2779,13 @@
         <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
         <v>80</v>
@@ -2794,10 +2794,10 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H18" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I18" t="n">
         <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.28</v>
@@ -2854,85 +2854,85 @@
         <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="S18" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U18" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="V18" t="n">
         <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="X18" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO18" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
         <v>4.5</v>
@@ -2980,94 +2980,94 @@
         <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.6</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.5</v>
       </c>
       <c r="V19" t="n">
         <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="n">
         <v>300</v>
       </c>
       <c r="AB19" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G20" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H20" t="n">
         <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
         <v>3.05</v>
@@ -3115,58 +3115,58 @@
         <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M20" t="n">
         <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O20" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V20" t="n">
         <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X20" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA20" t="n">
         <v>50</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
         <v>13.5</v>
@@ -3175,31 +3175,31 @@
         <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG20" t="n">
         <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
         <v>48</v>
       </c>
       <c r="AK20" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO20" t="n">
         <v>48</v>
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="G21" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L21" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="M21" t="n">
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="O21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P21" t="n">
         <v>1.53</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.52</v>
-      </c>
       <c r="Q21" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="R21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T21" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V21" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="W21" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="X21" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
         <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL21" t="n">
         <v>380</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>150</v>
-      </c>
       <c r="AM21" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="n">
         <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3376,7 +3376,7 @@
         <v>2.18</v>
       </c>
       <c r="I22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
@@ -3403,7 +3403,7 @@
         <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
         <v>4.4</v>
@@ -3412,10 +3412,10 @@
         <v>1.97</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
         <v>1.31</v>
@@ -3424,7 +3424,7 @@
         <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="n">
         <v>12.5</v>
@@ -3442,16 +3442,16 @@
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF22" t="n">
         <v>28</v>
       </c>
       <c r="AG22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>48</v>
@@ -3511,13 +3511,13 @@
         <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L23" t="n">
         <v>1.5</v>
@@ -3529,13 +3529,13 @@
         <v>3.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R23" t="n">
         <v>1.26</v>
@@ -3544,19 +3544,19 @@
         <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
@@ -3565,31 +3565,31 @@
         <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
         <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
         <v>34</v>
@@ -3598,16 +3598,16 @@
         <v>30</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM23" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO23" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
         <v>3.3</v>
@@ -3664,7 +3664,7 @@
         <v>3.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P24" t="n">
         <v>1.74</v>
@@ -3673,28 +3673,28 @@
         <v>2.32</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
         <v>4.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
         <v>1.96</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
         <v>28</v>
@@ -3736,10 +3736,10 @@
         <v>46</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO24" t="n">
         <v>75</v>
@@ -3796,7 +3796,7 @@
         <v>1.18</v>
       </c>
       <c r="N25" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="O25" t="n">
         <v>1.75</v>
@@ -3805,7 +3805,7 @@
         <v>1.39</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R25" t="n">
         <v>1.13</v>
@@ -3814,7 +3814,7 @@
         <v>8</v>
       </c>
       <c r="T25" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="U25" t="n">
         <v>1.59</v>
@@ -3826,7 +3826,7 @@
         <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="Y25" t="n">
         <v>10</v>
@@ -3835,7 +3835,7 @@
         <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AB25" t="n">
         <v>5.9</v>
@@ -3844,13 +3844,13 @@
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
         <v>110</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="G26" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>4.5</v>
@@ -3919,13 +3919,13 @@
         <v>4.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -3937,43 +3937,43 @@
         <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R26" t="n">
         <v>1.46</v>
       </c>
       <c r="S26" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U26" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V26" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X26" t="n">
         <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="n">
         <v>95</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
         <v>8.4</v>
@@ -3982,16 +3982,16 @@
         <v>17.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
@@ -4006,7 +4006,7 @@
         <v>29</v>
       </c>
       <c r="AM26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN26" t="n">
         <v>11</v>
@@ -4066,7 +4066,7 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="n">
         <v>1.42</v>
@@ -4075,19 +4075,19 @@
         <v>1.78</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T27" t="n">
         <v>1.97</v>
       </c>
       <c r="U27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>1.31</v>
@@ -4102,13 +4102,13 @@
         <v>13</v>
       </c>
       <c r="Z27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA27" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC27" t="n">
         <v>7.6</v>
@@ -4117,7 +4117,7 @@
         <v>16.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
         <v>12</v>
@@ -4126,7 +4126,7 @@
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI27" t="n">
         <v>70</v>
@@ -4147,7 +4147,7 @@
         <v>19</v>
       </c>
       <c r="AO27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -4180,10 +4180,10 @@
         <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
         <v>6.4</v>
@@ -4198,43 +4198,43 @@
         <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
         <v>2.12</v>
       </c>
       <c r="U28" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V28" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z28" t="n">
         <v>46</v>
@@ -4264,13 +4264,13 @@
         <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ28" t="n">
         <v>16.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL28" t="n">
         <v>46</v>
@@ -4282,7 +4282,7 @@
         <v>13.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>3.5</v>
@@ -4360,16 +4360,16 @@
         <v>1.86</v>
       </c>
       <c r="V29" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X29" t="n">
-        <v>980</v>
+        <v>350</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4381,7 +4381,7 @@
         <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AD29" t="n">
         <v>1000</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G30" t="n">
         <v>3.1</v>
@@ -4456,10 +4456,10 @@
         <v>2.74</v>
       </c>
       <c r="I30" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K30" t="n">
         <v>3.25</v>
@@ -4477,55 +4477,55 @@
         <v>1.49</v>
       </c>
       <c r="P30" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R30" t="n">
         <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T30" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V30" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W30" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="X30" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
         <v>50</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD30" t="n">
         <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AF30" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>14.5</v>
@@ -4537,10 +4537,10 @@
         <v>300</v>
       </c>
       <c r="AJ30" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AL30" t="n">
         <v>400</v>
@@ -4549,7 +4549,7 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="AO30" t="n">
         <v>90</v>
@@ -4585,7 +4585,7 @@
         <v>2.14</v>
       </c>
       <c r="G31" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H31" t="n">
         <v>3.65</v>
@@ -4594,7 +4594,7 @@
         <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
         <v>3.7</v>
@@ -4621,13 +4621,13 @@
         <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T31" t="n">
         <v>1.78</v>
       </c>
       <c r="U31" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V31" t="n">
         <v>1.34</v>
@@ -4654,7 +4654,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>200</v>
@@ -4675,7 +4675,7 @@
         <v>120</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
         <v>160</v>
@@ -4684,10 +4684,10 @@
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="G32" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
         <v>3.45</v>
@@ -4741,52 +4741,52 @@
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O32" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P32" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R32" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S32" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W32" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA32" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
         <v>16</v>
@@ -4801,16 +4801,16 @@
         <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
         <v>70</v>
       </c>
       <c r="AJ32" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL32" t="n">
         <v>46</v>
@@ -4819,10 +4819,10 @@
         <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G33" t="n">
         <v>1.81</v>
@@ -4864,7 +4864,7 @@
         <v>6.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
         <v>3.65</v>
@@ -4891,10 +4891,10 @@
         <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="T33" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U33" t="n">
         <v>1.62</v>
@@ -4906,22 +4906,22 @@
         <v>2.22</v>
       </c>
       <c r="X33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z33" t="n">
         <v>55</v>
       </c>
       <c r="AA33" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
         <v>5.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
         <v>28</v>
@@ -4930,34 +4930,34 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG33" t="n">
         <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ33" t="n">
         <v>19</v>
       </c>
       <c r="AK33" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AN33" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AO33" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -667,100 +667,100 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="P2" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="R2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W2" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X2" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>170</v>
       </c>
       <c r="AK2" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AL2" t="n">
         <v>150</v>
@@ -769,10 +769,10 @@
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
         <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AK3" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I4" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>3.35</v>
@@ -961,46 +961,46 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
         <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V4" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W4" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
         <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
         <v>11</v>
@@ -1009,40 +1009,40 @@
         <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM4" t="n">
         <v>130</v>
       </c>
-      <c r="AL4" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
       <c r="AN4" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL5" t="n">
         <v>60</v>
       </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
         <v>6.2</v>
@@ -1231,19 +1231,19 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
         <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
         <v>2.78</v>
@@ -1252,19 +1252,19 @@
         <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Z6" t="n">
         <v>120</v>
@@ -1303,13 +1303,13 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO6" t="n">
         <v>600</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W7" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
         <v>14.5</v>
@@ -1408,7 +1408,7 @@
         <v>310</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
         <v>8.199999999999999</v>
@@ -1420,7 +1420,7 @@
         <v>160</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
@@ -1432,19 +1432,19 @@
         <v>170</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>600</v>
@@ -1483,70 +1483,70 @@
         <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W8" t="n">
         <v>1.42</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
         <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
@@ -1555,25 +1555,25 @@
         <v>48</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG8" t="n">
         <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AK8" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
@@ -1582,7 +1582,7 @@
         <v>48</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1645,25 +1645,25 @@
         <v>1.94</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
         <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1672,22 +1672,22 @@
         <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -1696,16 +1696,16 @@
         <v>9.6</v>
       </c>
       <c r="AH9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
         <v>20</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
         <v>38</v>
@@ -1714,10 +1714,10 @@
         <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.54</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.56</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -1771,10 +1771,10 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
         <v>2.04</v>
@@ -1783,22 +1783,22 @@
         <v>1.91</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
         <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1813,7 +1813,7 @@
         <v>50</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>7.8</v>
@@ -1834,10 +1834,10 @@
         <v>15.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK10" t="n">
         <v>26</v>
@@ -1849,10 +1849,10 @@
         <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
         <v>2.34</v>
@@ -1912,10 +1912,10 @@
         <v>1.49</v>
       </c>
       <c r="P11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="R11" t="n">
         <v>1.23</v>
@@ -1924,22 +1924,22 @@
         <v>5.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W11" t="n">
         <v>1.36</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z11" t="n">
         <v>13</v>
@@ -1957,7 +1957,7 @@
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
         <v>23</v>
@@ -1972,7 +1972,7 @@
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="n">
         <v>55</v>
@@ -1981,10 +1981,10 @@
         <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="n">
         <v>29</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.26</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.32</v>
-      </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
         <v>25</v>
@@ -2083,46 +2083,46 @@
         <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
       </c>
       <c r="AL12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO12" t="n">
         <v>30</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2152,34 +2152,34 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="G13" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="H13" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
         <v>1.87</v>
@@ -2200,13 +2200,13 @@
         <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W13" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
         <v>12</v>
@@ -2215,13 +2215,13 @@
         <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
         <v>13</v>
@@ -2230,34 +2230,34 @@
         <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
         <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2287,61 +2287,61 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H14" t="n">
         <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="V14" t="n">
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
         <v>23</v>
@@ -2353,22 +2353,22 @@
         <v>330</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="n">
         <v>14.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AH14" t="n">
         <v>16.5</v>
@@ -2380,19 +2380,19 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G15" t="n">
         <v>3.45</v>
@@ -2431,16 +2431,16 @@
         <v>2.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J15" t="n">
         <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2455,13 +2455,13 @@
         <v>1.87</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T15" t="n">
         <v>1.78</v>
@@ -2470,13 +2470,13 @@
         <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
@@ -2485,7 +2485,7 @@
         <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="n">
         <v>12.5</v>
@@ -2497,37 +2497,37 @@
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
         <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -2557,67 +2557,67 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G16" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I16" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="S16" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="T16" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="U16" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="V16" t="n">
         <v>1.54</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
         <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
         <v>240</v>
@@ -2626,13 +2626,13 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF16" t="n">
         <v>38</v>
@@ -2644,22 +2644,22 @@
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="n">
         <v>95</v>
       </c>
       <c r="AK16" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO16" t="n">
         <v>44</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U17" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V17" t="n">
         <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AB17" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AF17" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AO17" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2827,85 +2827,85 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="G18" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="S18" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="T18" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="U18" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="X18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y18" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE18" t="n">
         <v>150</v>
       </c>
-      <c r="AB18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>65</v>
-      </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10</v>
@@ -2914,7 +2914,7 @@
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
         <v>16.5</v>
@@ -2926,13 +2926,13 @@
         <v>25</v>
       </c>
       <c r="AM18" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>1.82</v>
       </c>
       <c r="G19" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
         <v>4.2</v>
@@ -2974,49 +2974,49 @@
         <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="T19" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U19" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="V19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Y19" t="n">
         <v>38</v>
@@ -3028,7 +3028,7 @@
         <v>300</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC19" t="n">
         <v>11.5</v>
@@ -3037,7 +3037,7 @@
         <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="n">
         <v>15.5</v>
@@ -3046,7 +3046,7 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>120</v>
@@ -3055,19 +3055,19 @@
         <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
         <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="G20" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="H20" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I20" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M20" t="n">
         <v>1.12</v>
@@ -3124,7 +3124,7 @@
         <v>2.92</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P20" t="n">
         <v>1.64</v>
@@ -3136,19 +3136,19 @@
         <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="W20" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X20" t="n">
         <v>9.4</v>
@@ -3157,19 +3157,19 @@
         <v>9.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
         <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>42</v>
@@ -3190,7 +3190,7 @@
         <v>48</v>
       </c>
       <c r="AK20" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
         <v>65</v>
@@ -3199,10 +3199,10 @@
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO20" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3232,85 +3232,85 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
         <v>3.25</v>
       </c>
       <c r="L21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M21" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
         <v>2.62</v>
       </c>
       <c r="O21" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R21" t="n">
         <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T21" t="n">
         <v>2.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V21" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X21" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC21" t="n">
         <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
         <v>290</v>
       </c>
       <c r="AF21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
         <v>13.5</v>
@@ -3322,19 +3322,19 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AK21" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AL21" t="n">
         <v>380</v>
       </c>
       <c r="AM21" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3373,19 +3373,19 @@
         <v>4.3</v>
       </c>
       <c r="H22" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.18</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
@@ -3406,25 +3406,25 @@
         <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
         <v>1.97</v>
       </c>
       <c r="U22" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W22" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z22" t="n">
         <v>12.5</v>
@@ -3433,7 +3433,7 @@
         <v>28</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
@@ -3451,10 +3451,10 @@
         <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ22" t="n">
         <v>90</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L23" t="n">
         <v>1.5</v>
@@ -3529,31 +3529,31 @@
         <v>3.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
         <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
         <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
         <v>10.5</v>
@@ -3568,7 +3568,7 @@
         <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC23" t="n">
         <v>7.2</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G24" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
@@ -3649,52 +3649,52 @@
         <v>4.3</v>
       </c>
       <c r="J24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.35</v>
       </c>
       <c r="L24" t="n">
         <v>1.51</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P24" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U24" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V24" t="n">
         <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
         <v>28</v>
@@ -3721,7 +3721,7 @@
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>75</v>
@@ -3733,13 +3733,13 @@
         <v>26</v>
       </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
         <v>75</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G25" t="n">
         <v>2.26</v>
@@ -3781,10 +3781,10 @@
         <v>4.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>3.1</v>
@@ -3793,19 +3793,19 @@
         <v>1.77</v>
       </c>
       <c r="M25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N25" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="O25" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="P25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R25" t="n">
         <v>1.13</v>
@@ -3814,22 +3814,22 @@
         <v>8</v>
       </c>
       <c r="T25" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="U25" t="n">
         <v>1.59</v>
       </c>
       <c r="V25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W25" t="n">
         <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z25" t="n">
         <v>32</v>
@@ -3847,7 +3847,7 @@
         <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AF25" t="n">
         <v>11.5</v>
@@ -3859,7 +3859,7 @@
         <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AJ25" t="n">
         <v>32</v>
@@ -3868,10 +3868,10 @@
         <v>40</v>
       </c>
       <c r="AL25" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="AN25" t="n">
         <v>44</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.89</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.9</v>
-      </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J26" t="n">
         <v>3.9</v>
@@ -3931,43 +3931,43 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O26" t="n">
         <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R26" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U26" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V26" t="n">
         <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X26" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA26" t="n">
         <v>95</v>
@@ -3976,13 +3976,13 @@
         <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD26" t="n">
         <v>17.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="n">
         <v>11.5</v>
@@ -3994,7 +3994,7 @@
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -4009,7 +4009,7 @@
         <v>75</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO26" t="n">
         <v>55</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G27" t="n">
         <v>2.12</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.45</v>
@@ -4060,7 +4060,7 @@
         <v>3.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4072,10 +4072,10 @@
         <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
         <v>1.3</v>
@@ -4087,13 +4087,13 @@
         <v>1.97</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X27" t="n">
         <v>11.5</v>
@@ -4102,7 +4102,7 @@
         <v>13</v>
       </c>
       <c r="Z27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA27" t="n">
         <v>90</v>
@@ -4114,13 +4114,13 @@
         <v>7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4141,13 +4141,13 @@
         <v>44</v>
       </c>
       <c r="AM27" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
         <v>19</v>
       </c>
       <c r="AO27" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -4183,19 +4183,19 @@
         <v>1.72</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I28" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J28" t="n">
         <v>3.9</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
@@ -4204,25 +4204,25 @@
         <v>3.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P28" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T28" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U28" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V28" t="n">
         <v>1.18</v>
@@ -4234,19 +4234,19 @@
         <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z28" t="n">
         <v>46</v>
       </c>
       <c r="AA28" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB28" t="n">
         <v>7.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
         <v>24</v>
@@ -4273,16 +4273,16 @@
         <v>19.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM28" t="n">
         <v>170</v>
       </c>
       <c r="AN28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
@@ -4312,79 +4312,79 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I29" t="n">
         <v>2.52</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N29" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P29" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U29" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V29" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W29" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X29" t="n">
-        <v>350</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
         <v>15.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
         <v>14</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -4405,10 +4405,10 @@
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>3.1</v>
@@ -4459,34 +4459,34 @@
         <v>2.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
         <v>3.25</v>
       </c>
       <c r="L30" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M30" t="n">
         <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P30" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R30" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T30" t="n">
         <v>2.02</v>
@@ -4504,55 +4504,55 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
         <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC30" t="n">
         <v>7.2</v>
       </c>
       <c r="AD30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG30" t="n">
         <v>14</v>
       </c>
-      <c r="AE30" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AJ30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AL30" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AO30" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G31" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>3.65</v>
@@ -4606,7 +4606,7 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O31" t="n">
         <v>1.32</v>
@@ -4615,25 +4615,25 @@
         <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U31" t="n">
         <v>2.16</v>
       </c>
       <c r="V31" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W31" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X31" t="n">
         <v>18</v>
@@ -4660,25 +4660,25 @@
         <v>200</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>260</v>
       </c>
       <c r="AJ31" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AK31" t="n">
         <v>27</v>
       </c>
       <c r="AL31" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.45</v>
       </c>
       <c r="L32" t="n">
         <v>1.5</v>
@@ -4741,25 +4741,25 @@
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="n">
         <v>1.41</v>
       </c>
       <c r="P32" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T32" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
@@ -4768,7 +4768,7 @@
         <v>1.33</v>
       </c>
       <c r="W32" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
@@ -4777,10 +4777,10 @@
         <v>12.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA32" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="n">
         <v>8.4</v>
@@ -4801,7 +4801,7 @@
         <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI32" t="n">
         <v>70</v>
@@ -4810,7 +4810,7 @@
         <v>28</v>
       </c>
       <c r="AK32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL32" t="n">
         <v>46</v>
@@ -4819,10 +4819,10 @@
         <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G33" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I33" t="n">
         <v>6.6</v>
@@ -4867,7 +4867,7 @@
         <v>3.5</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L33" t="n">
         <v>1.59</v>
@@ -4894,31 +4894,31 @@
         <v>5.9</v>
       </c>
       <c r="T33" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="U33" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="V33" t="n">
         <v>1.18</v>
       </c>
       <c r="W33" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X33" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y33" t="n">
         <v>14.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB33" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AC33" t="n">
         <v>8.199999999999999</v>
@@ -4930,7 +4930,7 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG33" t="n">
         <v>11.5</v>
@@ -4942,22 +4942,22 @@
         <v>190</v>
       </c>
       <c r="AJ33" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="AN33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO33" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>2.04</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>2.12</v>
       </c>
       <c r="L2" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.56</v>
       </c>
       <c r="N2" t="n">
-        <v>2.72</v>
+        <v>1.31</v>
       </c>
       <c r="O2" t="n">
-        <v>1.54</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.62</v>
+        <v>11.5</v>
       </c>
       <c r="R2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S2" t="n">
+        <v>55</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.2</v>
       </c>
-      <c r="S2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.34</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>8.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC2" t="n">
         <v>11</v>
       </c>
-      <c r="Z2" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="AL2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2.86</v>
       </c>
       <c r="I3" t="n">
-        <v>2.14</v>
+        <v>2.96</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>2.06</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>2.12</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.62</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>1.36</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>3.7</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
+        <v>55</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>2.88</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.4</v>
+        <v>1.06</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2.38</v>
+        <v>5.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.46</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>17</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.97</v>
+        <v>2.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>5.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="H5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="S5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.9</v>
       </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.91</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>1.22</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="X5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Z5" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.72</v>
+        <v>17.5</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>1.16</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>1.59</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>14</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>4.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>3.6</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="W6" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>120</v>
+        <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AI6" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>190</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>16.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="H7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
         <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG7" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
         <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
         <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.55</v>
@@ -1501,34 +1501,34 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
         <v>3.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1537,10 +1537,10 @@
         <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
         <v>13.5</v>
@@ -1549,40 +1549,40 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AF8" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM8" t="n">
         <v>85</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>580</v>
-      </c>
       <c r="AN8" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC9" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
         <v>2.54</v>
       </c>
       <c r="H10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.1</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.15</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.39</v>
@@ -1777,64 +1777,64 @@
         <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
         <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
         <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>15.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
         <v>36</v>
@@ -1849,10 +1849,10 @@
         <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -1882,67 +1882,67 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.25</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="O11" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="P11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="V11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X11" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>7.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>32</v>
@@ -1951,43 +1951,43 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
         <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AN11" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -2056,7 +2056,7 @@
         <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T12" t="n">
         <v>1.67</v>
@@ -2065,25 +2065,25 @@
         <v>2.4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
         <v>8.4</v>
@@ -2092,7 +2092,7 @@
         <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
@@ -2101,10 +2101,10 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2122,7 +2122,7 @@
         <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2152,28 +2152,28 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="G13" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
         <v>3.6</v>
@@ -2182,7 +2182,7 @@
         <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q13" t="n">
         <v>2.08</v>
@@ -2194,25 +2194,25 @@
         <v>3.75</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X13" t="n">
         <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>55</v>
@@ -2221,16 +2221,16 @@
         <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
@@ -2242,19 +2242,19 @@
         <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>36</v>
@@ -2290,7 +2290,7 @@
         <v>1.86</v>
       </c>
       <c r="G14" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="H14" t="n">
         <v>4.4</v>
@@ -2299,37 +2299,37 @@
         <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R14" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
         <v>2.42</v>
@@ -2338,34 +2338,34 @@
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="n">
         <v>22</v>
       </c>
-      <c r="Y14" t="n">
-        <v>23</v>
-      </c>
       <c r="Z14" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="n">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AF14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
         <v>9.4</v>
@@ -2374,25 +2374,25 @@
         <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2422,88 +2422,88 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.35</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Z15" t="n">
         <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
         <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
@@ -2512,22 +2512,22 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL15" t="n">
         <v>60</v>
       </c>
-      <c r="AK15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>55</v>
-      </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="H16" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="I16" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2575,94 +2575,94 @@
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R16" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="S16" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="T16" t="n">
         <v>1.54</v>
       </c>
       <c r="U16" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="V16" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AI16" t="n">
         <v>42</v>
       </c>
       <c r="AJ16" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -2704,10 +2704,10 @@
         <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.28</v>
@@ -2728,43 +2728,43 @@
         <v>1.56</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U17" t="n">
         <v>2.56</v>
       </c>
       <c r="V17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
         <v>2.1</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y17" t="n">
         <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE17" t="n">
         <v>42</v>
@@ -2779,13 +2779,13 @@
         <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AK17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL17" t="n">
         <v>32</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G18" t="n">
         <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I18" t="n">
         <v>6.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.26</v>
@@ -2851,37 +2851,37 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R18" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="S18" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U18" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
         <v>2.66</v>
       </c>
       <c r="X18" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
         <v>32</v>
@@ -2923,16 +2923,16 @@
         <v>14.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -2962,73 +2962,73 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
         <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="S19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T19" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U19" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X19" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AA19" t="n">
         <v>300</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
         <v>11.5</v>
@@ -3037,7 +3037,7 @@
         <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AF19" t="n">
         <v>15.5</v>
@@ -3049,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="AI19" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AJ19" t="n">
         <v>22</v>
@@ -3067,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="AO19" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -3097,67 +3097,67 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="G20" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.05</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>3.15</v>
       </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M20" t="n">
         <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="P20" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="V20" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X20" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
         <v>55</v>
@@ -3181,28 +3181,28 @@
         <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO20" t="n">
         <v>48</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3232,61 +3232,61 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H21" t="n">
         <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N21" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="O21" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="T21" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="U21" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="V21" t="n">
         <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y21" t="n">
         <v>10.5</v>
@@ -3295,28 +3295,28 @@
         <v>40</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
         <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
         <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3328,10 +3328,10 @@
         <v>95</v>
       </c>
       <c r="AL21" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="n">
         <v>600</v>
@@ -3376,13 +3376,13 @@
         <v>2.16</v>
       </c>
       <c r="I22" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
         <v>1.51</v>
@@ -3391,10 +3391,10 @@
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
         <v>1.73</v>
@@ -3406,16 +3406,16 @@
         <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="W22" t="n">
         <v>1.3</v>
@@ -3448,7 +3448,7 @@
         <v>28</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
         <v>20</v>
@@ -3466,7 +3466,7 @@
         <v>75</v>
       </c>
       <c r="AM22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
         <v>75</v>
@@ -3505,16 +3505,16 @@
         <v>2.36</v>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>3.3</v>
@@ -3526,31 +3526,31 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O23" t="n">
         <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q23" t="n">
         <v>2.3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
         <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
         <v>1.71</v>
@@ -3562,10 +3562,10 @@
         <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
         <v>8.4</v>
@@ -3577,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
@@ -3586,7 +3586,7 @@
         <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>70</v>
@@ -3601,7 +3601,7 @@
         <v>50</v>
       </c>
       <c r="AM23" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
         <v>27</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
@@ -3649,16 +3649,16 @@
         <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
         <v>3.1</v>
@@ -3670,10 +3670,10 @@
         <v>1.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
         <v>4.6</v>
@@ -3682,19 +3682,19 @@
         <v>2.02</v>
       </c>
       <c r="U24" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
         <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X24" t="n">
         <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
         <v>28</v>
@@ -3709,10 +3709,10 @@
         <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF24" t="n">
         <v>11.5</v>
@@ -3724,13 +3724,13 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
         <v>48</v>
@@ -3739,10 +3739,10 @@
         <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="G25" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -3790,7 +3790,7 @@
         <v>3.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="M25" t="n">
         <v>1.17</v>
@@ -3799,7 +3799,7 @@
         <v>2.26</v>
       </c>
       <c r="O25" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="P25" t="n">
         <v>1.4</v>
@@ -3811,73 +3811,73 @@
         <v>1.13</v>
       </c>
       <c r="S25" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="T25" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V25" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X25" t="n">
         <v>6.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA25" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK25" t="n">
         <v>40</v>
       </c>
       <c r="AL25" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="AM25" t="n">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="AN25" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO25" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
@@ -3907,82 +3907,82 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.88</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.89</v>
-      </c>
       <c r="H26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I26" t="n">
         <v>4.6</v>
       </c>
-      <c r="I26" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R26" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T26" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U26" t="n">
         <v>2.3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W26" t="n">
         <v>2.12</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
         <v>18.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="n">
         <v>95</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF26" t="n">
         <v>11.5</v>
@@ -3991,28 +3991,28 @@
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
         <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM26" t="n">
         <v>75</v>
       </c>
       <c r="AN26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.08</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.12</v>
       </c>
       <c r="H27" t="n">
         <v>4.2</v>
@@ -4054,10 +4054,10 @@
         <v>4.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.48</v>
@@ -4066,43 +4066,43 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R27" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S27" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>1.3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
         <v>90</v>
@@ -4111,13 +4111,13 @@
         <v>8</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD27" t="n">
         <v>17.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
         <v>11.5</v>
@@ -4129,25 +4129,25 @@
         <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
         <v>25</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="n">
         <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G28" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H28" t="n">
         <v>6.2</v>
@@ -4189,10 +4189,10 @@
         <v>6.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L28" t="n">
         <v>1.48</v>
@@ -4201,13 +4201,13 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O28" t="n">
         <v>1.39</v>
       </c>
       <c r="P28" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q28" t="n">
         <v>2.18</v>
@@ -4219,28 +4219,28 @@
         <v>4.1</v>
       </c>
       <c r="T28" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U28" t="n">
         <v>1.85</v>
       </c>
       <c r="V28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X28" t="n">
         <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA28" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB28" t="n">
         <v>7.2</v>
@@ -4318,64 +4318,64 @@
         <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I29" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="J29" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="M29" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="V29" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z29" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AA29" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
         <v>21</v>
@@ -4405,7 +4405,7 @@
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
         <v>360</v>
@@ -4453,7 +4453,7 @@
         <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I30" t="n">
         <v>2.8</v>
@@ -4474,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
         <v>1.66</v>
@@ -4489,31 +4489,31 @@
         <v>4.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V30" t="n">
         <v>1.55</v>
       </c>
       <c r="W30" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X30" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA30" t="n">
         <v>46</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC30" t="n">
         <v>7.2</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H31" t="n">
         <v>3.65</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J31" t="n">
         <v>3.55</v>
@@ -4600,46 +4600,46 @@
         <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O31" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.37</v>
       </c>
-      <c r="S31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W31" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Z31" t="n">
         <v>85</v>
@@ -4648,25 +4648,25 @@
         <v>900</v>
       </c>
       <c r="AB31" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AF31" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI31" t="n">
         <v>260</v>
@@ -4675,16 +4675,16 @@
         <v>85</v>
       </c>
       <c r="AK31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO31" t="n">
         <v>600</v>
@@ -4717,73 +4717,73 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G32" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H32" t="n">
         <v>3.85</v>
       </c>
       <c r="I32" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P32" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S32" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V32" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W32" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X32" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC32" t="n">
         <v>7.4</v>
@@ -4792,37 +4792,37 @@
         <v>16</v>
       </c>
       <c r="AE32" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF32" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
         <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="n">
         <v>28</v>
       </c>
       <c r="AK32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL32" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO32" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G33" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H33" t="n">
         <v>5.9</v>
@@ -4864,7 +4864,7 @@
         <v>6.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
         <v>3.6</v>
@@ -4915,7 +4915,7 @@
         <v>48</v>
       </c>
       <c r="AA33" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB33" t="n">
         <v>6</v>
@@ -4945,7 +4945,7 @@
         <v>19.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>260</v>
       </c>
       <c r="G2" t="n">
-        <v>2.94</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="J2" t="n">
-        <v>2.04</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>2.12</v>
+        <v>290</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V2" t="n">
+        <v>55</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.01</v>
       </c>
-      <c r="S2" t="n">
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>270</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
         <v>55</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>260</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>310</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,102 +788,102 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Serik Belediyespor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>2.86</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>2.96</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.06</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>2.12</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.01</v>
       </c>
-      <c r="S3" t="n">
-        <v>55</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.51</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="X3" t="n">
-        <v>2.88</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,87 +923,87 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.06</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="H4" t="n">
-        <v>5.7</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>19.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>1.17</v>
       </c>
       <c r="K4" t="n">
-        <v>17</v>
+        <v>1.18</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="O4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.01</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.29</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>100</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>120</v>
       </c>
       <c r="T4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.01</v>
       </c>
-      <c r="U4" t="n">
-        <v>2.62</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>1.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.6</v>
+        <v>820</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
@@ -1015,13 +1015,13 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Oleksandria</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.08</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>2.26</v>
+        <v>280</v>
       </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>1.11</v>
       </c>
       <c r="J5" t="n">
-        <v>2.56</v>
+        <v>11.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.8</v>
+        <v>12.5</v>
       </c>
       <c r="L5" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>1.55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>19.5</v>
       </c>
       <c r="G6" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="I6" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>14</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,28 +1237,28 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.64</v>
+        <v>3.7</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>1.05</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1267,10 +1267,10 @@
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1279,10 +1279,10 @@
         <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
@@ -1291,10 +1291,10 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,22 +1303,22 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="G7" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>2.74</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>21</v>
       </c>
       <c r="M7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.09</v>
       </c>
-      <c r="N7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.3</v>
-      </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>1.42</v>
       </c>
       <c r="V7" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z7" t="n">
         <v>25</v>
       </c>
       <c r="AA7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK7" t="n">
         <v>80</v>
       </c>
-      <c r="AB7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>30</v>
-      </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Serik Belediyespor</t>
+          <t>Athlitiki Enosi Larissa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>7.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.69</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>8</v>
       </c>
-      <c r="AD8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>25</v>
-      </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>4.8</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>8.4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>12.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>18.5</v>
       </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.78</v>
+        <v>1.02</v>
       </c>
       <c r="G9" t="n">
-        <v>1.79</v>
+        <v>1.03</v>
       </c>
       <c r="H9" t="n">
+        <v>200</v>
+      </c>
+      <c r="I9" t="n">
+        <v>300</v>
+      </c>
+      <c r="J9" t="n">
+        <v>40</v>
+      </c>
+      <c r="K9" t="n">
+        <v>50</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>5.4</v>
       </c>
-      <c r="I9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.43</v>
-      </c>
       <c r="S9" t="n">
-        <v>3.25</v>
+        <v>1.21</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>2.26</v>
+        <v>34</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AL9" t="n">
         <v>18</v>
       </c>
-      <c r="AI9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>1.71</v>
       </c>
       <c r="AO9" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>2.54</v>
+        <v>3.45</v>
       </c>
       <c r="H10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.05</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.98</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>2.52</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.61</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>3.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>2.28</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>300</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.9</v>
+        <v>1.88</v>
       </c>
       <c r="G11" t="n">
-        <v>3.95</v>
+        <v>1.92</v>
       </c>
       <c r="H11" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.32</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>2.86</v>
+        <v>6.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>1.62</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.58</v>
+        <v>1.47</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22</v>
+        <v>1.81</v>
       </c>
       <c r="S11" t="n">
-        <v>5.3</v>
+        <v>2.16</v>
       </c>
       <c r="T11" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="U11" t="n">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>1.34</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.6</v>
+        <v>27</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="AN11" t="n">
-        <v>95</v>
+        <v>7.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>1.57</v>
       </c>
       <c r="G12" t="n">
-        <v>2.22</v>
+        <v>1.59</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.82</v>
       </c>
       <c r="S12" t="n">
-        <v>2.98</v>
+        <v>2.12</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>1.82</v>
+        <v>2.72</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE12" t="n">
         <v>65</v>
       </c>
-      <c r="AB12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>38</v>
-      </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>5.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Athlitiki Enosi Larissa</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.52</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.14</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF13" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>16</v>
-      </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
         <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>7.8</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.86</v>
+        <v>2.58</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88</v>
+        <v>2.68</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>2.62</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>2.68</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="W14" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z14" t="n">
         <v>22</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>38</v>
       </c>
-      <c r="AA14" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AK14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN14" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG14" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="I15" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>3.35</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="W15" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB15" t="n">
         <v>13</v>
       </c>
-      <c r="Y15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
         <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK15" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AO15" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="G16" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="P16" t="n">
-        <v>2.74</v>
+        <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="R16" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>2.38</v>
+        <v>4.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="U16" t="n">
-        <v>2.74</v>
+        <v>1.99</v>
       </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="W16" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="X16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN16" t="n">
         <v>38</v>
       </c>
-      <c r="Y16" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>13</v>
-      </c>
       <c r="AO16" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.89</v>
+        <v>2.38</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.61</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.18</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.68</v>
-      </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>5.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="U17" t="n">
-        <v>2.56</v>
+        <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="X17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH17" t="n">
         <v>27</v>
       </c>
-      <c r="Y17" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI17" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AM17" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.8</v>
+        <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.56</v>
+        <v>2.34</v>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>2.88</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.52</v>
+        <v>2.18</v>
       </c>
       <c r="R18" t="n">
-        <v>1.77</v>
+        <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
-        <v>2.48</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>2.66</v>
+        <v>1.72</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF18" t="n">
         <v>14</v>
       </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
         <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AK18" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.5</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="G19" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I19" t="n">
         <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.25</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.79</v>
-      </c>
       <c r="S19" t="n">
-        <v>2.22</v>
+        <v>4.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.53</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>2.72</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
         <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>7.4</v>
       </c>
       <c r="AC19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF19" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>15.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN19" t="n">
         <v>22</v>
       </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>7</v>
-      </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.72</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.22</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="J20" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.05</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="N20" t="n">
-        <v>3.05</v>
+        <v>2.26</v>
       </c>
       <c r="O20" t="n">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="P20" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>3.35</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="S20" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="U20" t="n">
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
       <c r="V20" t="n">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="W20" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="X20" t="n">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="Y20" t="n">
         <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AA20" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
         <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AJ20" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AK20" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="AN20" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO20" t="n">
-        <v>48</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="G21" t="n">
-        <v>2.46</v>
+        <v>1.93</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>2.56</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.5</v>
+        <v>2.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="S21" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="T21" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="U21" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W21" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="X21" t="n">
-        <v>8.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>26</v>
-      </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="n">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AM21" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>600</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H22" t="n">
         <v>4.1</v>
       </c>
-      <c r="G22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.16</v>
-      </c>
       <c r="I22" t="n">
-        <v>2.22</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P22" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.82</v>
+        <v>1.31</v>
       </c>
       <c r="W22" t="n">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="AA22" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.36</v>
+        <v>1.69</v>
       </c>
       <c r="G23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W23" t="n">
         <v>2.44</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.71</v>
-      </c>
       <c r="X23" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD23" t="n">
         <v>24</v>
       </c>
-      <c r="AA23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16</v>
-      </c>
       <c r="AE23" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.14</v>
+        <v>3.5</v>
       </c>
       <c r="G24" t="n">
-        <v>2.16</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>2.24</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>2.46</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="T24" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="W24" t="n">
-        <v>1.86</v>
+        <v>1.35</v>
       </c>
       <c r="X24" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.8</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.2</v>
+        <v>14.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>4.6</v>
+        <v>2.78</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>2.84</v>
       </c>
       <c r="J25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N25" t="n">
         <v>3</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.26</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="R25" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="T25" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="W25" t="n">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="X25" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="AB25" t="n">
-        <v>5.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>430</v>
+        <v>790</v>
       </c>
       <c r="AN25" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AO25" t="n">
-        <v>220</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="G26" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R26" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="S26" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="U26" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V26" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="X26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>95</v>
+        <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AK26" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AL26" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,39 +4028,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4072,88 +4072,88 @@
         <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V27" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="X27" t="n">
         <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF27" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>65</v>
       </c>
       <c r="AJ27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK27" t="n">
         <v>25</v>
       </c>
-      <c r="AK27" t="n">
-        <v>23</v>
-      </c>
       <c r="AL27" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="n">
         <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,800 +4163,125 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="G28" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="H28" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I28" t="n">
         <v>6.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>3.45</v>
+        <v>2.68</v>
       </c>
       <c r="O28" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="P28" t="n">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.18</v>
+        <v>2.74</v>
       </c>
       <c r="R28" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="T28" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="U28" t="n">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y28" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z28" t="n">
         <v>48</v>
       </c>
       <c r="AA28" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AI28" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Real Cartagena</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X29" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>360</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>19:15:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X30" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Nublense</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Huachipato</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Union Santa Fe</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Gimnasia La Plata</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>270</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>360</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO33" t="n">
         <v>340</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,88 +697,88 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.78</v>
+        <v>1.26</v>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>1.27</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.48</v>
+        <v>5.9</v>
       </c>
       <c r="K3" t="n">
-        <v>2.56</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.64</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>2.52</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.18</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.4</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.04</v>
       </c>
-      <c r="S3" t="n">
-        <v>23</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.53</v>
+        <v>4.7</v>
       </c>
       <c r="X3" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>38</v>
       </c>
       <c r="AE3" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>4.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>8.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="AJ3" t="n">
-        <v>80</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK3" t="n">
-        <v>130</v>
+        <v>18.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
+        <v>470</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>610</v>
       </c>
     </row>
     <row r="4">
@@ -923,531 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="H4" t="n">
-        <v>9.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="I4" t="n">
-        <v>9.6</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>2.44</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>2.74</v>
+        <v>2.16</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.1</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
         <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="AN4" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Nublense</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Huachipato</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X5" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-11-24</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Union Santa Fe</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Gimnasia La Plata</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>310</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
